--- a/inst/extdata/Electricity Consumption by sector.xlsx
+++ b/inst/extdata/Electricity Consumption by sector.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauri\Documents\RPackages\china_co2\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauri\Documents\RPackages\china_co2\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4205D7D6-B0D7-4185-AE52-1D940D8DE1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DB07E1-9FB7-4896-B417-64F0D25DD554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="266">
   <si>
     <t>Name</t>
   </si>
@@ -850,14 +850,20 @@
   <si>
     <t>2023-09-27</t>
   </si>
+  <si>
+    <t>2006-03:2023-09</t>
+  </si>
+  <si>
+    <t>2023-10-18</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -900,6 +906,9 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -908,9 +917,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1249,7 +1255,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DV214"/>
+  <dimension ref="A1:DV215"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
       <selection activeCell="J201" sqref="J201"/>
@@ -1305,8 +1311,8 @@
     <col min="86" max="87" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="91" max="92" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="90" max="91" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="93" max="93" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="95" max="96" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="97" max="99" width="10.26953125" bestFit="1" customWidth="1"/>
@@ -1318,8 +1324,7 @@
     <col min="108" max="108" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="109" max="109" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="110" max="110" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="111" max="112" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="113" max="113" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="114" max="114" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="115" max="115" width="9.26953125" bestFit="1" customWidth="1"/>
@@ -1338,2667 +1343,2667 @@
       </c>
     </row>
     <row r="2" spans="1:126">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AA2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AB2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AC2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AD2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AE2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AF2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AG2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AH2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AI2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AK2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AL2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AM2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AN2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AO2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="AP2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AQ2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AR2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AS2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AT2" s="3" t="s">
+      <c r="AT2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AU2" s="3" t="s">
+      <c r="AU2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AV2" s="3" t="s">
+      <c r="AV2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AW2" s="3" t="s">
+      <c r="AW2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AX2" s="3" t="s">
+      <c r="AX2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AY2" s="3" t="s">
+      <c r="AY2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AZ2" s="3" t="s">
+      <c r="AZ2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="BA2" s="3" t="s">
+      <c r="BA2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BB2" s="3" t="s">
+      <c r="BB2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BC2" s="3" t="s">
+      <c r="BC2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BD2" s="3" t="s">
+      <c r="BD2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="BE2" s="3" t="s">
+      <c r="BE2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BF2" s="3" t="s">
+      <c r="BF2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="BG2" s="3" t="s">
+      <c r="BG2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BH2" s="3" t="s">
+      <c r="BH2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BI2" s="3" t="s">
+      <c r="BI2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BJ2" s="3" t="s">
+      <c r="BJ2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="BK2" s="3" t="s">
+      <c r="BK2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BL2" s="3" t="s">
+      <c r="BL2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BM2" s="3" t="s">
+      <c r="BM2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BN2" s="3" t="s">
+      <c r="BN2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BO2" s="3" t="s">
+      <c r="BO2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BP2" s="3" t="s">
+      <c r="BP2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="BQ2" s="3" t="s">
+      <c r="BQ2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BR2" s="3" t="s">
+      <c r="BR2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="BS2" s="3" t="s">
+      <c r="BS2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="BT2" s="3" t="s">
+      <c r="BT2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="BU2" s="3" t="s">
+      <c r="BU2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="BV2" s="3" t="s">
+      <c r="BV2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BW2" s="3" t="s">
+      <c r="BW2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BX2" s="3" t="s">
+      <c r="BX2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BY2" s="3" t="s">
+      <c r="BY2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="BZ2" s="3" t="s">
+      <c r="BZ2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="CA2" s="3" t="s">
+      <c r="CA2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="CB2" s="3" t="s">
+      <c r="CB2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="CC2" s="3" t="s">
+      <c r="CC2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="CD2" s="3" t="s">
+      <c r="CD2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="CE2" s="3" t="s">
+      <c r="CE2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="CF2" s="3" t="s">
+      <c r="CF2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="CG2" s="3" t="s">
+      <c r="CG2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="CH2" s="3" t="s">
+      <c r="CH2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CI2" s="3" t="s">
+      <c r="CI2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="CJ2" s="3" t="s">
+      <c r="CJ2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="CK2" s="3" t="s">
+      <c r="CK2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="CL2" s="3" t="s">
+      <c r="CL2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="CM2" s="3" t="s">
+      <c r="CM2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="CN2" s="3" t="s">
+      <c r="CN2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="CO2" s="3" t="s">
+      <c r="CO2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="CP2" s="3" t="s">
+      <c r="CP2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="CQ2" s="3" t="s">
+      <c r="CQ2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="CR2" s="3" t="s">
+      <c r="CR2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="CS2" s="3" t="s">
+      <c r="CS2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="CT2" s="3" t="s">
+      <c r="CT2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="CU2" s="3" t="s">
+      <c r="CU2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="CV2" s="3" t="s">
+      <c r="CV2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="CW2" s="3" t="s">
+      <c r="CW2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="CX2" s="3" t="s">
+      <c r="CX2" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="CY2" s="3" t="s">
+      <c r="CY2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="CZ2" s="3" t="s">
+      <c r="CZ2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="DA2" s="3" t="s">
+      <c r="DA2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="DB2" s="3" t="s">
+      <c r="DB2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="DC2" s="3" t="s">
+      <c r="DC2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="DD2" s="3" t="s">
+      <c r="DD2" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="DE2" s="3" t="s">
+      <c r="DE2" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="DF2" s="3" t="s">
+      <c r="DF2" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="DG2" s="3" t="s">
+      <c r="DG2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="DH2" s="3" t="s">
+      <c r="DH2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="DI2" s="3" t="s">
+      <c r="DI2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="DJ2" s="3" t="s">
+      <c r="DJ2" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="DK2" s="3" t="s">
+      <c r="DK2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="DL2" s="3" t="s">
+      <c r="DL2" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="DM2" s="3" t="s">
+      <c r="DM2" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="DN2" s="3" t="s">
+      <c r="DN2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="DO2" s="3" t="s">
+      <c r="DO2" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="DP2" s="3" t="s">
+      <c r="DP2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="DQ2" s="3" t="s">
+      <c r="DQ2" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="DR2" s="3" t="s">
+      <c r="DR2" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="DS2" s="3" t="s">
+      <c r="DS2" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="DT2" s="3" t="s">
+      <c r="DT2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="DU2" s="3" t="s">
+      <c r="DU2" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="DV2" s="3" t="s">
+      <c r="DV2" s="4" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:126">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="X3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Y3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="Z3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AA3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AB3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AC3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AD3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AE3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AF3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AG3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AH3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AI3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AK3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AL3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AM3" s="3" t="s">
+      <c r="AM3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AN3" s="3" t="s">
+      <c r="AN3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AO3" s="3" t="s">
+      <c r="AO3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AP3" s="3" t="s">
+      <c r="AP3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AQ3" s="3" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AR3" s="3" t="s">
+      <c r="AR3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AS3" s="3" t="s">
+      <c r="AS3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AT3" s="3" t="s">
+      <c r="AT3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AU3" s="3" t="s">
+      <c r="AU3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AV3" s="3" t="s">
+      <c r="AV3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AW3" s="3" t="s">
+      <c r="AW3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AX3" s="3" t="s">
+      <c r="AX3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AY3" s="3" t="s">
+      <c r="AY3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AZ3" s="3" t="s">
+      <c r="AZ3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BA3" s="3" t="s">
+      <c r="BA3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BB3" s="3" t="s">
+      <c r="BB3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BC3" s="3" t="s">
+      <c r="BC3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BD3" s="3" t="s">
+      <c r="BD3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BE3" s="3" t="s">
+      <c r="BE3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BF3" s="3" t="s">
+      <c r="BF3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BG3" s="3" t="s">
+      <c r="BG3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BH3" s="3" t="s">
+      <c r="BH3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BI3" s="3" t="s">
+      <c r="BI3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BJ3" s="3" t="s">
+      <c r="BJ3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BK3" s="3" t="s">
+      <c r="BK3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BL3" s="3" t="s">
+      <c r="BL3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BM3" s="3" t="s">
+      <c r="BM3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BN3" s="3" t="s">
+      <c r="BN3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BO3" s="3" t="s">
+      <c r="BO3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BP3" s="3" t="s">
+      <c r="BP3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BQ3" s="3" t="s">
+      <c r="BQ3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BR3" s="3" t="s">
+      <c r="BR3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BS3" s="3" t="s">
+      <c r="BS3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BT3" s="3" t="s">
+      <c r="BT3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BU3" s="3" t="s">
+      <c r="BU3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BV3" s="3" t="s">
+      <c r="BV3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BW3" s="3" t="s">
+      <c r="BW3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BX3" s="3" t="s">
+      <c r="BX3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BY3" s="3" t="s">
+      <c r="BY3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BZ3" s="3" t="s">
+      <c r="BZ3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="CA3" s="3" t="s">
+      <c r="CA3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="CB3" s="3" t="s">
+      <c r="CB3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="CC3" s="3" t="s">
+      <c r="CC3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="CD3" s="3" t="s">
+      <c r="CD3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="CE3" s="3" t="s">
+      <c r="CE3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="CF3" s="3" t="s">
+      <c r="CF3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="CG3" s="3" t="s">
+      <c r="CG3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="CH3" s="3" t="s">
+      <c r="CH3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="CI3" s="3" t="s">
+      <c r="CI3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="CJ3" s="3" t="s">
+      <c r="CJ3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="CK3" s="3" t="s">
+      <c r="CK3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="CL3" s="3" t="s">
+      <c r="CL3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="CM3" s="3" t="s">
+      <c r="CM3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="CN3" s="3" t="s">
+      <c r="CN3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="CO3" s="3" t="s">
+      <c r="CO3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="CP3" s="3" t="s">
+      <c r="CP3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="CQ3" s="3" t="s">
+      <c r="CQ3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="CR3" s="3" t="s">
+      <c r="CR3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="CS3" s="3" t="s">
+      <c r="CS3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="CT3" s="3" t="s">
+      <c r="CT3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="CU3" s="3" t="s">
+      <c r="CU3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="CV3" s="3" t="s">
+      <c r="CV3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="CW3" s="3" t="s">
+      <c r="CW3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="CX3" s="3" t="s">
+      <c r="CX3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="CY3" s="3" t="s">
+      <c r="CY3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="CZ3" s="3" t="s">
+      <c r="CZ3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="DA3" s="3" t="s">
+      <c r="DA3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="DB3" s="3" t="s">
+      <c r="DB3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="DC3" s="3" t="s">
+      <c r="DC3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="DD3" s="3" t="s">
+      <c r="DD3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="DE3" s="3" t="s">
+      <c r="DE3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="DF3" s="3" t="s">
+      <c r="DF3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="DG3" s="3" t="s">
+      <c r="DG3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="DH3" s="3" t="s">
+      <c r="DH3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="DI3" s="3" t="s">
+      <c r="DI3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="DJ3" s="3" t="s">
+      <c r="DJ3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="DK3" s="3" t="s">
+      <c r="DK3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="DL3" s="3" t="s">
+      <c r="DL3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="DM3" s="3" t="s">
+      <c r="DM3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="DN3" s="3" t="s">
+      <c r="DN3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="DO3" s="3" t="s">
+      <c r="DO3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="DP3" s="3" t="s">
+      <c r="DP3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="DQ3" s="3" t="s">
+      <c r="DQ3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="DR3" s="3" t="s">
+      <c r="DR3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="DS3" s="3" t="s">
+      <c r="DS3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="DT3" s="3" t="s">
+      <c r="DT3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="DU3" s="3" t="s">
+      <c r="DU3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="DV3" s="3" t="s">
+      <c r="DV3" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:126">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AA4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AB4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AC4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AD4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AE4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AF4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AG4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AH4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AI4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AJ4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AK4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AL4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AM4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AN4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AO4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AP4" s="3" t="s">
+      <c r="AP4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AQ4" s="3" t="s">
+      <c r="AQ4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AR4" s="3" t="s">
+      <c r="AR4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AS4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AT4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AU4" s="3" t="s">
+      <c r="AU4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AV4" s="3" t="s">
+      <c r="AV4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AW4" s="3" t="s">
+      <c r="AW4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AX4" s="3" t="s">
+      <c r="AX4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AY4" s="3" t="s">
+      <c r="AY4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AZ4" s="3" t="s">
+      <c r="AZ4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="BA4" s="3" t="s">
+      <c r="BA4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="BB4" s="3" t="s">
+      <c r="BB4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="BC4" s="3" t="s">
+      <c r="BC4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="BD4" s="3" t="s">
+      <c r="BD4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="BE4" s="3" t="s">
+      <c r="BE4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="BF4" s="3" t="s">
+      <c r="BF4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="BG4" s="3" t="s">
+      <c r="BG4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="BH4" s="3" t="s">
+      <c r="BH4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="BI4" s="3" t="s">
+      <c r="BI4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="BJ4" s="3" t="s">
+      <c r="BJ4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="BK4" s="3" t="s">
+      <c r="BK4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="BL4" s="3" t="s">
+      <c r="BL4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="BM4" s="3" t="s">
+      <c r="BM4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="BN4" s="3" t="s">
+      <c r="BN4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="BO4" s="3" t="s">
+      <c r="BO4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="BP4" s="3" t="s">
+      <c r="BP4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="BQ4" s="3" t="s">
+      <c r="BQ4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="BR4" s="3" t="s">
+      <c r="BR4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="BS4" s="3" t="s">
+      <c r="BS4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="BT4" s="3" t="s">
+      <c r="BT4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="BU4" s="3" t="s">
+      <c r="BU4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="BV4" s="3" t="s">
+      <c r="BV4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="BW4" s="3" t="s">
+      <c r="BW4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="BX4" s="3" t="s">
+      <c r="BX4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="BY4" s="3" t="s">
+      <c r="BY4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="BZ4" s="3" t="s">
+      <c r="BZ4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="CA4" s="3" t="s">
+      <c r="CA4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="CB4" s="3" t="s">
+      <c r="CB4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="CC4" s="3" t="s">
+      <c r="CC4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="CD4" s="3" t="s">
+      <c r="CD4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="CE4" s="3" t="s">
+      <c r="CE4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="CF4" s="3" t="s">
+      <c r="CF4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="CG4" s="3" t="s">
+      <c r="CG4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="CH4" s="3" t="s">
+      <c r="CH4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="CI4" s="3" t="s">
+      <c r="CI4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="CJ4" s="3" t="s">
+      <c r="CJ4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="CK4" s="3" t="s">
+      <c r="CK4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="CL4" s="3" t="s">
+      <c r="CL4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="CM4" s="3" t="s">
+      <c r="CM4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="CN4" s="3" t="s">
+      <c r="CN4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="CO4" s="3" t="s">
+      <c r="CO4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="CP4" s="3" t="s">
+      <c r="CP4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="CQ4" s="3" t="s">
+      <c r="CQ4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="CR4" s="3" t="s">
+      <c r="CR4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="CS4" s="3" t="s">
+      <c r="CS4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="CT4" s="3" t="s">
+      <c r="CT4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="CU4" s="3" t="s">
+      <c r="CU4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="CV4" s="3" t="s">
+      <c r="CV4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="CW4" s="3" t="s">
+      <c r="CW4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="CX4" s="3" t="s">
+      <c r="CX4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="CY4" s="3" t="s">
+      <c r="CY4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="CZ4" s="3" t="s">
+      <c r="CZ4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="DA4" s="3" t="s">
+      <c r="DA4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="DB4" s="3" t="s">
+      <c r="DB4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="DC4" s="3" t="s">
+      <c r="DC4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="DD4" s="3" t="s">
+      <c r="DD4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="DE4" s="3" t="s">
+      <c r="DE4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="DF4" s="3" t="s">
+      <c r="DF4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="DG4" s="3" t="s">
+      <c r="DG4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="DH4" s="3" t="s">
+      <c r="DH4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="DI4" s="3" t="s">
+      <c r="DI4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="DJ4" s="3" t="s">
+      <c r="DJ4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="DK4" s="3" t="s">
+      <c r="DK4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="DL4" s="3" t="s">
+      <c r="DL4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="DM4" s="3" t="s">
+      <c r="DM4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="DN4" s="3" t="s">
+      <c r="DN4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="DO4" s="3" t="s">
+      <c r="DO4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="DP4" s="3" t="s">
+      <c r="DP4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="DQ4" s="3" t="s">
+      <c r="DQ4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="DR4" s="3" t="s">
+      <c r="DR4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="DS4" s="3" t="s">
+      <c r="DS4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="DT4" s="3" t="s">
+      <c r="DT4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="DU4" s="3" t="s">
+      <c r="DU4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="DV4" s="3" t="s">
+      <c r="DV4" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:126">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S5" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="U5" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="V5" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="W5" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="X5" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Y5" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="Z5" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AA5" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AB5" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AC5" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AD5" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AE5" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="AF5" s="3" t="s">
+      <c r="AF5" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AG5" s="3" t="s">
+      <c r="AG5" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="AH5" s="3" t="s">
+      <c r="AH5" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AI5" s="3" t="s">
+      <c r="AI5" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="AJ5" s="3" t="s">
+      <c r="AJ5" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="AK5" s="3" t="s">
+      <c r="AK5" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="AL5" s="3" t="s">
+      <c r="AL5" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="AM5" s="3" t="s">
+      <c r="AM5" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="AN5" s="3" t="s">
+      <c r="AN5" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="AO5" s="3" t="s">
+      <c r="AO5" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="AP5" s="3" t="s">
+      <c r="AP5" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="AQ5" s="3" t="s">
+      <c r="AQ5" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="AR5" s="3" t="s">
+      <c r="AR5" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="AS5" s="3" t="s">
+      <c r="AS5" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="AT5" s="3" t="s">
+      <c r="AT5" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="AU5" s="3" t="s">
+      <c r="AU5" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="AV5" s="3" t="s">
+      <c r="AV5" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="AW5" s="3" t="s">
+      <c r="AW5" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="AX5" s="3" t="s">
+      <c r="AX5" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="AY5" s="3" t="s">
+      <c r="AY5" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="AZ5" s="3" t="s">
+      <c r="AZ5" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="BA5" s="3" t="s">
+      <c r="BA5" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="BB5" s="3" t="s">
+      <c r="BB5" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="BC5" s="3" t="s">
+      <c r="BC5" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="BD5" s="3" t="s">
+      <c r="BD5" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="BE5" s="3" t="s">
+      <c r="BE5" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="BF5" s="3" t="s">
+      <c r="BF5" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="BG5" s="3" t="s">
+      <c r="BG5" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="BH5" s="3" t="s">
+      <c r="BH5" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="BI5" s="3" t="s">
+      <c r="BI5" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="BJ5" s="3" t="s">
+      <c r="BJ5" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="BK5" s="3" t="s">
+      <c r="BK5" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="BL5" s="3" t="s">
+      <c r="BL5" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="BM5" s="3" t="s">
+      <c r="BM5" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="BN5" s="3" t="s">
+      <c r="BN5" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="BO5" s="3" t="s">
+      <c r="BO5" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="BP5" s="3" t="s">
+      <c r="BP5" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="BQ5" s="3" t="s">
+      <c r="BQ5" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="BR5" s="3" t="s">
+      <c r="BR5" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="BS5" s="3" t="s">
+      <c r="BS5" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="BT5" s="3" t="s">
+      <c r="BT5" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="BU5" s="3" t="s">
+      <c r="BU5" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="BV5" s="3" t="s">
+      <c r="BV5" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="BW5" s="3" t="s">
+      <c r="BW5" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="BX5" s="3" t="s">
+      <c r="BX5" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="BY5" s="3" t="s">
+      <c r="BY5" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="BZ5" s="3" t="s">
+      <c r="BZ5" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="CA5" s="3" t="s">
+      <c r="CA5" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="CB5" s="3" t="s">
+      <c r="CB5" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="CC5" s="3" t="s">
+      <c r="CC5" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="CD5" s="3" t="s">
+      <c r="CD5" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="CE5" s="3" t="s">
+      <c r="CE5" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="CF5" s="3" t="s">
+      <c r="CF5" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="CG5" s="3" t="s">
+      <c r="CG5" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="CH5" s="3" t="s">
+      <c r="CH5" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="CI5" s="3" t="s">
+      <c r="CI5" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="CJ5" s="3" t="s">
+      <c r="CJ5" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="CK5" s="3" t="s">
+      <c r="CK5" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="CL5" s="3" t="s">
+      <c r="CL5" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="CM5" s="3" t="s">
+      <c r="CM5" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="CN5" s="3" t="s">
+      <c r="CN5" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="CO5" s="3" t="s">
+      <c r="CO5" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="CP5" s="3" t="s">
+      <c r="CP5" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="CQ5" s="3" t="s">
+      <c r="CQ5" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="CR5" s="3" t="s">
+      <c r="CR5" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="CS5" s="3" t="s">
+      <c r="CS5" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="CT5" s="3" t="s">
+      <c r="CT5" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="CU5" s="3" t="s">
+      <c r="CU5" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="CV5" s="3" t="s">
+      <c r="CV5" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="CW5" s="3" t="s">
+      <c r="CW5" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="CX5" s="3" t="s">
+      <c r="CX5" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="CY5" s="3" t="s">
+      <c r="CY5" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="CZ5" s="3" t="s">
+      <c r="CZ5" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="DA5" s="3" t="s">
+      <c r="DA5" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="DB5" s="3" t="s">
+      <c r="DB5" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="DC5" s="3" t="s">
+      <c r="DC5" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="DD5" s="3" t="s">
+      <c r="DD5" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="DE5" s="3" t="s">
+      <c r="DE5" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="DF5" s="3" t="s">
+      <c r="DF5" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="DG5" s="3" t="s">
+      <c r="DG5" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="DH5" s="3" t="s">
+      <c r="DH5" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="DI5" s="3" t="s">
+      <c r="DI5" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="DJ5" s="3" t="s">
+      <c r="DJ5" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="DK5" s="3" t="s">
+      <c r="DK5" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="DL5" s="3" t="s">
+      <c r="DL5" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="DM5" s="3" t="s">
+      <c r="DM5" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="DN5" s="3" t="s">
+      <c r="DN5" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="DO5" s="3" t="s">
+      <c r="DO5" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="DP5" s="3" t="s">
+      <c r="DP5" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="DQ5" s="3" t="s">
+      <c r="DQ5" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="DR5" s="3" t="s">
+      <c r="DR5" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="DS5" s="3" t="s">
+      <c r="DS5" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="DT5" s="3" t="s">
+      <c r="DT5" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="DU5" s="3" t="s">
+      <c r="DU5" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="DV5" s="3" t="s">
+      <c r="DV5" s="4" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:126">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="R6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="S6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="T6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="U6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="V6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="W6" s="3" t="s">
+      <c r="W6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="X6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="Y6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="Z6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="AA6" s="3" t="s">
+      <c r="AA6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="AB6" s="3" t="s">
+      <c r="AB6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="AC6" s="3" t="s">
+      <c r="AC6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="AD6" s="3" t="s">
+      <c r="AD6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="AE6" s="3" t="s">
+      <c r="AE6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="AF6" s="3" t="s">
+      <c r="AF6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="AG6" s="3" t="s">
+      <c r="AG6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="AH6" s="3" t="s">
+      <c r="AH6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="AI6" s="3" t="s">
+      <c r="AI6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="AJ6" s="3" t="s">
+      <c r="AJ6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="AK6" s="3" t="s">
+      <c r="AK6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="AL6" s="3" t="s">
+      <c r="AL6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="AM6" s="3" t="s">
+      <c r="AM6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="AN6" s="3" t="s">
+      <c r="AN6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="AO6" s="3" t="s">
+      <c r="AO6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="AP6" s="3" t="s">
+      <c r="AP6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="AQ6" s="3" t="s">
+      <c r="AQ6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="AR6" s="3" t="s">
+      <c r="AR6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="AS6" s="3" t="s">
+      <c r="AS6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="AT6" s="3" t="s">
+      <c r="AT6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="AU6" s="3" t="s">
+      <c r="AU6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="AV6" s="3" t="s">
+      <c r="AV6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="AW6" s="3" t="s">
+      <c r="AW6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="AX6" s="3" t="s">
+      <c r="AX6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="AY6" s="3" t="s">
+      <c r="AY6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="AZ6" s="3" t="s">
+      <c r="AZ6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="BA6" s="3" t="s">
+      <c r="BA6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="BB6" s="3" t="s">
+      <c r="BB6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="BC6" s="3" t="s">
+      <c r="BC6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="BD6" s="3" t="s">
+      <c r="BD6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="BE6" s="3" t="s">
+      <c r="BE6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="BF6" s="3" t="s">
+      <c r="BF6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="BG6" s="3" t="s">
+      <c r="BG6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="BH6" s="3" t="s">
+      <c r="BH6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="BI6" s="3" t="s">
+      <c r="BI6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="BJ6" s="3" t="s">
+      <c r="BJ6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="BK6" s="3" t="s">
+      <c r="BK6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="BL6" s="3" t="s">
+      <c r="BL6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="BM6" s="3" t="s">
+      <c r="BM6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="BN6" s="3" t="s">
+      <c r="BN6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="BO6" s="3" t="s">
+      <c r="BO6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="BP6" s="3" t="s">
+      <c r="BP6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="BQ6" s="3" t="s">
+      <c r="BQ6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="BR6" s="3" t="s">
+      <c r="BR6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="BS6" s="3" t="s">
+      <c r="BS6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="BT6" s="3" t="s">
+      <c r="BT6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="BU6" s="3" t="s">
+      <c r="BU6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="BV6" s="3" t="s">
+      <c r="BV6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="BW6" s="3" t="s">
+      <c r="BW6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="BX6" s="3" t="s">
+      <c r="BX6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="BY6" s="3" t="s">
+      <c r="BY6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="BZ6" s="3" t="s">
+      <c r="BZ6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="CA6" s="3" t="s">
+      <c r="CA6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="CB6" s="3" t="s">
+      <c r="CB6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="CC6" s="3" t="s">
+      <c r="CC6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="CD6" s="3" t="s">
+      <c r="CD6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="CE6" s="3" t="s">
+      <c r="CE6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="CF6" s="3" t="s">
+      <c r="CF6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="CG6" s="3" t="s">
+      <c r="CG6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="CH6" s="3" t="s">
+      <c r="CH6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="CI6" s="3" t="s">
+      <c r="CI6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="CJ6" s="3" t="s">
+      <c r="CJ6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="CK6" s="3" t="s">
+      <c r="CK6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="CL6" s="3" t="s">
+      <c r="CL6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="CM6" s="3" t="s">
+      <c r="CM6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="CN6" s="3" t="s">
+      <c r="CN6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="CO6" s="3" t="s">
+      <c r="CO6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="CP6" s="3" t="s">
+      <c r="CP6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="CQ6" s="3" t="s">
+      <c r="CQ6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="CR6" s="3" t="s">
+      <c r="CR6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="CS6" s="3" t="s">
+      <c r="CS6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="CT6" s="3" t="s">
+      <c r="CT6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="CU6" s="3" t="s">
+      <c r="CU6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="CV6" s="3" t="s">
+      <c r="CV6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="CW6" s="3" t="s">
+      <c r="CW6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="CX6" s="3" t="s">
+      <c r="CX6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="CY6" s="3" t="s">
+      <c r="CY6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="CZ6" s="3" t="s">
+      <c r="CZ6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="DA6" s="3" t="s">
+      <c r="DA6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="DB6" s="3" t="s">
+      <c r="DB6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="DC6" s="3" t="s">
+      <c r="DC6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="DD6" s="3" t="s">
+      <c r="DD6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="DE6" s="3" t="s">
+      <c r="DE6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="DF6" s="3" t="s">
+      <c r="DF6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="DG6" s="3" t="s">
+      <c r="DG6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="DH6" s="3" t="s">
+      <c r="DH6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="DI6" s="3" t="s">
+      <c r="DI6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="DJ6" s="3" t="s">
+      <c r="DJ6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="DK6" s="3" t="s">
+      <c r="DK6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="DL6" s="3" t="s">
+      <c r="DL6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="DM6" s="3" t="s">
+      <c r="DM6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="DN6" s="3" t="s">
+      <c r="DN6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="DO6" s="3" t="s">
+      <c r="DO6" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="DP6" s="3" t="s">
+      <c r="DP6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="DQ6" s="3" t="s">
+      <c r="DQ6" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="DR6" s="3" t="s">
+      <c r="DR6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="DS6" s="3" t="s">
+      <c r="DS6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="DT6" s="3" t="s">
+      <c r="DT6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="DU6" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="DV6" s="3" t="s">
-        <v>260</v>
+      <c r="DU6" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="DV6" s="4" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:126">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="S7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="T7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="U7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="V7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="W7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="X7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="Y7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="Z7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="AA7" s="3" t="s">
+      <c r="AA7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AB7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="AC7" s="3" t="s">
+      <c r="AC7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="AD7" s="3" t="s">
+      <c r="AD7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="AE7" s="3" t="s">
+      <c r="AE7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="AF7" s="3" t="s">
+      <c r="AF7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="AG7" s="3" t="s">
+      <c r="AG7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="AH7" s="3" t="s">
+      <c r="AH7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="AI7" s="3" t="s">
+      <c r="AI7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="AJ7" s="3" t="s">
+      <c r="AJ7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="AK7" s="3" t="s">
+      <c r="AK7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="AL7" s="3" t="s">
+      <c r="AL7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="AM7" s="3" t="s">
+      <c r="AM7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="AN7" s="3" t="s">
+      <c r="AN7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="AO7" s="3" t="s">
+      <c r="AO7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="AP7" s="3" t="s">
+      <c r="AP7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="AQ7" s="3" t="s">
+      <c r="AQ7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="AR7" s="3" t="s">
+      <c r="AR7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="AS7" s="3" t="s">
+      <c r="AS7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="AT7" s="3" t="s">
+      <c r="AT7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="AU7" s="3" t="s">
+      <c r="AU7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="AV7" s="3" t="s">
+      <c r="AV7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="AW7" s="3" t="s">
+      <c r="AW7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="AX7" s="3" t="s">
+      <c r="AX7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="AY7" s="3" t="s">
+      <c r="AY7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="AZ7" s="3" t="s">
+      <c r="AZ7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="BA7" s="3" t="s">
+      <c r="BA7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="BB7" s="3" t="s">
+      <c r="BB7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="BC7" s="3" t="s">
+      <c r="BC7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="BD7" s="3" t="s">
+      <c r="BD7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="BE7" s="3" t="s">
+      <c r="BE7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="BF7" s="3" t="s">
+      <c r="BF7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="BG7" s="3" t="s">
+      <c r="BG7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="BH7" s="3" t="s">
+      <c r="BH7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="BI7" s="3" t="s">
+      <c r="BI7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="BJ7" s="3" t="s">
+      <c r="BJ7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="BK7" s="3" t="s">
+      <c r="BK7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="BL7" s="3" t="s">
+      <c r="BL7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="BM7" s="3" t="s">
+      <c r="BM7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="BN7" s="3" t="s">
+      <c r="BN7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="BO7" s="3" t="s">
+      <c r="BO7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="BP7" s="3" t="s">
+      <c r="BP7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="BQ7" s="3" t="s">
+      <c r="BQ7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="BR7" s="3" t="s">
+      <c r="BR7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="BS7" s="3" t="s">
+      <c r="BS7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="BT7" s="3" t="s">
+      <c r="BT7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="BU7" s="3" t="s">
+      <c r="BU7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="BV7" s="3" t="s">
+      <c r="BV7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="BW7" s="3" t="s">
+      <c r="BW7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="BX7" s="3" t="s">
+      <c r="BX7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="BY7" s="3" t="s">
+      <c r="BY7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="BZ7" s="3" t="s">
+      <c r="BZ7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="CA7" s="3" t="s">
+      <c r="CA7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="CB7" s="3" t="s">
+      <c r="CB7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="CC7" s="3" t="s">
+      <c r="CC7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="CD7" s="3" t="s">
+      <c r="CD7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="CE7" s="3" t="s">
+      <c r="CE7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="CF7" s="3" t="s">
+      <c r="CF7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="CG7" s="3" t="s">
+      <c r="CG7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="CH7" s="3" t="s">
+      <c r="CH7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="CI7" s="3" t="s">
+      <c r="CI7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="CJ7" s="3" t="s">
+      <c r="CJ7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="CK7" s="3" t="s">
+      <c r="CK7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="CL7" s="3" t="s">
+      <c r="CL7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="CM7" s="3" t="s">
+      <c r="CM7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="CN7" s="3" t="s">
+      <c r="CN7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="CO7" s="3" t="s">
+      <c r="CO7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="CP7" s="3" t="s">
+      <c r="CP7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="CQ7" s="3" t="s">
+      <c r="CQ7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="CR7" s="3" t="s">
+      <c r="CR7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="CS7" s="3" t="s">
+      <c r="CS7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="CT7" s="3" t="s">
+      <c r="CT7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="CU7" s="3" t="s">
+      <c r="CU7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="CV7" s="3" t="s">
+      <c r="CV7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="CW7" s="3" t="s">
+      <c r="CW7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="CX7" s="3" t="s">
+      <c r="CX7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="CY7" s="3" t="s">
+      <c r="CY7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="CZ7" s="3" t="s">
+      <c r="CZ7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="DA7" s="3" t="s">
+      <c r="DA7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="DB7" s="3" t="s">
+      <c r="DB7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="DC7" s="3" t="s">
+      <c r="DC7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="DD7" s="3" t="s">
+      <c r="DD7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="DE7" s="3" t="s">
+      <c r="DE7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="DF7" s="3" t="s">
+      <c r="DF7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="DG7" s="3" t="s">
+      <c r="DG7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="DH7" s="3" t="s">
+      <c r="DH7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="DI7" s="3" t="s">
+      <c r="DI7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="DJ7" s="3" t="s">
+      <c r="DJ7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="DK7" s="3" t="s">
+      <c r="DK7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="DL7" s="3" t="s">
+      <c r="DL7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="DM7" s="3" t="s">
+      <c r="DM7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="DN7" s="3" t="s">
+      <c r="DN7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="DO7" s="3" t="s">
+      <c r="DO7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="DP7" s="3" t="s">
+      <c r="DP7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="DQ7" s="3" t="s">
+      <c r="DQ7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="DR7" s="3" t="s">
+      <c r="DR7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="DS7" s="3" t="s">
+      <c r="DS7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="DT7" s="3" t="s">
+      <c r="DT7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="DU7" s="3" t="s">
+      <c r="DU7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="DV7" s="3" t="s">
+      <c r="DV7" s="4" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:126">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="R8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="S8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="T8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="U8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="V8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="W8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="X8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="Y8" s="4" t="s">
+      <c r="Y8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="Z8" s="4" t="s">
+      <c r="Z8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="AA8" s="4" t="s">
+      <c r="AA8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="AB8" s="4" t="s">
+      <c r="AB8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="AC8" s="4" t="s">
+      <c r="AC8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="AD8" s="4" t="s">
+      <c r="AD8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="AE8" s="4" t="s">
+      <c r="AE8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="AF8" s="4" t="s">
+      <c r="AF8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="AG8" s="4" t="s">
+      <c r="AG8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="AH8" s="4" t="s">
+      <c r="AH8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="AI8" s="4" t="s">
+      <c r="AI8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="AJ8" s="4" t="s">
+      <c r="AJ8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="AK8" s="4" t="s">
+      <c r="AK8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="AL8" s="4" t="s">
+      <c r="AL8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="AM8" s="4" t="s">
+      <c r="AM8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="AN8" s="4" t="s">
+      <c r="AN8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="AO8" s="4" t="s">
+      <c r="AO8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="AP8" s="4" t="s">
+      <c r="AP8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="AQ8" s="4" t="s">
+      <c r="AQ8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="AR8" s="4" t="s">
+      <c r="AR8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="AS8" s="4" t="s">
+      <c r="AS8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="AT8" s="4" t="s">
+      <c r="AT8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="AU8" s="4" t="s">
+      <c r="AU8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="AV8" s="4" t="s">
+      <c r="AV8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="AW8" s="4" t="s">
+      <c r="AW8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="AX8" s="4" t="s">
+      <c r="AX8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="AY8" s="4" t="s">
+      <c r="AY8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="AZ8" s="4" t="s">
+      <c r="AZ8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="BA8" s="4" t="s">
+      <c r="BA8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="BB8" s="4" t="s">
+      <c r="BB8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="BC8" s="4" t="s">
+      <c r="BC8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="BD8" s="4" t="s">
+      <c r="BD8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="BE8" s="4" t="s">
+      <c r="BE8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="BF8" s="4" t="s">
+      <c r="BF8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="BG8" s="4" t="s">
+      <c r="BG8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="BH8" s="4" t="s">
+      <c r="BH8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="BI8" s="4" t="s">
+      <c r="BI8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="BJ8" s="4" t="s">
+      <c r="BJ8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="BK8" s="4" t="s">
+      <c r="BK8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="BL8" s="4" t="s">
+      <c r="BL8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="BM8" s="4" t="s">
+      <c r="BM8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="BN8" s="4" t="s">
+      <c r="BN8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="BO8" s="4" t="s">
+      <c r="BO8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="BP8" s="4" t="s">
+      <c r="BP8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="BQ8" s="4" t="s">
+      <c r="BQ8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="BR8" s="4" t="s">
+      <c r="BR8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="BS8" s="4" t="s">
+      <c r="BS8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="BT8" s="4" t="s">
+      <c r="BT8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="BU8" s="4" t="s">
+      <c r="BU8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="BV8" s="4" t="s">
+      <c r="BV8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="BW8" s="4" t="s">
+      <c r="BW8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="BX8" s="4" t="s">
+      <c r="BX8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="BY8" s="4" t="s">
+      <c r="BY8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="BZ8" s="4" t="s">
+      <c r="BZ8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="CA8" s="4" t="s">
+      <c r="CA8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="CB8" s="4" t="s">
+      <c r="CB8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="CC8" s="4" t="s">
+      <c r="CC8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="CD8" s="4" t="s">
+      <c r="CD8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="CE8" s="4" t="s">
+      <c r="CE8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="CF8" s="4" t="s">
+      <c r="CF8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="CG8" s="4" t="s">
+      <c r="CG8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="CH8" s="4" t="s">
+      <c r="CH8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="CI8" s="4" t="s">
+      <c r="CI8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="CJ8" s="4" t="s">
+      <c r="CJ8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="CK8" s="4" t="s">
+      <c r="CK8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="CL8" s="4" t="s">
+      <c r="CL8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="CM8" s="4" t="s">
+      <c r="CM8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="CN8" s="4" t="s">
+      <c r="CN8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="CO8" s="4" t="s">
+      <c r="CO8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="CP8" s="4" t="s">
+      <c r="CP8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="CQ8" s="4" t="s">
+      <c r="CQ8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="CR8" s="4" t="s">
+      <c r="CR8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="CS8" s="4" t="s">
+      <c r="CS8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="CT8" s="4" t="s">
+      <c r="CT8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="CU8" s="4" t="s">
+      <c r="CU8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="CV8" s="4" t="s">
+      <c r="CV8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="CW8" s="4" t="s">
+      <c r="CW8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="CX8" s="4" t="s">
+      <c r="CX8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="CY8" s="4" t="s">
+      <c r="CY8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="CZ8" s="4" t="s">
+      <c r="CZ8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="DA8" s="4" t="s">
+      <c r="DA8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="DB8" s="4" t="s">
+      <c r="DB8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="DC8" s="4" t="s">
+      <c r="DC8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="DD8" s="4" t="s">
+      <c r="DD8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="DE8" s="4" t="s">
+      <c r="DE8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="DF8" s="4" t="s">
+      <c r="DF8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="DG8" s="4" t="s">
+      <c r="DG8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="DH8" s="4" t="s">
+      <c r="DH8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="DI8" s="4" t="s">
+      <c r="DI8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="DJ8" s="4" t="s">
+      <c r="DJ8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="DK8" s="4" t="s">
+      <c r="DK8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="DL8" s="4" t="s">
+      <c r="DL8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="DM8" s="4" t="s">
+      <c r="DM8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="DN8" s="4" t="s">
+      <c r="DN8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="DO8" s="4" t="s">
+      <c r="DO8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="DP8" s="4" t="s">
+      <c r="DP8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="DQ8" s="4" t="s">
+      <c r="DQ8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="DR8" s="4" t="s">
+      <c r="DR8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="DS8" s="4" t="s">
+      <c r="DS8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="DT8" s="4" t="s">
+      <c r="DT8" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="DU8" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="DV8" s="4" t="s">
-        <v>263</v>
+      <c r="DU8" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="DV8" s="5" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:126">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>38807</v>
       </c>
       <c r="B9" s="2">
@@ -4378,7 +4383,7 @@
       </c>
     </row>
     <row r="10" spans="1:126">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>38837</v>
       </c>
       <c r="B10" s="2">
@@ -4758,7 +4763,7 @@
       </c>
     </row>
     <row r="11" spans="1:126">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>38868</v>
       </c>
       <c r="B11" s="2">
@@ -5138,7 +5143,7 @@
       </c>
     </row>
     <row r="12" spans="1:126">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>38898</v>
       </c>
       <c r="B12" s="2">
@@ -5518,7 +5523,7 @@
       </c>
     </row>
     <row r="13" spans="1:126">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>38929</v>
       </c>
       <c r="B13" s="2">
@@ -5898,7 +5903,7 @@
       </c>
     </row>
     <row r="14" spans="1:126">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>38960</v>
       </c>
       <c r="B14" s="2">
@@ -6278,7 +6283,7 @@
       </c>
     </row>
     <row r="15" spans="1:126">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>38990</v>
       </c>
       <c r="B15" s="2">
@@ -6658,7 +6663,7 @@
       </c>
     </row>
     <row r="16" spans="1:126">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>39021</v>
       </c>
       <c r="B16" s="2">
@@ -7038,7 +7043,7 @@
       </c>
     </row>
     <row r="17" spans="1:126">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>39051</v>
       </c>
       <c r="B17" s="2">
@@ -7418,7 +7423,7 @@
       </c>
     </row>
     <row r="18" spans="1:126">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>39082</v>
       </c>
       <c r="B18" s="2">
@@ -7798,7 +7803,7 @@
       </c>
     </row>
     <row r="19" spans="1:126">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>39172</v>
       </c>
       <c r="B19" s="2">
@@ -8178,7 +8183,7 @@
       </c>
     </row>
     <row r="20" spans="1:126">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>39202</v>
       </c>
       <c r="B20" s="2">
@@ -8558,7 +8563,7 @@
       </c>
     </row>
     <row r="21" spans="1:126">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>39233</v>
       </c>
       <c r="B21" s="2">
@@ -8938,7 +8943,7 @@
       </c>
     </row>
     <row r="22" spans="1:126">
-      <c r="A22" s="5">
+      <c r="A22" s="3">
         <v>39263</v>
       </c>
       <c r="B22" s="2">
@@ -9318,7 +9323,7 @@
       </c>
     </row>
     <row r="23" spans="1:126">
-      <c r="A23" s="5">
+      <c r="A23" s="3">
         <v>39294</v>
       </c>
       <c r="B23" s="2">
@@ -9698,7 +9703,7 @@
       </c>
     </row>
     <row r="24" spans="1:126">
-      <c r="A24" s="5">
+      <c r="A24" s="3">
         <v>39325</v>
       </c>
       <c r="B24" s="2">
@@ -10078,7 +10083,7 @@
       </c>
     </row>
     <row r="25" spans="1:126">
-      <c r="A25" s="5">
+      <c r="A25" s="3">
         <v>39355</v>
       </c>
       <c r="B25" s="2">
@@ -10458,7 +10463,7 @@
       </c>
     </row>
     <row r="26" spans="1:126">
-      <c r="A26" s="5">
+      <c r="A26" s="3">
         <v>39386</v>
       </c>
       <c r="B26" s="2">
@@ -10838,7 +10843,7 @@
       </c>
     </row>
     <row r="27" spans="1:126">
-      <c r="A27" s="5">
+      <c r="A27" s="3">
         <v>39416</v>
       </c>
       <c r="B27" s="2">
@@ -11218,7 +11223,7 @@
       </c>
     </row>
     <row r="28" spans="1:126">
-      <c r="A28" s="5">
+      <c r="A28" s="3">
         <v>39447</v>
       </c>
       <c r="B28" s="2">
@@ -11598,7 +11603,7 @@
       </c>
     </row>
     <row r="29" spans="1:126">
-      <c r="A29" s="5">
+      <c r="A29" s="3">
         <v>39538</v>
       </c>
       <c r="B29" s="2">
@@ -11978,7 +11983,7 @@
       </c>
     </row>
     <row r="30" spans="1:126">
-      <c r="A30" s="5">
+      <c r="A30" s="3">
         <v>39568</v>
       </c>
       <c r="B30" s="2">
@@ -12358,7 +12363,7 @@
       </c>
     </row>
     <row r="31" spans="1:126">
-      <c r="A31" s="5">
+      <c r="A31" s="3">
         <v>39599</v>
       </c>
       <c r="B31" s="2">
@@ -12738,7 +12743,7 @@
       </c>
     </row>
     <row r="32" spans="1:126">
-      <c r="A32" s="5">
+      <c r="A32" s="3">
         <v>39629</v>
       </c>
       <c r="B32" s="2">
@@ -13118,7 +13123,7 @@
       </c>
     </row>
     <row r="33" spans="1:126">
-      <c r="A33" s="5">
+      <c r="A33" s="3">
         <v>39660</v>
       </c>
       <c r="B33" s="2">
@@ -13498,7 +13503,7 @@
       </c>
     </row>
     <row r="34" spans="1:126">
-      <c r="A34" s="5">
+      <c r="A34" s="3">
         <v>39691</v>
       </c>
       <c r="B34" s="2">
@@ -13878,7 +13883,7 @@
       </c>
     </row>
     <row r="35" spans="1:126">
-      <c r="A35" s="5">
+      <c r="A35" s="3">
         <v>39721</v>
       </c>
       <c r="B35" s="2">
@@ -14258,7 +14263,7 @@
       </c>
     </row>
     <row r="36" spans="1:126">
-      <c r="A36" s="5">
+      <c r="A36" s="3">
         <v>39752</v>
       </c>
       <c r="B36" s="2">
@@ -14638,7 +14643,7 @@
       </c>
     </row>
     <row r="37" spans="1:126">
-      <c r="A37" s="5">
+      <c r="A37" s="3">
         <v>39782</v>
       </c>
       <c r="B37" s="2">
@@ -15018,7 +15023,7 @@
       </c>
     </row>
     <row r="38" spans="1:126">
-      <c r="A38" s="5">
+      <c r="A38" s="3">
         <v>39813</v>
       </c>
       <c r="B38" s="2">
@@ -15398,7 +15403,7 @@
       </c>
     </row>
     <row r="39" spans="1:126">
-      <c r="A39" s="5">
+      <c r="A39" s="3">
         <v>39844</v>
       </c>
       <c r="B39" s="2">
@@ -15778,7 +15783,7 @@
       </c>
     </row>
     <row r="40" spans="1:126">
-      <c r="A40" s="5">
+      <c r="A40" s="3">
         <v>39872</v>
       </c>
       <c r="B40" s="2">
@@ -16158,7 +16163,7 @@
       </c>
     </row>
     <row r="41" spans="1:126">
-      <c r="A41" s="5">
+      <c r="A41" s="3">
         <v>39903</v>
       </c>
       <c r="B41" s="2">
@@ -16538,7 +16543,7 @@
       </c>
     </row>
     <row r="42" spans="1:126">
-      <c r="A42" s="5">
+      <c r="A42" s="3">
         <v>39933</v>
       </c>
       <c r="B42" s="2">
@@ -16918,7 +16923,7 @@
       </c>
     </row>
     <row r="43" spans="1:126">
-      <c r="A43" s="5">
+      <c r="A43" s="3">
         <v>39964</v>
       </c>
       <c r="B43" s="2">
@@ -17298,7 +17303,7 @@
       </c>
     </row>
     <row r="44" spans="1:126">
-      <c r="A44" s="5">
+      <c r="A44" s="3">
         <v>39994</v>
       </c>
       <c r="B44" s="2">
@@ -17678,7 +17683,7 @@
       </c>
     </row>
     <row r="45" spans="1:126">
-      <c r="A45" s="5">
+      <c r="A45" s="3">
         <v>40025</v>
       </c>
       <c r="B45" s="2">
@@ -18058,7 +18063,7 @@
       </c>
     </row>
     <row r="46" spans="1:126">
-      <c r="A46" s="5">
+      <c r="A46" s="3">
         <v>40056</v>
       </c>
       <c r="B46" s="2">
@@ -18438,7 +18443,7 @@
       </c>
     </row>
     <row r="47" spans="1:126">
-      <c r="A47" s="5">
+      <c r="A47" s="3">
         <v>40086</v>
       </c>
       <c r="B47" s="2">
@@ -18818,7 +18823,7 @@
       </c>
     </row>
     <row r="48" spans="1:126">
-      <c r="A48" s="5">
+      <c r="A48" s="3">
         <v>40117</v>
       </c>
       <c r="B48" s="2">
@@ -19198,7 +19203,7 @@
       </c>
     </row>
     <row r="49" spans="1:126">
-      <c r="A49" s="5">
+      <c r="A49" s="3">
         <v>40147</v>
       </c>
       <c r="B49" s="2">
@@ -19578,7 +19583,7 @@
       </c>
     </row>
     <row r="50" spans="1:126">
-      <c r="A50" s="5">
+      <c r="A50" s="3">
         <v>40178</v>
       </c>
       <c r="B50" s="2">
@@ -19958,7 +19963,7 @@
       </c>
     </row>
     <row r="51" spans="1:126">
-      <c r="A51" s="5">
+      <c r="A51" s="3">
         <v>40209</v>
       </c>
       <c r="B51" s="2">
@@ -20338,7 +20343,7 @@
       </c>
     </row>
     <row r="52" spans="1:126">
-      <c r="A52" s="5">
+      <c r="A52" s="3">
         <v>40237</v>
       </c>
       <c r="B52" s="2">
@@ -20718,7 +20723,7 @@
       </c>
     </row>
     <row r="53" spans="1:126">
-      <c r="A53" s="5">
+      <c r="A53" s="3">
         <v>40268</v>
       </c>
       <c r="B53" s="2">
@@ -21098,7 +21103,7 @@
       </c>
     </row>
     <row r="54" spans="1:126">
-      <c r="A54" s="5">
+      <c r="A54" s="3">
         <v>40298</v>
       </c>
       <c r="B54" s="2">
@@ -21478,7 +21483,7 @@
       </c>
     </row>
     <row r="55" spans="1:126">
-      <c r="A55" s="5">
+      <c r="A55" s="3">
         <v>40329</v>
       </c>
       <c r="B55" s="2">
@@ -21858,7 +21863,7 @@
       </c>
     </row>
     <row r="56" spans="1:126">
-      <c r="A56" s="5">
+      <c r="A56" s="3">
         <v>40359</v>
       </c>
       <c r="B56" s="2">
@@ -22238,7 +22243,7 @@
       </c>
     </row>
     <row r="57" spans="1:126">
-      <c r="A57" s="5">
+      <c r="A57" s="3">
         <v>40390</v>
       </c>
       <c r="B57" s="2">
@@ -22618,7 +22623,7 @@
       </c>
     </row>
     <row r="58" spans="1:126">
-      <c r="A58" s="5">
+      <c r="A58" s="3">
         <v>40421</v>
       </c>
       <c r="B58" s="2">
@@ -22998,7 +23003,7 @@
       </c>
     </row>
     <row r="59" spans="1:126">
-      <c r="A59" s="5">
+      <c r="A59" s="3">
         <v>40451</v>
       </c>
       <c r="B59" s="2">
@@ -23378,7 +23383,7 @@
       </c>
     </row>
     <row r="60" spans="1:126">
-      <c r="A60" s="5">
+      <c r="A60" s="3">
         <v>40482</v>
       </c>
       <c r="B60" s="2">
@@ -23758,7 +23763,7 @@
       </c>
     </row>
     <row r="61" spans="1:126">
-      <c r="A61" s="5">
+      <c r="A61" s="3">
         <v>40512</v>
       </c>
       <c r="B61" s="2">
@@ -24138,7 +24143,7 @@
       </c>
     </row>
     <row r="62" spans="1:126">
-      <c r="A62" s="5">
+      <c r="A62" s="3">
         <v>40543</v>
       </c>
       <c r="B62" s="2">
@@ -24518,7 +24523,7 @@
       </c>
     </row>
     <row r="63" spans="1:126">
-      <c r="A63" s="5">
+      <c r="A63" s="3">
         <v>40574</v>
       </c>
       <c r="B63" s="2">
@@ -24898,7 +24903,7 @@
       </c>
     </row>
     <row r="64" spans="1:126">
-      <c r="A64" s="5">
+      <c r="A64" s="3">
         <v>40602</v>
       </c>
       <c r="B64" s="2">
@@ -25278,7 +25283,7 @@
       </c>
     </row>
     <row r="65" spans="1:126">
-      <c r="A65" s="5">
+      <c r="A65" s="3">
         <v>40633</v>
       </c>
       <c r="B65" s="2">
@@ -25658,7 +25663,7 @@
       </c>
     </row>
     <row r="66" spans="1:126">
-      <c r="A66" s="5">
+      <c r="A66" s="3">
         <v>40663</v>
       </c>
       <c r="B66" s="2">
@@ -26038,7 +26043,7 @@
       </c>
     </row>
     <row r="67" spans="1:126">
-      <c r="A67" s="5">
+      <c r="A67" s="3">
         <v>40694</v>
       </c>
       <c r="B67" s="2">
@@ -26418,7 +26423,7 @@
       </c>
     </row>
     <row r="68" spans="1:126">
-      <c r="A68" s="5">
+      <c r="A68" s="3">
         <v>40724</v>
       </c>
       <c r="B68" s="2">
@@ -26798,7 +26803,7 @@
       </c>
     </row>
     <row r="69" spans="1:126">
-      <c r="A69" s="5">
+      <c r="A69" s="3">
         <v>40755</v>
       </c>
       <c r="B69" s="2">
@@ -27178,7 +27183,7 @@
       </c>
     </row>
     <row r="70" spans="1:126">
-      <c r="A70" s="5">
+      <c r="A70" s="3">
         <v>40786</v>
       </c>
       <c r="B70" s="2">
@@ -27558,7 +27563,7 @@
       </c>
     </row>
     <row r="71" spans="1:126">
-      <c r="A71" s="5">
+      <c r="A71" s="3">
         <v>40816</v>
       </c>
       <c r="B71" s="2">
@@ -27938,7 +27943,7 @@
       </c>
     </row>
     <row r="72" spans="1:126">
-      <c r="A72" s="5">
+      <c r="A72" s="3">
         <v>40847</v>
       </c>
       <c r="B72" s="2">
@@ -28318,7 +28323,7 @@
       </c>
     </row>
     <row r="73" spans="1:126">
-      <c r="A73" s="5">
+      <c r="A73" s="3">
         <v>40877</v>
       </c>
       <c r="B73" s="2">
@@ -28698,7 +28703,7 @@
       </c>
     </row>
     <row r="74" spans="1:126">
-      <c r="A74" s="5">
+      <c r="A74" s="3">
         <v>40908</v>
       </c>
       <c r="B74" s="2">
@@ -29078,7 +29083,7 @@
       </c>
     </row>
     <row r="75" spans="1:126">
-      <c r="A75" s="5">
+      <c r="A75" s="3">
         <v>40939</v>
       </c>
       <c r="B75" s="2">
@@ -29458,7 +29463,7 @@
       </c>
     </row>
     <row r="76" spans="1:126">
-      <c r="A76" s="5">
+      <c r="A76" s="3">
         <v>40968</v>
       </c>
       <c r="B76" s="2">
@@ -29838,7 +29843,7 @@
       </c>
     </row>
     <row r="77" spans="1:126">
-      <c r="A77" s="5">
+      <c r="A77" s="3">
         <v>40999</v>
       </c>
       <c r="B77" s="2">
@@ -30218,7 +30223,7 @@
       </c>
     </row>
     <row r="78" spans="1:126">
-      <c r="A78" s="5">
+      <c r="A78" s="3">
         <v>41029</v>
       </c>
       <c r="B78" s="2">
@@ -30598,7 +30603,7 @@
       </c>
     </row>
     <row r="79" spans="1:126">
-      <c r="A79" s="5">
+      <c r="A79" s="3">
         <v>41060</v>
       </c>
       <c r="B79" s="2">
@@ -30978,7 +30983,7 @@
       </c>
     </row>
     <row r="80" spans="1:126">
-      <c r="A80" s="5">
+      <c r="A80" s="3">
         <v>41090</v>
       </c>
       <c r="B80" s="2">
@@ -31358,7 +31363,7 @@
       </c>
     </row>
     <row r="81" spans="1:126">
-      <c r="A81" s="5">
+      <c r="A81" s="3">
         <v>41121</v>
       </c>
       <c r="B81" s="2">
@@ -31738,7 +31743,7 @@
       </c>
     </row>
     <row r="82" spans="1:126">
-      <c r="A82" s="5">
+      <c r="A82" s="3">
         <v>41152</v>
       </c>
       <c r="B82" s="2">
@@ -32118,7 +32123,7 @@
       </c>
     </row>
     <row r="83" spans="1:126">
-      <c r="A83" s="5">
+      <c r="A83" s="3">
         <v>41182</v>
       </c>
       <c r="B83" s="2">
@@ -32498,7 +32503,7 @@
       </c>
     </row>
     <row r="84" spans="1:126">
-      <c r="A84" s="5">
+      <c r="A84" s="3">
         <v>41213</v>
       </c>
       <c r="B84" s="2">
@@ -32878,7 +32883,7 @@
       </c>
     </row>
     <row r="85" spans="1:126">
-      <c r="A85" s="5">
+      <c r="A85" s="3">
         <v>41243</v>
       </c>
       <c r="B85" s="2">
@@ -33258,7 +33263,7 @@
       </c>
     </row>
     <row r="86" spans="1:126">
-      <c r="A86" s="5">
+      <c r="A86" s="3">
         <v>41274</v>
       </c>
       <c r="B86" s="2">
@@ -33638,7 +33643,7 @@
       </c>
     </row>
     <row r="87" spans="1:126">
-      <c r="A87" s="5">
+      <c r="A87" s="3">
         <v>41305</v>
       </c>
       <c r="B87" s="2">
@@ -34018,7 +34023,7 @@
       </c>
     </row>
     <row r="88" spans="1:126">
-      <c r="A88" s="5">
+      <c r="A88" s="3">
         <v>41333</v>
       </c>
       <c r="B88" s="2">
@@ -34398,7 +34403,7 @@
       </c>
     </row>
     <row r="89" spans="1:126">
-      <c r="A89" s="5">
+      <c r="A89" s="3">
         <v>41364</v>
       </c>
       <c r="B89" s="2">
@@ -34778,7 +34783,7 @@
       </c>
     </row>
     <row r="90" spans="1:126">
-      <c r="A90" s="5">
+      <c r="A90" s="3">
         <v>41394</v>
       </c>
       <c r="B90" s="2">
@@ -35158,7 +35163,7 @@
       </c>
     </row>
     <row r="91" spans="1:126">
-      <c r="A91" s="5">
+      <c r="A91" s="3">
         <v>41425</v>
       </c>
       <c r="B91" s="2">
@@ -35538,7 +35543,7 @@
       </c>
     </row>
     <row r="92" spans="1:126">
-      <c r="A92" s="5">
+      <c r="A92" s="3">
         <v>41455</v>
       </c>
       <c r="B92" s="2">
@@ -35918,7 +35923,7 @@
       </c>
     </row>
     <row r="93" spans="1:126">
-      <c r="A93" s="5">
+      <c r="A93" s="3">
         <v>41486</v>
       </c>
       <c r="B93" s="2">
@@ -36298,7 +36303,7 @@
       </c>
     </row>
     <row r="94" spans="1:126">
-      <c r="A94" s="5">
+      <c r="A94" s="3">
         <v>41517</v>
       </c>
       <c r="B94" s="2">
@@ -36678,7 +36683,7 @@
       </c>
     </row>
     <row r="95" spans="1:126">
-      <c r="A95" s="5">
+      <c r="A95" s="3">
         <v>41547</v>
       </c>
       <c r="B95" s="2">
@@ -37058,7 +37063,7 @@
       </c>
     </row>
     <row r="96" spans="1:126">
-      <c r="A96" s="5">
+      <c r="A96" s="3">
         <v>41578</v>
       </c>
       <c r="B96" s="2">
@@ -37438,7 +37443,7 @@
       </c>
     </row>
     <row r="97" spans="1:126">
-      <c r="A97" s="5">
+      <c r="A97" s="3">
         <v>41608</v>
       </c>
       <c r="B97" s="2">
@@ -37818,7 +37823,7 @@
       </c>
     </row>
     <row r="98" spans="1:126">
-      <c r="A98" s="5">
+      <c r="A98" s="3">
         <v>41639</v>
       </c>
       <c r="B98" s="2">
@@ -38198,7 +38203,7 @@
       </c>
     </row>
     <row r="99" spans="1:126">
-      <c r="A99" s="5">
+      <c r="A99" s="3">
         <v>41670</v>
       </c>
       <c r="B99" s="2">
@@ -38578,7 +38583,7 @@
       </c>
     </row>
     <row r="100" spans="1:126">
-      <c r="A100" s="5">
+      <c r="A100" s="3">
         <v>41698</v>
       </c>
       <c r="B100" s="2">
@@ -38958,7 +38963,7 @@
       </c>
     </row>
     <row r="101" spans="1:126">
-      <c r="A101" s="5">
+      <c r="A101" s="3">
         <v>41729</v>
       </c>
       <c r="B101" s="2">
@@ -39338,7 +39343,7 @@
       </c>
     </row>
     <row r="102" spans="1:126">
-      <c r="A102" s="5">
+      <c r="A102" s="3">
         <v>41759</v>
       </c>
       <c r="B102" s="2">
@@ -39718,7 +39723,7 @@
       </c>
     </row>
     <row r="103" spans="1:126">
-      <c r="A103" s="5">
+      <c r="A103" s="3">
         <v>41790</v>
       </c>
       <c r="B103" s="2">
@@ -40098,7 +40103,7 @@
       </c>
     </row>
     <row r="104" spans="1:126">
-      <c r="A104" s="5">
+      <c r="A104" s="3">
         <v>41820</v>
       </c>
       <c r="B104" s="2">
@@ -40478,7 +40483,7 @@
       </c>
     </row>
     <row r="105" spans="1:126">
-      <c r="A105" s="5">
+      <c r="A105" s="3">
         <v>41851</v>
       </c>
       <c r="B105" s="2">
@@ -40858,7 +40863,7 @@
       </c>
     </row>
     <row r="106" spans="1:126">
-      <c r="A106" s="5">
+      <c r="A106" s="3">
         <v>41882</v>
       </c>
       <c r="B106" s="2">
@@ -41238,7 +41243,7 @@
       </c>
     </row>
     <row r="107" spans="1:126">
-      <c r="A107" s="5">
+      <c r="A107" s="3">
         <v>41912</v>
       </c>
       <c r="B107" s="2">
@@ -41618,7 +41623,7 @@
       </c>
     </row>
     <row r="108" spans="1:126">
-      <c r="A108" s="5">
+      <c r="A108" s="3">
         <v>41943</v>
       </c>
       <c r="B108" s="2">
@@ -41998,7 +42003,7 @@
       </c>
     </row>
     <row r="109" spans="1:126">
-      <c r="A109" s="5">
+      <c r="A109" s="3">
         <v>41973</v>
       </c>
       <c r="B109" s="2">
@@ -42378,7 +42383,7 @@
       </c>
     </row>
     <row r="110" spans="1:126">
-      <c r="A110" s="5">
+      <c r="A110" s="3">
         <v>42004</v>
       </c>
       <c r="B110" s="2">
@@ -42758,7 +42763,7 @@
       </c>
     </row>
     <row r="111" spans="1:126">
-      <c r="A111" s="5">
+      <c r="A111" s="3">
         <v>42035</v>
       </c>
       <c r="B111" s="2">
@@ -43138,7 +43143,7 @@
       </c>
     </row>
     <row r="112" spans="1:126">
-      <c r="A112" s="5">
+      <c r="A112" s="3">
         <v>42063</v>
       </c>
       <c r="B112" s="2">
@@ -43518,7 +43523,7 @@
       </c>
     </row>
     <row r="113" spans="1:126">
-      <c r="A113" s="5">
+      <c r="A113" s="3">
         <v>42094</v>
       </c>
       <c r="B113" s="2">
@@ -43898,7 +43903,7 @@
       </c>
     </row>
     <row r="114" spans="1:126">
-      <c r="A114" s="5">
+      <c r="A114" s="3">
         <v>42124</v>
       </c>
       <c r="B114" s="2">
@@ -44278,7 +44283,7 @@
       </c>
     </row>
     <row r="115" spans="1:126">
-      <c r="A115" s="5">
+      <c r="A115" s="3">
         <v>42155</v>
       </c>
       <c r="B115" s="2">
@@ -44658,7 +44663,7 @@
       </c>
     </row>
     <row r="116" spans="1:126">
-      <c r="A116" s="5">
+      <c r="A116" s="3">
         <v>42185</v>
       </c>
       <c r="B116" s="2">
@@ -45038,7 +45043,7 @@
       </c>
     </row>
     <row r="117" spans="1:126">
-      <c r="A117" s="5">
+      <c r="A117" s="3">
         <v>42216</v>
       </c>
       <c r="B117" s="2">
@@ -45418,7 +45423,7 @@
       </c>
     </row>
     <row r="118" spans="1:126">
-      <c r="A118" s="5">
+      <c r="A118" s="3">
         <v>42247</v>
       </c>
       <c r="B118" s="2">
@@ -45798,7 +45803,7 @@
       </c>
     </row>
     <row r="119" spans="1:126">
-      <c r="A119" s="5">
+      <c r="A119" s="3">
         <v>42277</v>
       </c>
       <c r="B119" s="2">
@@ -46178,7 +46183,7 @@
       </c>
     </row>
     <row r="120" spans="1:126">
-      <c r="A120" s="5">
+      <c r="A120" s="3">
         <v>42308</v>
       </c>
       <c r="B120" s="2">
@@ -46558,7 +46563,7 @@
       </c>
     </row>
     <row r="121" spans="1:126">
-      <c r="A121" s="5">
+      <c r="A121" s="3">
         <v>42338</v>
       </c>
       <c r="B121" s="2">
@@ -46938,7 +46943,7 @@
       </c>
     </row>
     <row r="122" spans="1:126">
-      <c r="A122" s="5">
+      <c r="A122" s="3">
         <v>42369</v>
       </c>
       <c r="B122" s="2">
@@ -47318,7 +47323,7 @@
       </c>
     </row>
     <row r="123" spans="1:126">
-      <c r="A123" s="5">
+      <c r="A123" s="3">
         <v>42400</v>
       </c>
       <c r="B123" s="2">
@@ -47698,7 +47703,7 @@
       </c>
     </row>
     <row r="124" spans="1:126">
-      <c r="A124" s="5">
+      <c r="A124" s="3">
         <v>42429</v>
       </c>
       <c r="B124" s="2">
@@ -48078,7 +48083,7 @@
       </c>
     </row>
     <row r="125" spans="1:126">
-      <c r="A125" s="5">
+      <c r="A125" s="3">
         <v>42460</v>
       </c>
       <c r="B125" s="2">
@@ -48458,7 +48463,7 @@
       </c>
     </row>
     <row r="126" spans="1:126">
-      <c r="A126" s="5">
+      <c r="A126" s="3">
         <v>42490</v>
       </c>
       <c r="B126" s="2">
@@ -48838,7 +48843,7 @@
       </c>
     </row>
     <row r="127" spans="1:126">
-      <c r="A127" s="5">
+      <c r="A127" s="3">
         <v>42521</v>
       </c>
       <c r="B127" s="2">
@@ -49218,7 +49223,7 @@
       </c>
     </row>
     <row r="128" spans="1:126">
-      <c r="A128" s="5">
+      <c r="A128" s="3">
         <v>42551</v>
       </c>
       <c r="B128" s="2">
@@ -49598,7 +49603,7 @@
       </c>
     </row>
     <row r="129" spans="1:126">
-      <c r="A129" s="5">
+      <c r="A129" s="3">
         <v>42582</v>
       </c>
       <c r="B129" s="2">
@@ -49978,7 +49983,7 @@
       </c>
     </row>
     <row r="130" spans="1:126">
-      <c r="A130" s="5">
+      <c r="A130" s="3">
         <v>42613</v>
       </c>
       <c r="B130" s="2">
@@ -50358,7 +50363,7 @@
       </c>
     </row>
     <row r="131" spans="1:126">
-      <c r="A131" s="5">
+      <c r="A131" s="3">
         <v>42643</v>
       </c>
       <c r="B131" s="2">
@@ -50738,7 +50743,7 @@
       </c>
     </row>
     <row r="132" spans="1:126">
-      <c r="A132" s="5">
+      <c r="A132" s="3">
         <v>42674</v>
       </c>
       <c r="B132" s="2">
@@ -51118,7 +51123,7 @@
       </c>
     </row>
     <row r="133" spans="1:126">
-      <c r="A133" s="5">
+      <c r="A133" s="3">
         <v>42704</v>
       </c>
       <c r="B133" s="2">
@@ -51498,7 +51503,7 @@
       </c>
     </row>
     <row r="134" spans="1:126">
-      <c r="A134" s="5">
+      <c r="A134" s="3">
         <v>42735</v>
       </c>
       <c r="B134" s="2">
@@ -51878,7 +51883,7 @@
       </c>
     </row>
     <row r="135" spans="1:126">
-      <c r="A135" s="5">
+      <c r="A135" s="3">
         <v>42766</v>
       </c>
       <c r="B135" s="2">
@@ -52258,7 +52263,7 @@
       </c>
     </row>
     <row r="136" spans="1:126">
-      <c r="A136" s="5">
+      <c r="A136" s="3">
         <v>42794</v>
       </c>
       <c r="B136" s="2">
@@ -52638,7 +52643,7 @@
       </c>
     </row>
     <row r="137" spans="1:126">
-      <c r="A137" s="5">
+      <c r="A137" s="3">
         <v>42825</v>
       </c>
       <c r="B137" s="2">
@@ -53018,7 +53023,7 @@
       </c>
     </row>
     <row r="138" spans="1:126">
-      <c r="A138" s="5">
+      <c r="A138" s="3">
         <v>42855</v>
       </c>
       <c r="B138" s="2">
@@ -53398,7 +53403,7 @@
       </c>
     </row>
     <row r="139" spans="1:126">
-      <c r="A139" s="5">
+      <c r="A139" s="3">
         <v>42886</v>
       </c>
       <c r="B139" s="2">
@@ -53778,7 +53783,7 @@
       </c>
     </row>
     <row r="140" spans="1:126">
-      <c r="A140" s="5">
+      <c r="A140" s="3">
         <v>42916</v>
       </c>
       <c r="B140" s="2">
@@ -54158,7 +54163,7 @@
       </c>
     </row>
     <row r="141" spans="1:126">
-      <c r="A141" s="5">
+      <c r="A141" s="3">
         <v>42947</v>
       </c>
       <c r="B141" s="2">
@@ -54538,7 +54543,7 @@
       </c>
     </row>
     <row r="142" spans="1:126">
-      <c r="A142" s="5">
+      <c r="A142" s="3">
         <v>42978</v>
       </c>
       <c r="B142" s="2">
@@ -54918,7 +54923,7 @@
       </c>
     </row>
     <row r="143" spans="1:126">
-      <c r="A143" s="5">
+      <c r="A143" s="3">
         <v>43008</v>
       </c>
       <c r="B143" s="2">
@@ -55298,7 +55303,7 @@
       </c>
     </row>
     <row r="144" spans="1:126">
-      <c r="A144" s="5">
+      <c r="A144" s="3">
         <v>43039</v>
       </c>
       <c r="B144" s="2">
@@ -55678,7 +55683,7 @@
       </c>
     </row>
     <row r="145" spans="1:126">
-      <c r="A145" s="5">
+      <c r="A145" s="3">
         <v>43069</v>
       </c>
       <c r="B145" s="2">
@@ -56058,7 +56063,7 @@
       </c>
     </row>
     <row r="146" spans="1:126">
-      <c r="A146" s="5">
+      <c r="A146" s="3">
         <v>43100</v>
       </c>
       <c r="B146" s="2">
@@ -56438,7 +56443,7 @@
       </c>
     </row>
     <row r="147" spans="1:126">
-      <c r="A147" s="5">
+      <c r="A147" s="3">
         <v>43131</v>
       </c>
       <c r="B147" s="2">
@@ -56818,7 +56823,7 @@
       </c>
     </row>
     <row r="148" spans="1:126">
-      <c r="A148" s="5">
+      <c r="A148" s="3">
         <v>43159</v>
       </c>
       <c r="B148" s="2">
@@ -57198,7 +57203,7 @@
       </c>
     </row>
     <row r="149" spans="1:126">
-      <c r="A149" s="5">
+      <c r="A149" s="3">
         <v>43190</v>
       </c>
       <c r="B149" s="2">
@@ -57578,7 +57583,7 @@
       </c>
     </row>
     <row r="150" spans="1:126">
-      <c r="A150" s="5">
+      <c r="A150" s="3">
         <v>43220</v>
       </c>
       <c r="B150" s="2">
@@ -57958,7 +57963,7 @@
       </c>
     </row>
     <row r="151" spans="1:126">
-      <c r="A151" s="5">
+      <c r="A151" s="3">
         <v>43251</v>
       </c>
       <c r="B151" s="2">
@@ -58338,7 +58343,7 @@
       </c>
     </row>
     <row r="152" spans="1:126">
-      <c r="A152" s="5">
+      <c r="A152" s="3">
         <v>43281</v>
       </c>
       <c r="B152" s="2">
@@ -58718,7 +58723,7 @@
       </c>
     </row>
     <row r="153" spans="1:126">
-      <c r="A153" s="5">
+      <c r="A153" s="3">
         <v>43312</v>
       </c>
       <c r="B153" s="2">
@@ -59098,7 +59103,7 @@
       </c>
     </row>
     <row r="154" spans="1:126">
-      <c r="A154" s="5">
+      <c r="A154" s="3">
         <v>43343</v>
       </c>
       <c r="B154" s="2">
@@ -59478,7 +59483,7 @@
       </c>
     </row>
     <row r="155" spans="1:126">
-      <c r="A155" s="5">
+      <c r="A155" s="3">
         <v>43373</v>
       </c>
       <c r="B155" s="2">
@@ -59858,7 +59863,7 @@
       </c>
     </row>
     <row r="156" spans="1:126">
-      <c r="A156" s="5">
+      <c r="A156" s="3">
         <v>43404</v>
       </c>
       <c r="B156" s="2">
@@ -60238,7 +60243,7 @@
       </c>
     </row>
     <row r="157" spans="1:126">
-      <c r="A157" s="5">
+      <c r="A157" s="3">
         <v>43434</v>
       </c>
       <c r="B157" s="2">
@@ -60618,7 +60623,7 @@
       </c>
     </row>
     <row r="158" spans="1:126">
-      <c r="A158" s="5">
+      <c r="A158" s="3">
         <v>43465</v>
       </c>
       <c r="B158" s="2">
@@ -60998,7 +61003,7 @@
       </c>
     </row>
     <row r="159" spans="1:126">
-      <c r="A159" s="5">
+      <c r="A159" s="3">
         <v>43496</v>
       </c>
       <c r="B159" s="2">
@@ -61378,7 +61383,7 @@
       </c>
     </row>
     <row r="160" spans="1:126">
-      <c r="A160" s="5">
+      <c r="A160" s="3">
         <v>43524</v>
       </c>
       <c r="B160" s="2">
@@ -61758,7 +61763,7 @@
       </c>
     </row>
     <row r="161" spans="1:126">
-      <c r="A161" s="5">
+      <c r="A161" s="3">
         <v>43555</v>
       </c>
       <c r="B161" s="2">
@@ -62138,7 +62143,7 @@
       </c>
     </row>
     <row r="162" spans="1:126">
-      <c r="A162" s="5">
+      <c r="A162" s="3">
         <v>43585</v>
       </c>
       <c r="B162" s="2">
@@ -62518,7 +62523,7 @@
       </c>
     </row>
     <row r="163" spans="1:126">
-      <c r="A163" s="5">
+      <c r="A163" s="3">
         <v>43616</v>
       </c>
       <c r="B163" s="2">
@@ -62898,7 +62903,7 @@
       </c>
     </row>
     <row r="164" spans="1:126">
-      <c r="A164" s="5">
+      <c r="A164" s="3">
         <v>43646</v>
       </c>
       <c r="B164" s="2">
@@ -63278,7 +63283,7 @@
       </c>
     </row>
     <row r="165" spans="1:126">
-      <c r="A165" s="5">
+      <c r="A165" s="3">
         <v>43677</v>
       </c>
       <c r="B165" s="2">
@@ -63658,7 +63663,7 @@
       </c>
     </row>
     <row r="166" spans="1:126">
-      <c r="A166" s="5">
+      <c r="A166" s="3">
         <v>43708</v>
       </c>
       <c r="B166" s="2">
@@ -64038,7 +64043,7 @@
       </c>
     </row>
     <row r="167" spans="1:126">
-      <c r="A167" s="5">
+      <c r="A167" s="3">
         <v>43738</v>
       </c>
       <c r="B167" s="2">
@@ -64418,7 +64423,7 @@
       </c>
     </row>
     <row r="168" spans="1:126">
-      <c r="A168" s="5">
+      <c r="A168" s="3">
         <v>43769</v>
       </c>
       <c r="B168" s="2">
@@ -64798,7 +64803,7 @@
       </c>
     </row>
     <row r="169" spans="1:126">
-      <c r="A169" s="5">
+      <c r="A169" s="3">
         <v>43799</v>
       </c>
       <c r="B169" s="2">
@@ -65178,7 +65183,7 @@
       </c>
     </row>
     <row r="170" spans="1:126">
-      <c r="A170" s="5">
+      <c r="A170" s="3">
         <v>43830</v>
       </c>
       <c r="B170" s="2">
@@ -65558,7 +65563,7 @@
       </c>
     </row>
     <row r="171" spans="1:126">
-      <c r="A171" s="5">
+      <c r="A171" s="3">
         <v>43861</v>
       </c>
       <c r="B171" s="2">
@@ -65938,7 +65943,7 @@
       </c>
     </row>
     <row r="172" spans="1:126">
-      <c r="A172" s="5">
+      <c r="A172" s="3">
         <v>43890</v>
       </c>
       <c r="B172" s="2">
@@ -66318,7 +66323,7 @@
       </c>
     </row>
     <row r="173" spans="1:126">
-      <c r="A173" s="5">
+      <c r="A173" s="3">
         <v>43921</v>
       </c>
       <c r="B173" s="2">
@@ -66698,7 +66703,7 @@
       </c>
     </row>
     <row r="174" spans="1:126">
-      <c r="A174" s="5">
+      <c r="A174" s="3">
         <v>43951</v>
       </c>
       <c r="B174" s="2">
@@ -67078,7 +67083,7 @@
       </c>
     </row>
     <row r="175" spans="1:126">
-      <c r="A175" s="5">
+      <c r="A175" s="3">
         <v>43982</v>
       </c>
       <c r="B175" s="2">
@@ -67458,7 +67463,7 @@
       </c>
     </row>
     <row r="176" spans="1:126">
-      <c r="A176" s="5">
+      <c r="A176" s="3">
         <v>44012</v>
       </c>
       <c r="B176" s="2">
@@ -67838,7 +67843,7 @@
       </c>
     </row>
     <row r="177" spans="1:126">
-      <c r="A177" s="5">
+      <c r="A177" s="3">
         <v>44043</v>
       </c>
       <c r="B177" s="2">
@@ -68218,7 +68223,7 @@
       </c>
     </row>
     <row r="178" spans="1:126">
-      <c r="A178" s="5">
+      <c r="A178" s="3">
         <v>44074</v>
       </c>
       <c r="B178" s="2">
@@ -68598,7 +68603,7 @@
       </c>
     </row>
     <row r="179" spans="1:126">
-      <c r="A179" s="5">
+      <c r="A179" s="3">
         <v>44104</v>
       </c>
       <c r="B179" s="2">
@@ -68978,7 +68983,7 @@
       </c>
     </row>
     <row r="180" spans="1:126">
-      <c r="A180" s="5">
+      <c r="A180" s="3">
         <v>44135</v>
       </c>
       <c r="B180" s="2">
@@ -69358,7 +69363,7 @@
       </c>
     </row>
     <row r="181" spans="1:126">
-      <c r="A181" s="5">
+      <c r="A181" s="3">
         <v>44165</v>
       </c>
       <c r="B181" s="2">
@@ -69738,7 +69743,7 @@
       </c>
     </row>
     <row r="182" spans="1:126">
-      <c r="A182" s="5">
+      <c r="A182" s="3">
         <v>44196</v>
       </c>
       <c r="B182" s="2">
@@ -70118,7 +70123,7 @@
       </c>
     </row>
     <row r="183" spans="1:126">
-      <c r="A183" s="5">
+      <c r="A183" s="3">
         <v>44227</v>
       </c>
       <c r="B183" s="2">
@@ -70498,7 +70503,7 @@
       </c>
     </row>
     <row r="184" spans="1:126">
-      <c r="A184" s="5">
+      <c r="A184" s="3">
         <v>44255</v>
       </c>
       <c r="B184" s="2">
@@ -70878,7 +70883,7 @@
       </c>
     </row>
     <row r="185" spans="1:126">
-      <c r="A185" s="5">
+      <c r="A185" s="3">
         <v>44286</v>
       </c>
       <c r="B185" s="2">
@@ -71258,7 +71263,7 @@
       </c>
     </row>
     <row r="186" spans="1:126">
-      <c r="A186" s="5">
+      <c r="A186" s="3">
         <v>44316</v>
       </c>
       <c r="B186" s="2">
@@ -71638,7 +71643,7 @@
       </c>
     </row>
     <row r="187" spans="1:126">
-      <c r="A187" s="5">
+      <c r="A187" s="3">
         <v>44347</v>
       </c>
       <c r="B187" s="2">
@@ -72018,7 +72023,7 @@
       </c>
     </row>
     <row r="188" spans="1:126">
-      <c r="A188" s="5">
+      <c r="A188" s="3">
         <v>44377</v>
       </c>
       <c r="B188" s="2">
@@ -72398,7 +72403,7 @@
       </c>
     </row>
     <row r="189" spans="1:126">
-      <c r="A189" s="5">
+      <c r="A189" s="3">
         <v>44408</v>
       </c>
       <c r="B189" s="2">
@@ -72778,7 +72783,7 @@
       </c>
     </row>
     <row r="190" spans="1:126">
-      <c r="A190" s="5">
+      <c r="A190" s="3">
         <v>44439</v>
       </c>
       <c r="B190" s="2">
@@ -73158,7 +73163,7 @@
       </c>
     </row>
     <row r="191" spans="1:126">
-      <c r="A191" s="5">
+      <c r="A191" s="3">
         <v>44469</v>
       </c>
       <c r="B191" s="2">
@@ -73538,7 +73543,7 @@
       </c>
     </row>
     <row r="192" spans="1:126">
-      <c r="A192" s="5">
+      <c r="A192" s="3">
         <v>44500</v>
       </c>
       <c r="B192" s="2">
@@ -73918,7 +73923,7 @@
       </c>
     </row>
     <row r="193" spans="1:126">
-      <c r="A193" s="5">
+      <c r="A193" s="3">
         <v>44530</v>
       </c>
       <c r="B193" s="2">
@@ -74298,7 +74303,7 @@
       </c>
     </row>
     <row r="194" spans="1:126">
-      <c r="A194" s="5">
+      <c r="A194" s="3">
         <v>44561</v>
       </c>
       <c r="B194" s="2">
@@ -74678,7 +74683,7 @@
       </c>
     </row>
     <row r="195" spans="1:126">
-      <c r="A195" s="5">
+      <c r="A195" s="3">
         <v>44592</v>
       </c>
       <c r="B195" s="2">
@@ -75058,7 +75063,7 @@
       </c>
     </row>
     <row r="196" spans="1:126">
-      <c r="A196" s="5">
+      <c r="A196" s="3">
         <v>44620</v>
       </c>
       <c r="B196" s="2">
@@ -75438,7 +75443,7 @@
       </c>
     </row>
     <row r="197" spans="1:126">
-      <c r="A197" s="5">
+      <c r="A197" s="3">
         <v>44651</v>
       </c>
       <c r="B197" s="2">
@@ -75818,7 +75823,7 @@
       </c>
     </row>
     <row r="198" spans="1:126">
-      <c r="A198" s="5">
+      <c r="A198" s="3">
         <v>44681</v>
       </c>
       <c r="B198" s="2">
@@ -76198,7 +76203,7 @@
       </c>
     </row>
     <row r="199" spans="1:126">
-      <c r="A199" s="5">
+      <c r="A199" s="3">
         <v>44712</v>
       </c>
       <c r="B199" s="2">
@@ -76578,7 +76583,7 @@
       </c>
     </row>
     <row r="200" spans="1:126">
-      <c r="A200" s="5">
+      <c r="A200" s="3">
         <v>44742</v>
       </c>
       <c r="B200" s="2">
@@ -76958,7 +76963,7 @@
       </c>
     </row>
     <row r="201" spans="1:126">
-      <c r="A201" s="5">
+      <c r="A201" s="3">
         <v>44773</v>
       </c>
       <c r="B201" s="2">
@@ -77338,7 +77343,7 @@
       </c>
     </row>
     <row r="202" spans="1:126">
-      <c r="A202" s="5">
+      <c r="A202" s="3">
         <v>44804</v>
       </c>
       <c r="B202" s="2">
@@ -77718,7 +77723,7 @@
       </c>
     </row>
     <row r="203" spans="1:126">
-      <c r="A203" s="5">
+      <c r="A203" s="3">
         <v>44834</v>
       </c>
       <c r="B203" s="2">
@@ -78098,7 +78103,7 @@
       </c>
     </row>
     <row r="204" spans="1:126">
-      <c r="A204" s="5">
+      <c r="A204" s="3">
         <v>44865</v>
       </c>
       <c r="B204" s="2">
@@ -78478,7 +78483,7 @@
       </c>
     </row>
     <row r="205" spans="1:126">
-      <c r="A205" s="5">
+      <c r="A205" s="3">
         <v>44895</v>
       </c>
       <c r="B205" s="2">
@@ -78858,7 +78863,7 @@
       </c>
     </row>
     <row r="206" spans="1:126">
-      <c r="A206" s="5">
+      <c r="A206" s="3">
         <v>44926</v>
       </c>
       <c r="B206" s="2">
@@ -79238,7 +79243,7 @@
       </c>
     </row>
     <row r="207" spans="1:126">
-      <c r="A207" s="5">
+      <c r="A207" s="3">
         <v>44957</v>
       </c>
       <c r="B207" s="2">
@@ -79618,7 +79623,7 @@
       </c>
     </row>
     <row r="208" spans="1:126">
-      <c r="A208" s="5">
+      <c r="A208" s="3">
         <v>44985</v>
       </c>
       <c r="B208" s="2">
@@ -79998,7 +80003,7 @@
       </c>
     </row>
     <row r="209" spans="1:126">
-      <c r="A209" s="5">
+      <c r="A209" s="3">
         <v>45016</v>
       </c>
       <c r="B209" s="2">
@@ -80378,7 +80383,7 @@
       </c>
     </row>
     <row r="210" spans="1:126">
-      <c r="A210" s="5">
+      <c r="A210" s="3">
         <v>45046</v>
       </c>
       <c r="B210" s="2">
@@ -80758,7 +80763,7 @@
       </c>
     </row>
     <row r="211" spans="1:126">
-      <c r="A211" s="5">
+      <c r="A211" s="3">
         <v>45077</v>
       </c>
       <c r="B211" s="2">
@@ -81138,7 +81143,7 @@
       </c>
     </row>
     <row r="212" spans="1:126">
-      <c r="A212" s="5">
+      <c r="A212" s="3">
         <v>45107</v>
       </c>
       <c r="B212" s="2">
@@ -81518,7 +81523,7 @@
       </c>
     </row>
     <row r="213" spans="1:126">
-      <c r="A213" s="5">
+      <c r="A213" s="3">
         <v>45138</v>
       </c>
       <c r="B213" s="2">
@@ -81898,7 +81903,7 @@
       </c>
     </row>
     <row r="214" spans="1:126">
-      <c r="A214" s="5">
+      <c r="A214" s="3">
         <v>45169</v>
       </c>
       <c r="B214" s="2">
@@ -82275,6 +82280,386 @@
       </c>
       <c r="DV214" s="2">
         <v>88610960</v>
+      </c>
+    </row>
+    <row r="215" spans="1:126">
+      <c r="A215" s="3">
+        <v>45199</v>
+      </c>
+      <c r="B215" s="2">
+        <v>0</v>
+      </c>
+      <c r="C215" s="2">
+        <v>0</v>
+      </c>
+      <c r="D215" s="2">
+        <v>0</v>
+      </c>
+      <c r="E215" s="2">
+        <v>0</v>
+      </c>
+      <c r="F215" s="2">
+        <v>0</v>
+      </c>
+      <c r="G215" s="2">
+        <v>0</v>
+      </c>
+      <c r="H215" s="2">
+        <v>0</v>
+      </c>
+      <c r="I215" s="2">
+        <v>0</v>
+      </c>
+      <c r="J215" s="2">
+        <v>0</v>
+      </c>
+      <c r="K215" s="2">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2">
+        <v>0</v>
+      </c>
+      <c r="M215" s="2">
+        <v>0</v>
+      </c>
+      <c r="N215" s="2">
+        <v>0</v>
+      </c>
+      <c r="O215" s="2">
+        <v>0</v>
+      </c>
+      <c r="P215" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q215" s="2">
+        <v>0</v>
+      </c>
+      <c r="R215" s="2">
+        <v>0</v>
+      </c>
+      <c r="S215" s="2">
+        <v>0</v>
+      </c>
+      <c r="T215" s="2">
+        <v>0</v>
+      </c>
+      <c r="U215" s="2">
+        <v>0</v>
+      </c>
+      <c r="V215" s="2">
+        <v>0</v>
+      </c>
+      <c r="W215" s="2">
+        <v>0</v>
+      </c>
+      <c r="X215" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y215" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ215" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA215" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB215" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC215" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD215" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE215" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF215" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG215" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH215" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI215" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ215" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK215" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL215" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM215" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN215" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO215" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP215" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ215" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR215" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS215" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT215" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU215" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV215" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW215" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX215" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY215" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ215" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA215" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB215" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC215" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD215" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE215" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF215" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG215" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH215" s="2">
+        <v>0</v>
+      </c>
+      <c r="CI215" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ215" s="2">
+        <v>0</v>
+      </c>
+      <c r="CK215" s="2">
+        <v>0</v>
+      </c>
+      <c r="CL215" s="2">
+        <v>0</v>
+      </c>
+      <c r="CM215" s="2">
+        <v>0</v>
+      </c>
+      <c r="CN215" s="2">
+        <v>0</v>
+      </c>
+      <c r="CO215" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP215" s="2">
+        <v>0</v>
+      </c>
+      <c r="CQ215" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR215" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS215" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT215" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU215" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV215" s="2">
+        <v>0</v>
+      </c>
+      <c r="CW215" s="2">
+        <v>0</v>
+      </c>
+      <c r="CX215" s="2">
+        <v>0</v>
+      </c>
+      <c r="CY215" s="2">
+        <v>0</v>
+      </c>
+      <c r="CZ215" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA215" s="2">
+        <v>0</v>
+      </c>
+      <c r="DB215" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC215" s="2">
+        <v>0</v>
+      </c>
+      <c r="DD215" s="2">
+        <v>0</v>
+      </c>
+      <c r="DE215" s="2">
+        <v>0</v>
+      </c>
+      <c r="DF215" s="2">
+        <v>0</v>
+      </c>
+      <c r="DG215" s="2">
+        <v>0</v>
+      </c>
+      <c r="DH215" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI215" s="2">
+        <v>0</v>
+      </c>
+      <c r="DJ215" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK215" s="2">
+        <v>0</v>
+      </c>
+      <c r="DL215" s="2">
+        <v>0</v>
+      </c>
+      <c r="DM215" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN215" s="2">
+        <v>0</v>
+      </c>
+      <c r="DO215" s="2">
+        <v>0</v>
+      </c>
+      <c r="DP215" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ215" s="2">
+        <v>0</v>
+      </c>
+      <c r="DR215" s="2">
+        <v>0</v>
+      </c>
+      <c r="DS215" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT215" s="2">
+        <v>0</v>
+      </c>
+      <c r="DU215" s="2">
+        <v>10350000</v>
+      </c>
+      <c r="DV215" s="2">
+        <v>78110000</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/Electricity Consumption by sector.xlsx
+++ b/inst/extdata/Electricity Consumption by sector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauri\Documents\RPackages\china_co2\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DB07E1-9FB7-4896-B417-64F0D25DD554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB56C621-D78E-4B0E-BCB4-55B71A882FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="19245" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ Electricity Consumption_" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="264">
   <si>
     <t>Name</t>
   </si>
@@ -839,22 +839,16 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2006-03:2023-08</t>
-  </si>
-  <si>
-    <t>2006-07:2023-08</t>
-  </si>
-  <si>
-    <t>2018-02:2023-08</t>
-  </si>
-  <si>
-    <t>2023-09-27</t>
-  </si>
-  <si>
     <t>2006-03:2023-09</t>
   </si>
   <si>
-    <t>2023-10-18</t>
+    <t>2006-07:2023-09</t>
+  </si>
+  <si>
+    <t>2018-02:2023-09</t>
+  </si>
+  <si>
+    <t>2023-11-03</t>
   </si>
 </sst>
 </file>
@@ -1257,83 +1251,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DV215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="J201" sqref="J201"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="36" max="38" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="44" max="46" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="50" max="54" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="66" max="68" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="73" max="77" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="78" max="79" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="82" max="84" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="86" max="87" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="90" max="91" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="95" max="96" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="97" max="99" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="102" max="105" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="111" max="112" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="120" max="121" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="122" max="124" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="125" max="126" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="38" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="46" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="54" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="68" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="73" max="77" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="82" max="84" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="86" max="87" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="90" max="91" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="95" max="96" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="97" max="99" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="102" max="105" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="111" max="112" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="120" max="121" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="122" max="124" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="125" max="126" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:126">
@@ -3236,10 +3228,10 @@
         <v>260</v>
       </c>
       <c r="DU6" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="DV6" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:126">
@@ -3996,10 +3988,10 @@
         <v>263</v>
       </c>
       <c r="DU8" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="DV8" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:126">
@@ -82287,379 +82279,379 @@
         <v>45199</v>
       </c>
       <c r="B215" s="2">
-        <v>0</v>
+        <v>51140713</v>
       </c>
       <c r="C215" s="2">
-        <v>0</v>
+        <v>1677194</v>
       </c>
       <c r="D215" s="2">
-        <v>0</v>
+        <v>519187</v>
       </c>
       <c r="E215" s="2">
-        <v>0</v>
+        <v>16517</v>
       </c>
       <c r="F215" s="2">
-        <v>0</v>
+        <v>390865</v>
       </c>
       <c r="G215" s="2">
-        <v>0</v>
+        <v>237905</v>
       </c>
       <c r="H215" s="2">
-        <v>0</v>
+        <v>512721</v>
       </c>
       <c r="I215" s="2">
-        <v>0</v>
+        <v>366534</v>
       </c>
       <c r="J215" s="2">
-        <v>0</v>
+        <v>2245243</v>
       </c>
       <c r="K215" s="2">
-        <v>0</v>
+        <v>771074</v>
       </c>
       <c r="L215" s="2">
-        <v>0</v>
+        <v>434819</v>
       </c>
       <c r="M215" s="2">
-        <v>0</v>
+        <v>363410</v>
       </c>
       <c r="N215" s="2">
-        <v>0</v>
+        <v>321106</v>
       </c>
       <c r="O215" s="2">
-        <v>0</v>
+        <v>205611</v>
       </c>
       <c r="P215" s="2">
-        <v>0</v>
+        <v>149223</v>
       </c>
       <c r="Q215" s="2">
-        <v>0</v>
+        <v>39975210</v>
       </c>
       <c r="R215" s="2">
-        <v>0</v>
+        <v>758018</v>
       </c>
       <c r="S215" s="2">
-        <v>0</v>
+        <v>479777</v>
       </c>
       <c r="T215" s="2">
-        <v>0</v>
+        <v>153581</v>
       </c>
       <c r="U215" s="2">
-        <v>0</v>
+        <v>36074</v>
       </c>
       <c r="V215" s="2">
-        <v>0</v>
+        <v>357926</v>
       </c>
       <c r="W215" s="2">
-        <v>0</v>
+        <v>211263</v>
       </c>
       <c r="X215" s="2">
-        <v>0</v>
+        <v>348322</v>
       </c>
       <c r="Y215" s="2">
-        <v>0</v>
+        <v>181847</v>
       </c>
       <c r="Z215" s="2">
-        <v>0</v>
+        <v>1623863</v>
       </c>
       <c r="AA215" s="2">
-        <v>0</v>
+        <v>873980</v>
       </c>
       <c r="AB215" s="2">
-        <v>0</v>
+        <v>134012</v>
       </c>
       <c r="AC215" s="2">
-        <v>0</v>
+        <v>160055</v>
       </c>
       <c r="AD215" s="2">
-        <v>0</v>
+        <v>20979</v>
       </c>
       <c r="AE215" s="2">
-        <v>0</v>
+        <v>1662622</v>
       </c>
       <c r="AF215" s="2">
-        <v>0</v>
+        <v>477405</v>
       </c>
       <c r="AG215" s="2">
-        <v>0</v>
+        <v>4967460</v>
       </c>
       <c r="AH215" s="2">
-        <v>0</v>
+        <v>630858</v>
       </c>
       <c r="AI215" s="2">
-        <v>0</v>
+        <v>788770</v>
       </c>
       <c r="AJ215" s="2">
-        <v>0</v>
+        <v>101864</v>
       </c>
       <c r="AK215" s="2">
-        <v>0</v>
+        <v>631569</v>
       </c>
       <c r="AL215" s="2">
-        <v>0</v>
+        <v>521487</v>
       </c>
       <c r="AM215" s="2">
-        <v>0</v>
+        <v>46786</v>
       </c>
       <c r="AN215" s="2">
-        <v>0</v>
+        <v>107883</v>
       </c>
       <c r="AO215" s="2">
-        <v>0</v>
+        <v>460307</v>
       </c>
       <c r="AP215" s="2">
-        <v>0</v>
+        <v>1522644</v>
       </c>
       <c r="AQ215" s="2">
-        <v>0</v>
+        <v>381900</v>
       </c>
       <c r="AR215" s="2">
-        <v>0</v>
+        <v>1140656</v>
       </c>
       <c r="AS215" s="2">
-        <v>0</v>
+        <v>3867087</v>
       </c>
       <c r="AT215" s="2">
-        <v>0</v>
+        <v>1011029</v>
       </c>
       <c r="AU215" s="2">
-        <v>0</v>
+        <v>202894</v>
       </c>
       <c r="AV215" s="2">
-        <v>0</v>
+        <v>360206</v>
       </c>
       <c r="AW215" s="2">
-        <v>0</v>
+        <v>120755</v>
       </c>
       <c r="AX215" s="2">
-        <v>0</v>
+        <v>5368111</v>
       </c>
       <c r="AY215" s="2">
-        <v>0</v>
+        <v>1485785</v>
       </c>
       <c r="AZ215" s="2">
-        <v>0</v>
+        <v>3770820</v>
       </c>
       <c r="BA215" s="2">
-        <v>0</v>
+        <v>6664981</v>
       </c>
       <c r="BB215" s="2">
-        <v>0</v>
+        <v>4599019</v>
       </c>
       <c r="BC215" s="2">
-        <v>0</v>
+        <v>163035</v>
       </c>
       <c r="BD215" s="2">
-        <v>0</v>
+        <v>113293</v>
       </c>
       <c r="BE215" s="2">
-        <v>0</v>
+        <v>2120379</v>
       </c>
       <c r="BF215" s="2">
-        <v>0</v>
+        <v>530856</v>
       </c>
       <c r="BG215" s="2">
-        <v>0</v>
+        <v>1022374</v>
       </c>
       <c r="BH215" s="2">
-        <v>0</v>
+        <v>6596</v>
       </c>
       <c r="BI215" s="2">
-        <v>0</v>
+        <v>391636</v>
       </c>
       <c r="BJ215" s="2">
-        <v>0</v>
+        <v>45703</v>
       </c>
       <c r="BK215" s="2">
-        <v>0</v>
+        <v>739500</v>
       </c>
       <c r="BL215" s="2">
-        <v>0</v>
+        <v>39052</v>
       </c>
       <c r="BM215" s="2">
-        <v>0</v>
+        <v>303679</v>
       </c>
       <c r="BN215" s="2">
-        <v>0</v>
+        <v>30240</v>
       </c>
       <c r="BO215" s="2">
-        <v>0</v>
+        <v>9709</v>
       </c>
       <c r="BP215" s="2">
-        <v>0</v>
+        <v>39768</v>
       </c>
       <c r="BQ215" s="2">
-        <v>0</v>
+        <v>1647084</v>
       </c>
       <c r="BR215" s="2">
-        <v>0</v>
+        <v>383648</v>
       </c>
       <c r="BS215" s="2">
-        <v>0</v>
+        <v>2342953</v>
       </c>
       <c r="BT215" s="2">
-        <v>0</v>
+        <v>46053</v>
       </c>
       <c r="BU215" s="2">
-        <v>0</v>
+        <v>111919</v>
       </c>
       <c r="BV215" s="2">
-        <v>0</v>
+        <v>76484</v>
       </c>
       <c r="BW215" s="2">
-        <v>0</v>
+        <v>733793</v>
       </c>
       <c r="BX215" s="2">
-        <v>0</v>
+        <v>169342</v>
       </c>
       <c r="BY215" s="2">
-        <v>0</v>
+        <v>74568</v>
       </c>
       <c r="BZ215" s="2">
-        <v>0</v>
+        <v>8920261</v>
       </c>
       <c r="CA215" s="2">
-        <v>0</v>
+        <v>8092734</v>
       </c>
       <c r="CB215" s="2">
-        <v>0</v>
+        <v>4492082</v>
       </c>
       <c r="CC215" s="2">
-        <v>0</v>
+        <v>2473860</v>
       </c>
       <c r="CD215" s="2">
-        <v>0</v>
+        <v>508875</v>
       </c>
       <c r="CE215" s="2">
-        <v>0</v>
+        <v>159523</v>
       </c>
       <c r="CF215" s="2">
-        <v>0</v>
+        <v>668004</v>
       </c>
       <c r="CG215" s="2">
-        <v>0</v>
+        <v>854315</v>
       </c>
       <c r="CH215" s="2">
-        <v>0</v>
+        <v>289326</v>
       </c>
       <c r="CI215" s="2">
-        <v>0</v>
+        <v>286481</v>
       </c>
       <c r="CJ215" s="2">
-        <v>0</v>
+        <v>62032</v>
       </c>
       <c r="CK215" s="2">
-        <v>0</v>
+        <v>216476</v>
       </c>
       <c r="CL215" s="2">
-        <v>0</v>
+        <v>1987060</v>
       </c>
       <c r="CM215" s="2">
-        <v>0</v>
+        <v>995557</v>
       </c>
       <c r="CN215" s="2">
-        <v>0</v>
+        <v>405173</v>
       </c>
       <c r="CO215" s="2">
-        <v>0</v>
+        <v>44193</v>
       </c>
       <c r="CP215" s="2">
-        <v>0</v>
+        <v>1879</v>
       </c>
       <c r="CQ215" s="2">
-        <v>0</v>
+        <v>67726</v>
       </c>
       <c r="CR215" s="2">
-        <v>0</v>
+        <v>23735</v>
       </c>
       <c r="CS215" s="2">
-        <v>0</v>
+        <v>360229</v>
       </c>
       <c r="CT215" s="2">
-        <v>0</v>
+        <v>61996</v>
       </c>
       <c r="CU215" s="2">
-        <v>0</v>
+        <v>802667</v>
       </c>
       <c r="CV215" s="2">
-        <v>0</v>
+        <v>28451</v>
       </c>
       <c r="CW215" s="2">
-        <v>0</v>
+        <v>1284520</v>
       </c>
       <c r="CX215" s="2">
-        <v>0</v>
+        <v>587471</v>
       </c>
       <c r="CY215" s="2">
-        <v>0</v>
+        <v>494580</v>
       </c>
       <c r="CZ215" s="2">
-        <v>0</v>
+        <v>239919</v>
       </c>
       <c r="DA215" s="2">
-        <v>0</v>
+        <v>202469</v>
       </c>
       <c r="DB215" s="2">
-        <v>0</v>
+        <v>3286223</v>
       </c>
       <c r="DC215" s="2">
-        <v>0</v>
+        <v>492505</v>
       </c>
       <c r="DD215" s="2">
-        <v>0</v>
+        <v>987817</v>
       </c>
       <c r="DE215" s="2">
-        <v>0</v>
+        <v>181456</v>
       </c>
       <c r="DF215" s="2">
-        <v>0</v>
+        <v>1610033</v>
       </c>
       <c r="DG215" s="2">
-        <v>0</v>
+        <v>816032</v>
       </c>
       <c r="DH215" s="2">
-        <v>0</v>
+        <v>82082</v>
       </c>
       <c r="DI215" s="2">
-        <v>0</v>
+        <v>3926880</v>
       </c>
       <c r="DJ215" s="2">
-        <v>0</v>
+        <v>227725</v>
       </c>
       <c r="DK215" s="2">
-        <v>0</v>
+        <v>36327</v>
       </c>
       <c r="DL215" s="2">
-        <v>0</v>
+        <v>5408</v>
       </c>
       <c r="DM215" s="2">
-        <v>0</v>
+        <v>597175</v>
       </c>
       <c r="DN215" s="2">
-        <v>0</v>
+        <v>73194</v>
       </c>
       <c r="DO215" s="2">
-        <v>0</v>
+        <v>302449</v>
       </c>
       <c r="DP215" s="2">
-        <v>0</v>
+        <v>1358666</v>
       </c>
       <c r="DQ215" s="2">
-        <v>0</v>
+        <v>1130934</v>
       </c>
       <c r="DR215" s="2">
-        <v>0</v>
+        <v>396247</v>
       </c>
       <c r="DS215" s="2">
-        <v>0</v>
+        <v>634658</v>
       </c>
       <c r="DT215" s="2">
-        <v>0</v>
+        <v>712409</v>
       </c>
       <c r="DU215" s="2">
-        <v>10350000</v>
+        <v>10353404</v>
       </c>
       <c r="DV215" s="2">
-        <v>78110000</v>
+        <v>78105646</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/Electricity Consumption by sector.xlsx
+++ b/inst/extdata/Electricity Consumption by sector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB56C621-D78E-4B0E-BCB4-55B71A882FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79031583-5418-428E-8C1C-57E78CAA30DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="19245" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ Electricity Consumption_" sheetId="1" r:id="rId1"/>
@@ -839,16 +839,16 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2006-03:2023-09</t>
+    <t>2006-03:2023-10</t>
   </si>
   <si>
-    <t>2006-07:2023-09</t>
+    <t>2006-07:2023-10</t>
   </si>
   <si>
-    <t>2018-02:2023-09</t>
+    <t>2018-02:2023-10</t>
   </si>
   <si>
-    <t>2023-11-03</t>
+    <t>2023-11-24</t>
   </si>
 </sst>
 </file>
@@ -1249,9 +1249,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DV215"/>
+  <dimension ref="A1:DV216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -82654,6 +82654,386 @@
         <v>78105646</v>
       </c>
     </row>
+    <row r="216" spans="1:126">
+      <c r="A216" s="3">
+        <v>45230</v>
+      </c>
+      <c r="B216" s="2">
+        <v>51219014</v>
+      </c>
+      <c r="C216" s="2">
+        <v>1406705</v>
+      </c>
+      <c r="D216" s="2">
+        <v>459614</v>
+      </c>
+      <c r="E216" s="2">
+        <v>13616</v>
+      </c>
+      <c r="F216" s="2">
+        <v>333524</v>
+      </c>
+      <c r="G216" s="2">
+        <v>203730</v>
+      </c>
+      <c r="H216" s="2">
+        <v>396222</v>
+      </c>
+      <c r="I216" s="2">
+        <v>247728</v>
+      </c>
+      <c r="J216" s="2">
+        <v>2341587</v>
+      </c>
+      <c r="K216" s="2">
+        <v>821435</v>
+      </c>
+      <c r="L216" s="2">
+        <v>464222</v>
+      </c>
+      <c r="M216" s="2">
+        <v>381290</v>
+      </c>
+      <c r="N216" s="2">
+        <v>300036</v>
+      </c>
+      <c r="O216" s="2">
+        <v>217949</v>
+      </c>
+      <c r="P216" s="2">
+        <v>156654</v>
+      </c>
+      <c r="Q216" s="2">
+        <v>39936624</v>
+      </c>
+      <c r="R216" s="2">
+        <v>709250</v>
+      </c>
+      <c r="S216" s="2">
+        <v>428296</v>
+      </c>
+      <c r="T216" s="2">
+        <v>124129</v>
+      </c>
+      <c r="U216" s="2">
+        <v>31234</v>
+      </c>
+      <c r="V216" s="2">
+        <v>325501</v>
+      </c>
+      <c r="W216" s="2">
+        <v>197379</v>
+      </c>
+      <c r="X216" s="2">
+        <v>355988</v>
+      </c>
+      <c r="Y216" s="2">
+        <v>175406</v>
+      </c>
+      <c r="Z216" s="2">
+        <v>1606806</v>
+      </c>
+      <c r="AA216" s="2">
+        <v>896914</v>
+      </c>
+      <c r="AB216" s="2">
+        <v>117245</v>
+      </c>
+      <c r="AC216" s="2">
+        <v>147982</v>
+      </c>
+      <c r="AD216" s="2">
+        <v>19669</v>
+      </c>
+      <c r="AE216" s="2">
+        <v>1680724</v>
+      </c>
+      <c r="AF216" s="2">
+        <v>515596</v>
+      </c>
+      <c r="AG216" s="2">
+        <v>5064409</v>
+      </c>
+      <c r="AH216" s="2">
+        <v>658196</v>
+      </c>
+      <c r="AI216" s="2">
+        <v>827638</v>
+      </c>
+      <c r="AJ216" s="2">
+        <v>106001</v>
+      </c>
+      <c r="AK216" s="2">
+        <v>632028</v>
+      </c>
+      <c r="AL216" s="2">
+        <v>484801</v>
+      </c>
+      <c r="AM216" s="2">
+        <v>40387</v>
+      </c>
+      <c r="AN216" s="2">
+        <v>100211</v>
+      </c>
+      <c r="AO216" s="2">
+        <v>445345</v>
+      </c>
+      <c r="AP216" s="2">
+        <v>1487269</v>
+      </c>
+      <c r="AQ216" s="2">
+        <v>372228</v>
+      </c>
+      <c r="AR216" s="2">
+        <v>1114949</v>
+      </c>
+      <c r="AS216" s="2">
+        <v>3952336</v>
+      </c>
+      <c r="AT216" s="2">
+        <v>1092157</v>
+      </c>
+      <c r="AU216" s="2">
+        <v>204539</v>
+      </c>
+      <c r="AV216" s="2">
+        <v>364464</v>
+      </c>
+      <c r="AW216" s="2">
+        <v>113194</v>
+      </c>
+      <c r="AX216" s="2">
+        <v>5516866</v>
+      </c>
+      <c r="AY216" s="2">
+        <v>1554291</v>
+      </c>
+      <c r="AZ216" s="2">
+        <v>3832009</v>
+      </c>
+      <c r="BA216" s="2">
+        <v>6999731</v>
+      </c>
+      <c r="BB216" s="2">
+        <v>4819512</v>
+      </c>
+      <c r="BC216" s="2">
+        <v>183148</v>
+      </c>
+      <c r="BD216" s="2">
+        <v>115217</v>
+      </c>
+      <c r="BE216" s="2">
+        <v>2068525</v>
+      </c>
+      <c r="BF216" s="2">
+        <v>518204</v>
+      </c>
+      <c r="BG216" s="2">
+        <v>966381</v>
+      </c>
+      <c r="BH216" s="2">
+        <v>6264</v>
+      </c>
+      <c r="BI216" s="2">
+        <v>364861</v>
+      </c>
+      <c r="BJ216" s="2">
+        <v>41005</v>
+      </c>
+      <c r="BK216" s="2">
+        <v>700167</v>
+      </c>
+      <c r="BL216" s="2">
+        <v>35708</v>
+      </c>
+      <c r="BM216" s="2">
+        <v>280718</v>
+      </c>
+      <c r="BN216" s="2">
+        <v>22566</v>
+      </c>
+      <c r="BO216" s="2">
+        <v>8939</v>
+      </c>
+      <c r="BP216" s="2">
+        <v>33088</v>
+      </c>
+      <c r="BQ216" s="2">
+        <v>1601724</v>
+      </c>
+      <c r="BR216" s="2">
+        <v>382465</v>
+      </c>
+      <c r="BS216" s="2">
+        <v>2206976</v>
+      </c>
+      <c r="BT216" s="2">
+        <v>40067</v>
+      </c>
+      <c r="BU216" s="2">
+        <v>103572</v>
+      </c>
+      <c r="BV216" s="2">
+        <v>69164</v>
+      </c>
+      <c r="BW216" s="2">
+        <v>686965</v>
+      </c>
+      <c r="BX216" s="2">
+        <v>172465</v>
+      </c>
+      <c r="BY216" s="2">
+        <v>71072</v>
+      </c>
+      <c r="BZ216" s="2">
+        <v>8940803</v>
+      </c>
+      <c r="CA216" s="2">
+        <v>8094219</v>
+      </c>
+      <c r="CB216" s="2">
+        <v>4287984</v>
+      </c>
+      <c r="CC216" s="2">
+        <v>2333119</v>
+      </c>
+      <c r="CD216" s="2">
+        <v>605378</v>
+      </c>
+      <c r="CE216" s="2">
+        <v>172192</v>
+      </c>
+      <c r="CF216" s="2">
+        <v>674392</v>
+      </c>
+      <c r="CG216" s="2">
+        <v>796721</v>
+      </c>
+      <c r="CH216" s="2">
+        <v>257793</v>
+      </c>
+      <c r="CI216" s="2">
+        <v>277817</v>
+      </c>
+      <c r="CJ216" s="2">
+        <v>55248</v>
+      </c>
+      <c r="CK216" s="2">
+        <v>205861</v>
+      </c>
+      <c r="CL216" s="2">
+        <v>1928890</v>
+      </c>
+      <c r="CM216" s="2">
+        <v>1019730</v>
+      </c>
+      <c r="CN216" s="2">
+        <v>373683</v>
+      </c>
+      <c r="CO216" s="2">
+        <v>42785</v>
+      </c>
+      <c r="CP216" s="2">
+        <v>1868</v>
+      </c>
+      <c r="CQ216" s="2">
+        <v>55565</v>
+      </c>
+      <c r="CR216" s="2">
+        <v>24836</v>
+      </c>
+      <c r="CS216" s="2">
+        <v>323836</v>
+      </c>
+      <c r="CT216" s="2">
+        <v>64393</v>
+      </c>
+      <c r="CU216" s="2">
+        <v>836642</v>
+      </c>
+      <c r="CV216" s="2">
+        <v>24061</v>
+      </c>
+      <c r="CW216" s="2">
+        <v>1242016</v>
+      </c>
+      <c r="CX216" s="2">
+        <v>570614</v>
+      </c>
+      <c r="CY216" s="2">
+        <v>490308</v>
+      </c>
+      <c r="CZ216" s="2">
+        <v>242591</v>
+      </c>
+      <c r="DA216" s="2">
+        <v>181093</v>
+      </c>
+      <c r="DB216" s="2">
+        <v>2802852</v>
+      </c>
+      <c r="DC216" s="2">
+        <v>495021</v>
+      </c>
+      <c r="DD216" s="2">
+        <v>830316</v>
+      </c>
+      <c r="DE216" s="2">
+        <v>146772</v>
+      </c>
+      <c r="DF216" s="2">
+        <v>1309043</v>
+      </c>
+      <c r="DG216" s="2">
+        <v>666892</v>
+      </c>
+      <c r="DH216" s="2">
+        <v>71224</v>
+      </c>
+      <c r="DI216" s="2">
+        <v>3223994</v>
+      </c>
+      <c r="DJ216" s="2">
+        <v>189967</v>
+      </c>
+      <c r="DK216" s="2">
+        <v>31116</v>
+      </c>
+      <c r="DL216" s="2">
+        <v>4654</v>
+      </c>
+      <c r="DM216" s="2">
+        <v>587548</v>
+      </c>
+      <c r="DN216" s="2">
+        <v>68038</v>
+      </c>
+      <c r="DO216" s="2">
+        <v>314332</v>
+      </c>
+      <c r="DP216" s="2">
+        <v>1023790</v>
+      </c>
+      <c r="DQ216" s="2">
+        <v>855707</v>
+      </c>
+      <c r="DR216" s="2">
+        <v>350112</v>
+      </c>
+      <c r="DS216" s="2">
+        <v>492187</v>
+      </c>
+      <c r="DT216" s="2">
+        <v>580390</v>
+      </c>
+      <c r="DU216" s="2">
+        <v>8619754</v>
+      </c>
+      <c r="DV216" s="2">
+        <v>74192969</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/Electricity Consumption by sector.xlsx
+++ b/inst/extdata/Electricity Consumption by sector.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79031583-5418-428E-8C1C-57E78CAA30DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067F4ECE-CBF4-4B6E-9FC2-569C6B39155F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -839,16 +839,16 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2006-03:2023-10</t>
+    <t>2006-03:2023-11</t>
   </si>
   <si>
-    <t>2006-07:2023-10</t>
+    <t>2006-07:2023-11</t>
   </si>
   <si>
-    <t>2018-02:2023-10</t>
+    <t>2018-02:2023-11</t>
   </si>
   <si>
-    <t>2023-11-24</t>
+    <t>2023-12-29</t>
   </si>
 </sst>
 </file>
@@ -906,10 +906,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -953,9 +953,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -993,7 +993,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1099,7 +1099,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1241,7 +1241,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1249,9 +1249,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DV216"/>
+  <dimension ref="A1:DV217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -83034,6 +83034,386 @@
         <v>74192969</v>
       </c>
     </row>
+    <row r="217" spans="1:126">
+      <c r="A217" s="3">
+        <v>45260</v>
+      </c>
+      <c r="B217" s="2">
+        <v>51951293.131099999</v>
+      </c>
+      <c r="C217" s="2">
+        <v>1342363.6636999999</v>
+      </c>
+      <c r="D217" s="2">
+        <v>426004.75189999997</v>
+      </c>
+      <c r="E217" s="2">
+        <v>14015.077499999999</v>
+      </c>
+      <c r="F217" s="2">
+        <v>350468.48920000001</v>
+      </c>
+      <c r="G217" s="2">
+        <v>174564.3737</v>
+      </c>
+      <c r="H217" s="2">
+        <v>377310.97139999998</v>
+      </c>
+      <c r="I217" s="2">
+        <v>226827.62340000001</v>
+      </c>
+      <c r="J217" s="2">
+        <v>2461270.4328000001</v>
+      </c>
+      <c r="K217" s="2">
+        <v>886438.61600000004</v>
+      </c>
+      <c r="L217" s="2">
+        <v>498089.04680000001</v>
+      </c>
+      <c r="M217" s="2">
+        <v>381120.57640000002</v>
+      </c>
+      <c r="N217" s="2">
+        <v>319332.94410000002</v>
+      </c>
+      <c r="O217" s="2">
+        <v>213745.03820000001</v>
+      </c>
+      <c r="P217" s="2">
+        <v>162544.5111</v>
+      </c>
+      <c r="Q217" s="2">
+        <v>39597453.295500003</v>
+      </c>
+      <c r="R217" s="2">
+        <v>696394</v>
+      </c>
+      <c r="S217" s="2">
+        <v>408575</v>
+      </c>
+      <c r="T217" s="2">
+        <v>118415</v>
+      </c>
+      <c r="U217" s="2">
+        <v>32931</v>
+      </c>
+      <c r="V217" s="2">
+        <v>324225</v>
+      </c>
+      <c r="W217" s="2">
+        <v>199633</v>
+      </c>
+      <c r="X217" s="2">
+        <v>370565</v>
+      </c>
+      <c r="Y217" s="2">
+        <v>184517</v>
+      </c>
+      <c r="Z217" s="2">
+        <v>1604316.9713000001</v>
+      </c>
+      <c r="AA217" s="2">
+        <v>875228.7267</v>
+      </c>
+      <c r="AB217" s="2">
+        <v>123452.9672</v>
+      </c>
+      <c r="AC217" s="2">
+        <v>151231</v>
+      </c>
+      <c r="AD217" s="2">
+        <v>20827</v>
+      </c>
+      <c r="AE217" s="2">
+        <v>1636268</v>
+      </c>
+      <c r="AF217" s="2">
+        <v>496980</v>
+      </c>
+      <c r="AG217" s="2">
+        <v>4910849.7271999996</v>
+      </c>
+      <c r="AH217" s="2">
+        <v>605213.65370000002</v>
+      </c>
+      <c r="AI217" s="2">
+        <v>806797.15469999996</v>
+      </c>
+      <c r="AJ217" s="2">
+        <v>101139.1241</v>
+      </c>
+      <c r="AK217" s="2">
+        <v>589612.07860000001</v>
+      </c>
+      <c r="AL217" s="2">
+        <v>489041.9731</v>
+      </c>
+      <c r="AM217" s="2">
+        <v>39914</v>
+      </c>
+      <c r="AN217" s="2">
+        <v>100833</v>
+      </c>
+      <c r="AO217" s="2">
+        <v>432145.24969999999</v>
+      </c>
+      <c r="AP217" s="2">
+        <v>1532096.8807999999</v>
+      </c>
+      <c r="AQ217" s="2">
+        <v>380546</v>
+      </c>
+      <c r="AR217" s="2">
+        <v>1151489</v>
+      </c>
+      <c r="AS217" s="2">
+        <v>3839030.4775999999</v>
+      </c>
+      <c r="AT217" s="2">
+        <v>1030393.5745</v>
+      </c>
+      <c r="AU217" s="2">
+        <v>203324</v>
+      </c>
+      <c r="AV217" s="2">
+        <v>344176</v>
+      </c>
+      <c r="AW217" s="2">
+        <v>100916</v>
+      </c>
+      <c r="AX217" s="2">
+        <v>5478171.0400999999</v>
+      </c>
+      <c r="AY217" s="2">
+        <v>1515968.8951000001</v>
+      </c>
+      <c r="AZ217" s="2">
+        <v>3797825</v>
+      </c>
+      <c r="BA217" s="2">
+        <v>6787002.6776999999</v>
+      </c>
+      <c r="BB217" s="2">
+        <v>4674967.5776000004</v>
+      </c>
+      <c r="BC217" s="2">
+        <v>178847</v>
+      </c>
+      <c r="BD217" s="2">
+        <v>113593</v>
+      </c>
+      <c r="BE217" s="2">
+        <v>2161466.5743</v>
+      </c>
+      <c r="BF217" s="2">
+        <v>545065</v>
+      </c>
+      <c r="BG217" s="2">
+        <v>1032669</v>
+      </c>
+      <c r="BH217" s="2">
+        <v>7091</v>
+      </c>
+      <c r="BI217" s="2">
+        <v>380800</v>
+      </c>
+      <c r="BJ217" s="2">
+        <v>41965</v>
+      </c>
+      <c r="BK217" s="2">
+        <v>728475</v>
+      </c>
+      <c r="BL217" s="2">
+        <v>37417</v>
+      </c>
+      <c r="BM217" s="2">
+        <v>291070</v>
+      </c>
+      <c r="BN217" s="2">
+        <v>24824</v>
+      </c>
+      <c r="BO217" s="2">
+        <v>9406</v>
+      </c>
+      <c r="BP217" s="2">
+        <v>36454</v>
+      </c>
+      <c r="BQ217" s="2">
+        <v>1596662</v>
+      </c>
+      <c r="BR217" s="2">
+        <v>365754</v>
+      </c>
+      <c r="BS217" s="2">
+        <v>2187130</v>
+      </c>
+      <c r="BT217" s="2">
+        <v>38977</v>
+      </c>
+      <c r="BU217" s="2">
+        <v>104016</v>
+      </c>
+      <c r="BV217" s="2">
+        <v>71623</v>
+      </c>
+      <c r="BW217" s="2">
+        <v>702912</v>
+      </c>
+      <c r="BX217" s="2">
+        <v>174862</v>
+      </c>
+      <c r="BY217" s="2">
+        <v>75693</v>
+      </c>
+      <c r="BZ217" s="2">
+        <v>9892569</v>
+      </c>
+      <c r="CA217" s="2">
+        <v>9039910.6135000009</v>
+      </c>
+      <c r="CB217" s="2">
+        <v>4720178.0224000001</v>
+      </c>
+      <c r="CC217" s="2">
+        <v>2526418.7845000001</v>
+      </c>
+      <c r="CD217" s="2">
+        <v>610227.29879999999</v>
+      </c>
+      <c r="CE217" s="2">
+        <v>180848.15059999999</v>
+      </c>
+      <c r="CF217" s="2">
+        <v>671810.44279999996</v>
+      </c>
+      <c r="CG217" s="2">
+        <v>892725.08109999995</v>
+      </c>
+      <c r="CH217" s="2">
+        <v>299029</v>
+      </c>
+      <c r="CI217" s="2">
+        <v>301572</v>
+      </c>
+      <c r="CJ217" s="2">
+        <v>64072</v>
+      </c>
+      <c r="CK217" s="2">
+        <v>228052</v>
+      </c>
+      <c r="CL217" s="2">
+        <v>1913980.4927999999</v>
+      </c>
+      <c r="CM217" s="2">
+        <v>993317</v>
+      </c>
+      <c r="CN217" s="2">
+        <v>372423</v>
+      </c>
+      <c r="CO217" s="2">
+        <v>44688</v>
+      </c>
+      <c r="CP217" s="2">
+        <v>1938</v>
+      </c>
+      <c r="CQ217" s="2">
+        <v>55039</v>
+      </c>
+      <c r="CR217" s="2">
+        <v>24731</v>
+      </c>
+      <c r="CS217" s="2">
+        <v>320568</v>
+      </c>
+      <c r="CT217" s="2">
+        <v>75100.318299999999</v>
+      </c>
+      <c r="CU217" s="2">
+        <v>798383.68350000004</v>
+      </c>
+      <c r="CV217" s="2">
+        <v>28112.655500000001</v>
+      </c>
+      <c r="CW217" s="2">
+        <v>1204107</v>
+      </c>
+      <c r="CX217" s="2">
+        <v>547648</v>
+      </c>
+      <c r="CY217" s="2">
+        <v>473946</v>
+      </c>
+      <c r="CZ217" s="2">
+        <v>237718</v>
+      </c>
+      <c r="DA217" s="2">
+        <v>182513</v>
+      </c>
+      <c r="DB217" s="2">
+        <v>2822661.7771999999</v>
+      </c>
+      <c r="DC217" s="2">
+        <v>525440</v>
+      </c>
+      <c r="DD217" s="2">
+        <v>838426.21770000004</v>
+      </c>
+      <c r="DE217" s="2">
+        <v>162436.23670000001</v>
+      </c>
+      <c r="DF217" s="2">
+        <v>1396458.7560000001</v>
+      </c>
+      <c r="DG217" s="2">
+        <v>665068</v>
+      </c>
+      <c r="DH217" s="2">
+        <v>67837</v>
+      </c>
+      <c r="DI217" s="2">
+        <v>3748950</v>
+      </c>
+      <c r="DJ217" s="2">
+        <v>210528</v>
+      </c>
+      <c r="DK217" s="2">
+        <v>33833</v>
+      </c>
+      <c r="DL217" s="2">
+        <v>5992.5477000000001</v>
+      </c>
+      <c r="DM217" s="2">
+        <v>620533.46759999997</v>
+      </c>
+      <c r="DN217" s="2">
+        <v>71558.014899999995</v>
+      </c>
+      <c r="DO217" s="2">
+        <v>332020.39189999999</v>
+      </c>
+      <c r="DP217" s="2">
+        <v>1254263.8774000001</v>
+      </c>
+      <c r="DQ217" s="2">
+        <v>1075023.8</v>
+      </c>
+      <c r="DR217" s="2">
+        <v>414270</v>
+      </c>
+      <c r="DS217" s="2">
+        <v>540930</v>
+      </c>
+      <c r="DT217" s="2">
+        <v>708424.05240000004</v>
+      </c>
+      <c r="DU217" s="2">
+        <v>9365256.9499999993</v>
+      </c>
+      <c r="DV217" s="2">
+        <v>76303727.2861</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/Electricity Consumption by sector.xlsx
+++ b/inst/extdata/Electricity Consumption by sector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067F4ECE-CBF4-4B6E-9FC2-569C6B39155F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DC6F8B-2C21-4897-9A94-4DC8BB5B7FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ Electricity Consumption_" sheetId="1" r:id="rId1"/>
@@ -839,16 +839,16 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2006-03:2023-11</t>
+    <t>2006-03:2023-12</t>
   </si>
   <si>
-    <t>2006-07:2023-11</t>
+    <t>2006-07:2023-12</t>
   </si>
   <si>
-    <t>2018-02:2023-11</t>
+    <t>2018-02:2023-12</t>
   </si>
   <si>
-    <t>2023-12-29</t>
+    <t>2024-02-05</t>
   </si>
 </sst>
 </file>
@@ -906,10 +906,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1249,9 +1249,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DV217"/>
+  <dimension ref="A1:DV218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -83414,6 +83414,386 @@
         <v>76303727.2861</v>
       </c>
     </row>
+    <row r="218" spans="1:126">
+      <c r="A218" s="3">
+        <v>45291</v>
+      </c>
+      <c r="B218" s="2">
+        <v>54695707.839000002</v>
+      </c>
+      <c r="C218" s="2">
+        <v>1382881.3624</v>
+      </c>
+      <c r="D218" s="2">
+        <v>441820.09529999999</v>
+      </c>
+      <c r="E218" s="2">
+        <v>15375.296399999999</v>
+      </c>
+      <c r="F218" s="2">
+        <v>413234.34570000001</v>
+      </c>
+      <c r="G218" s="2">
+        <v>175342.32870000001</v>
+      </c>
+      <c r="H218" s="2">
+        <v>337109.53700000001</v>
+      </c>
+      <c r="I218" s="2">
+        <v>194585.72159999999</v>
+      </c>
+      <c r="J218" s="2">
+        <v>2758049.9774000002</v>
+      </c>
+      <c r="K218" s="2">
+        <v>973687.44909999997</v>
+      </c>
+      <c r="L218" s="2">
+        <v>694536.11560000002</v>
+      </c>
+      <c r="M218" s="2">
+        <v>395663.76549999998</v>
+      </c>
+      <c r="N218" s="2">
+        <v>321984.83630000002</v>
+      </c>
+      <c r="O218" s="2">
+        <v>206551.6544</v>
+      </c>
+      <c r="P218" s="2">
+        <v>165626.10649999999</v>
+      </c>
+      <c r="Q218" s="2">
+        <v>40508005.241300002</v>
+      </c>
+      <c r="R218" s="2">
+        <v>751462.84889999998</v>
+      </c>
+      <c r="S218" s="2">
+        <v>498502.935</v>
+      </c>
+      <c r="T218" s="2">
+        <v>134849.87539999999</v>
+      </c>
+      <c r="U218" s="2">
+        <v>33784.384400000003</v>
+      </c>
+      <c r="V218" s="2">
+        <v>358901.0612</v>
+      </c>
+      <c r="W218" s="2">
+        <v>217924.62</v>
+      </c>
+      <c r="X218" s="2">
+        <v>379935.79200000002</v>
+      </c>
+      <c r="Y218" s="2">
+        <v>209004.8653</v>
+      </c>
+      <c r="Z218" s="2">
+        <v>1662010.253</v>
+      </c>
+      <c r="AA218" s="2">
+        <v>883838.0956</v>
+      </c>
+      <c r="AB218" s="2">
+        <v>143893.22880000001</v>
+      </c>
+      <c r="AC218" s="2">
+        <v>165839.70079999999</v>
+      </c>
+      <c r="AD218" s="2">
+        <v>22628.575499999999</v>
+      </c>
+      <c r="AE218" s="2">
+        <v>1707176.2416999999</v>
+      </c>
+      <c r="AF218" s="2">
+        <v>521107.29340000002</v>
+      </c>
+      <c r="AG218" s="2">
+        <v>5055372.4167999998</v>
+      </c>
+      <c r="AH218" s="2">
+        <v>615931.80850000004</v>
+      </c>
+      <c r="AI218" s="2">
+        <v>819551.90370000002</v>
+      </c>
+      <c r="AJ218" s="2">
+        <v>82968.9807</v>
+      </c>
+      <c r="AK218" s="2">
+        <v>591287.71160000004</v>
+      </c>
+      <c r="AL218" s="2">
+        <v>488248.09700000001</v>
+      </c>
+      <c r="AM218" s="2">
+        <v>41753.519500000002</v>
+      </c>
+      <c r="AN218" s="2">
+        <v>99324.510699999999</v>
+      </c>
+      <c r="AO218" s="2">
+        <v>437559.31199999998</v>
+      </c>
+      <c r="AP218" s="2">
+        <v>1578137.9339999999</v>
+      </c>
+      <c r="AQ218" s="2">
+        <v>383671.36989999999</v>
+      </c>
+      <c r="AR218" s="2">
+        <v>1194376.2287999999</v>
+      </c>
+      <c r="AS218" s="2">
+        <v>3562855.9662000001</v>
+      </c>
+      <c r="AT218" s="2">
+        <v>860840.04870000004</v>
+      </c>
+      <c r="AU218" s="2">
+        <v>212916.41469999999</v>
+      </c>
+      <c r="AV218" s="2">
+        <v>302559.86930000002</v>
+      </c>
+      <c r="AW218" s="2">
+        <v>88589.315600000002</v>
+      </c>
+      <c r="AX218" s="2">
+        <v>5642775.8417999996</v>
+      </c>
+      <c r="AY218" s="2">
+        <v>1517115.2651</v>
+      </c>
+      <c r="AZ218" s="2">
+        <v>3962050.6836000001</v>
+      </c>
+      <c r="BA218" s="2">
+        <v>6822935.0780999996</v>
+      </c>
+      <c r="BB218" s="2">
+        <v>5519045.5323000001</v>
+      </c>
+      <c r="BC218" s="2">
+        <v>200013.48740000001</v>
+      </c>
+      <c r="BD218" s="2">
+        <v>116971.22139999999</v>
+      </c>
+      <c r="BE218" s="2">
+        <v>2238872.1469999999</v>
+      </c>
+      <c r="BF218" s="2">
+        <v>642756.97219999996</v>
+      </c>
+      <c r="BG218" s="2">
+        <v>1104722.0355</v>
+      </c>
+      <c r="BH218" s="2">
+        <v>7114.0357999999997</v>
+      </c>
+      <c r="BI218" s="2">
+        <v>414018.83630000002</v>
+      </c>
+      <c r="BJ218" s="2">
+        <v>46667.370199999998</v>
+      </c>
+      <c r="BK218" s="2">
+        <v>747108.1361</v>
+      </c>
+      <c r="BL218" s="2">
+        <v>37330.992100000003</v>
+      </c>
+      <c r="BM218" s="2">
+        <v>319353.95689999999</v>
+      </c>
+      <c r="BN218" s="2">
+        <v>25691.700099999998</v>
+      </c>
+      <c r="BO218" s="2">
+        <v>9694.8269</v>
+      </c>
+      <c r="BP218" s="2">
+        <v>41043.368000000002</v>
+      </c>
+      <c r="BQ218" s="2">
+        <v>1720807.7662</v>
+      </c>
+      <c r="BR218" s="2">
+        <v>471967.18349999998</v>
+      </c>
+      <c r="BS218" s="2">
+        <v>2215731.8974000001</v>
+      </c>
+      <c r="BT218" s="2">
+        <v>38387.313199999997</v>
+      </c>
+      <c r="BU218" s="2">
+        <v>101991.1833</v>
+      </c>
+      <c r="BV218" s="2">
+        <v>76997.788</v>
+      </c>
+      <c r="BW218" s="2">
+        <v>680844.89080000005</v>
+      </c>
+      <c r="BX218" s="2">
+        <v>174591.98629999999</v>
+      </c>
+      <c r="BY218" s="2">
+        <v>79944.197400000005</v>
+      </c>
+      <c r="BZ218" s="2">
+        <v>11429653.566099999</v>
+      </c>
+      <c r="CA218" s="2">
+        <v>10523960.3693</v>
+      </c>
+      <c r="CB218" s="2">
+        <v>5284937.0719999997</v>
+      </c>
+      <c r="CC218" s="2">
+        <v>3041053.4630999998</v>
+      </c>
+      <c r="CD218" s="2">
+        <v>727859.29200000002</v>
+      </c>
+      <c r="CE218" s="2">
+        <v>192736.00450000001</v>
+      </c>
+      <c r="CF218" s="2">
+        <v>712956.18500000006</v>
+      </c>
+      <c r="CG218" s="2">
+        <v>1049594.2955</v>
+      </c>
+      <c r="CH218" s="2">
+        <v>360781.71659999999</v>
+      </c>
+      <c r="CI218" s="2">
+        <v>346086.50079999998</v>
+      </c>
+      <c r="CJ218" s="2">
+        <v>76851.416200000007</v>
+      </c>
+      <c r="CK218" s="2">
+        <v>265872.6421</v>
+      </c>
+      <c r="CL218" s="2">
+        <v>2092245.469</v>
+      </c>
+      <c r="CM218" s="2">
+        <v>1071386.4679</v>
+      </c>
+      <c r="CN218" s="2">
+        <v>414701.33539999998</v>
+      </c>
+      <c r="CO218" s="2">
+        <v>50919.480300000003</v>
+      </c>
+      <c r="CP218" s="2">
+        <v>3960.7977999999998</v>
+      </c>
+      <c r="CQ218" s="2">
+        <v>64679.915800000002</v>
+      </c>
+      <c r="CR218" s="2">
+        <v>28819.048999999999</v>
+      </c>
+      <c r="CS218" s="2">
+        <v>343394.92369999998</v>
+      </c>
+      <c r="CT218" s="2">
+        <v>83957.343500000003</v>
+      </c>
+      <c r="CU218" s="2">
+        <v>846657.85789999994</v>
+      </c>
+      <c r="CV218" s="2">
+        <v>34386.962399999997</v>
+      </c>
+      <c r="CW218" s="2">
+        <v>1272578.3188</v>
+      </c>
+      <c r="CX218" s="2">
+        <v>573588.41500000004</v>
+      </c>
+      <c r="CY218" s="2">
+        <v>499272.6471</v>
+      </c>
+      <c r="CZ218" s="2">
+        <v>251502.90359999999</v>
+      </c>
+      <c r="DA218" s="2">
+        <v>199717.26939999999</v>
+      </c>
+      <c r="DB218" s="2">
+        <v>3382335.9103000001</v>
+      </c>
+      <c r="DC218" s="2">
+        <v>604627.30709999998</v>
+      </c>
+      <c r="DD218" s="2">
+        <v>1029672.8101</v>
+      </c>
+      <c r="DE218" s="2">
+        <v>204696.25820000001</v>
+      </c>
+      <c r="DF218" s="2">
+        <v>1734103.3499</v>
+      </c>
+      <c r="DG218" s="2">
+        <v>773007.80350000004</v>
+      </c>
+      <c r="DH218" s="2">
+        <v>69221.586299999995</v>
+      </c>
+      <c r="DI218" s="2">
+        <v>4831967.4817000004</v>
+      </c>
+      <c r="DJ218" s="2">
+        <v>251382.11730000001</v>
+      </c>
+      <c r="DK218" s="2">
+        <v>40459.523699999998</v>
+      </c>
+      <c r="DL218" s="2">
+        <v>7501.3064999999997</v>
+      </c>
+      <c r="DM218" s="2">
+        <v>710156.27899999998</v>
+      </c>
+      <c r="DN218" s="2">
+        <v>82873.371400000004</v>
+      </c>
+      <c r="DO218" s="2">
+        <v>373101.52279999998</v>
+      </c>
+      <c r="DP218" s="2">
+        <v>1688548.5323000001</v>
+      </c>
+      <c r="DQ218" s="2">
+        <v>1460041.7254999999</v>
+      </c>
+      <c r="DR218" s="2">
+        <v>526125.4669</v>
+      </c>
+      <c r="DS218" s="2">
+        <v>710465.37040000001</v>
+      </c>
+      <c r="DT218" s="2">
+        <v>945288.97569999995</v>
+      </c>
+      <c r="DU218" s="2">
+        <v>13181065.8577</v>
+      </c>
+      <c r="DV218" s="2">
+        <v>85629856.122999996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/Electricity Consumption by sector.xlsx
+++ b/inst/extdata/Electricity Consumption by sector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DC6F8B-2C21-4897-9A94-4DC8BB5B7FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E58EAD8-29FB-4B6B-96D7-6FF072F67911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ Electricity Consumption_" sheetId="1" r:id="rId1"/>
@@ -1251,7 +1251,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DV218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -74671,7 +74673,7 @@
         <v>9521571</v>
       </c>
       <c r="DV194" s="2">
-        <v>81276380</v>
+        <v>81557047</v>
       </c>
     </row>
     <row r="195" spans="1:126">

--- a/inst/extdata/Electricity Consumption by sector.xlsx
+++ b/inst/extdata/Electricity Consumption by sector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E58EAD8-29FB-4B6B-96D7-6FF072F67911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4778FD3D-203E-45F7-9552-9931FB8FA55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ Electricity Consumption_" sheetId="1" r:id="rId1"/>
@@ -839,16 +839,16 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2006-03:2023-12</t>
+    <t>2006-03:2024-03</t>
   </si>
   <si>
-    <t>2006-07:2023-12</t>
+    <t>2006-07:2024-03</t>
   </si>
   <si>
-    <t>2018-02:2023-12</t>
+    <t>2018-02:2024-03</t>
   </si>
   <si>
-    <t>2024-02-05</t>
+    <t>2024-04-29</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1249,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DV218"/>
+  <dimension ref="A1:DV219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
@@ -83796,6 +83796,386 @@
         <v>85629856.122999996</v>
       </c>
     </row>
+    <row r="219" spans="1:126">
+      <c r="A219" s="3">
+        <v>45382</v>
+      </c>
+      <c r="B219" s="2">
+        <v>53507555</v>
+      </c>
+      <c r="C219" s="2">
+        <v>1386676</v>
+      </c>
+      <c r="D219" s="2">
+        <v>420459</v>
+      </c>
+      <c r="E219" s="2">
+        <v>12104</v>
+      </c>
+      <c r="F219" s="2">
+        <v>353641</v>
+      </c>
+      <c r="G219" s="2">
+        <v>178553</v>
+      </c>
+      <c r="H219" s="2">
+        <v>421919</v>
+      </c>
+      <c r="I219" s="2">
+        <v>306450</v>
+      </c>
+      <c r="J219" s="2">
+        <v>2354670</v>
+      </c>
+      <c r="K219" s="2">
+        <v>841476</v>
+      </c>
+      <c r="L219" s="2">
+        <v>517047</v>
+      </c>
+      <c r="M219" s="2">
+        <v>371888</v>
+      </c>
+      <c r="N219" s="2">
+        <v>293710</v>
+      </c>
+      <c r="O219" s="2">
+        <v>179243</v>
+      </c>
+      <c r="P219" s="2">
+        <v>151306</v>
+      </c>
+      <c r="Q219" s="2">
+        <v>40390518</v>
+      </c>
+      <c r="R219" s="2">
+        <v>662365</v>
+      </c>
+      <c r="S219" s="2">
+        <v>443085</v>
+      </c>
+      <c r="T219" s="2">
+        <v>157279</v>
+      </c>
+      <c r="U219" s="2">
+        <v>31015</v>
+      </c>
+      <c r="V219" s="2">
+        <v>351433</v>
+      </c>
+      <c r="W219" s="2">
+        <v>214093</v>
+      </c>
+      <c r="X219" s="2">
+        <v>381967</v>
+      </c>
+      <c r="Y219" s="2">
+        <v>186795</v>
+      </c>
+      <c r="Z219" s="2">
+        <v>1711891</v>
+      </c>
+      <c r="AA219" s="2">
+        <v>903222</v>
+      </c>
+      <c r="AB219" s="2">
+        <v>128034</v>
+      </c>
+      <c r="AC219" s="2">
+        <v>164603</v>
+      </c>
+      <c r="AD219" s="2">
+        <v>22666</v>
+      </c>
+      <c r="AE219" s="2">
+        <v>1679463</v>
+      </c>
+      <c r="AF219" s="2">
+        <v>517342</v>
+      </c>
+      <c r="AG219" s="2">
+        <v>5104589</v>
+      </c>
+      <c r="AH219" s="2">
+        <v>651494</v>
+      </c>
+      <c r="AI219" s="2">
+        <v>849559</v>
+      </c>
+      <c r="AJ219" s="2">
+        <v>80101</v>
+      </c>
+      <c r="AK219" s="2">
+        <v>578537</v>
+      </c>
+      <c r="AL219" s="2">
+        <v>491897</v>
+      </c>
+      <c r="AM219" s="2">
+        <v>39419</v>
+      </c>
+      <c r="AN219" s="2">
+        <v>99908</v>
+      </c>
+      <c r="AO219" s="2">
+        <v>454035</v>
+      </c>
+      <c r="AP219" s="2">
+        <v>1645637</v>
+      </c>
+      <c r="AQ219" s="2">
+        <v>400679</v>
+      </c>
+      <c r="AR219" s="2">
+        <v>1244886</v>
+      </c>
+      <c r="AS219" s="2">
+        <v>3647993</v>
+      </c>
+      <c r="AT219" s="2">
+        <v>815721</v>
+      </c>
+      <c r="AU219" s="2">
+        <v>206622</v>
+      </c>
+      <c r="AV219" s="2">
+        <v>344018</v>
+      </c>
+      <c r="AW219" s="2">
+        <v>105568</v>
+      </c>
+      <c r="AX219" s="2">
+        <v>5206170</v>
+      </c>
+      <c r="AY219" s="2">
+        <v>1370090</v>
+      </c>
+      <c r="AZ219" s="2">
+        <v>3709019</v>
+      </c>
+      <c r="BA219" s="2">
+        <v>6879879</v>
+      </c>
+      <c r="BB219" s="2">
+        <v>4861350</v>
+      </c>
+      <c r="BC219" s="2">
+        <v>171761</v>
+      </c>
+      <c r="BD219" s="2">
+        <v>98411</v>
+      </c>
+      <c r="BE219" s="2">
+        <v>2314626</v>
+      </c>
+      <c r="BF219" s="2">
+        <v>576527</v>
+      </c>
+      <c r="BG219" s="2">
+        <v>1122615</v>
+      </c>
+      <c r="BH219" s="2">
+        <v>7911</v>
+      </c>
+      <c r="BI219" s="2">
+        <v>401777</v>
+      </c>
+      <c r="BJ219" s="2">
+        <v>45657</v>
+      </c>
+      <c r="BK219" s="2">
+        <v>723912</v>
+      </c>
+      <c r="BL219" s="2">
+        <v>35144</v>
+      </c>
+      <c r="BM219" s="2">
+        <v>309755</v>
+      </c>
+      <c r="BN219" s="2">
+        <v>28957</v>
+      </c>
+      <c r="BO219" s="2">
+        <v>9060</v>
+      </c>
+      <c r="BP219" s="2">
+        <v>37265</v>
+      </c>
+      <c r="BQ219" s="2">
+        <v>1755184</v>
+      </c>
+      <c r="BR219" s="2">
+        <v>459227</v>
+      </c>
+      <c r="BS219" s="2">
+        <v>2281263</v>
+      </c>
+      <c r="BT219" s="2">
+        <v>38737</v>
+      </c>
+      <c r="BU219" s="2">
+        <v>104672</v>
+      </c>
+      <c r="BV219" s="2">
+        <v>75847</v>
+      </c>
+      <c r="BW219" s="2">
+        <v>714174</v>
+      </c>
+      <c r="BX219" s="2">
+        <v>168110</v>
+      </c>
+      <c r="BY219" s="2">
+        <v>77809</v>
+      </c>
+      <c r="BZ219" s="2">
+        <v>10762366</v>
+      </c>
+      <c r="CA219" s="2">
+        <v>9864304</v>
+      </c>
+      <c r="CB219" s="2">
+        <v>4830350</v>
+      </c>
+      <c r="CC219" s="2">
+        <v>3011417</v>
+      </c>
+      <c r="CD219" s="2">
+        <v>721029</v>
+      </c>
+      <c r="CE219" s="2">
+        <v>183996</v>
+      </c>
+      <c r="CF219" s="2">
+        <v>714066</v>
+      </c>
+      <c r="CG219" s="2">
+        <v>780650</v>
+      </c>
+      <c r="CH219" s="2">
+        <v>261237</v>
+      </c>
+      <c r="CI219" s="2">
+        <v>256478</v>
+      </c>
+      <c r="CJ219" s="2">
+        <v>57752</v>
+      </c>
+      <c r="CK219" s="2">
+        <v>205183</v>
+      </c>
+      <c r="CL219" s="2">
+        <v>1942830</v>
+      </c>
+      <c r="CM219" s="2">
+        <v>1039014</v>
+      </c>
+      <c r="CN219" s="2">
+        <v>372719</v>
+      </c>
+      <c r="CO219" s="2">
+        <v>44955</v>
+      </c>
+      <c r="CP219" s="2">
+        <v>2205</v>
+      </c>
+      <c r="CQ219" s="2">
+        <v>55548</v>
+      </c>
+      <c r="CR219" s="2">
+        <v>22833</v>
+      </c>
+      <c r="CS219" s="2">
+        <v>301382</v>
+      </c>
+      <c r="CT219" s="2">
+        <v>78335</v>
+      </c>
+      <c r="CU219" s="2">
+        <v>849329</v>
+      </c>
+      <c r="CV219" s="2">
+        <v>28043</v>
+      </c>
+      <c r="CW219" s="2">
+        <v>1291760</v>
+      </c>
+      <c r="CX219" s="2">
+        <v>572597</v>
+      </c>
+      <c r="CY219" s="2">
+        <v>519234</v>
+      </c>
+      <c r="CZ219" s="2">
+        <v>271325</v>
+      </c>
+      <c r="DA219" s="2">
+        <v>199930</v>
+      </c>
+      <c r="DB219" s="2">
+        <v>2952453</v>
+      </c>
+      <c r="DC219" s="2">
+        <v>592894</v>
+      </c>
+      <c r="DD219" s="2">
+        <v>867674</v>
+      </c>
+      <c r="DE219" s="2">
+        <v>166684</v>
+      </c>
+      <c r="DF219" s="2">
+        <v>1456059</v>
+      </c>
+      <c r="DG219" s="2">
+        <v>678647</v>
+      </c>
+      <c r="DH219" s="2">
+        <v>68700</v>
+      </c>
+      <c r="DI219" s="2">
+        <v>3793656</v>
+      </c>
+      <c r="DJ219" s="2">
+        <v>217333</v>
+      </c>
+      <c r="DK219" s="2">
+        <v>34551</v>
+      </c>
+      <c r="DL219" s="2">
+        <v>5436</v>
+      </c>
+      <c r="DM219" s="2">
+        <v>623123</v>
+      </c>
+      <c r="DN219" s="2">
+        <v>76316</v>
+      </c>
+      <c r="DO219" s="2">
+        <v>329887</v>
+      </c>
+      <c r="DP219" s="2">
+        <v>1245913</v>
+      </c>
+      <c r="DQ219" s="2">
+        <v>1051833</v>
+      </c>
+      <c r="DR219" s="2">
+        <v>416322</v>
+      </c>
+      <c r="DS219" s="2">
+        <v>572615</v>
+      </c>
+      <c r="DT219" s="2">
+        <v>718350</v>
+      </c>
+      <c r="DU219" s="2">
+        <v>10598145</v>
+      </c>
+      <c r="DV219" s="2">
+        <v>79422788</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/Electricity Consumption by sector.xlsx
+++ b/inst/extdata/Electricity Consumption by sector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4778FD3D-203E-45F7-9552-9931FB8FA55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7893D1D4-36A2-4140-B994-B5B014BD323D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -839,16 +839,16 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2006-03:2024-03</t>
+    <t>2006-03:2024-04</t>
   </si>
   <si>
-    <t>2006-07:2024-03</t>
+    <t>2006-07:2024-04</t>
   </si>
   <si>
-    <t>2018-02:2024-03</t>
+    <t>2018-02:2024-04</t>
   </si>
   <si>
-    <t>2024-04-29</t>
+    <t>2024-05-30</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1249,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DV219"/>
+  <dimension ref="A1:DV220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
@@ -84176,6 +84176,386 @@
         <v>79422788</v>
       </c>
     </row>
+    <row r="220" spans="1:126">
+      <c r="A220" s="3">
+        <v>45412</v>
+      </c>
+      <c r="B220" s="2">
+        <v>51059537</v>
+      </c>
+      <c r="C220" s="2">
+        <v>1582373</v>
+      </c>
+      <c r="D220" s="2">
+        <v>446131</v>
+      </c>
+      <c r="E220" s="2">
+        <v>12759</v>
+      </c>
+      <c r="F220" s="2">
+        <v>319931</v>
+      </c>
+      <c r="G220" s="2">
+        <v>183650</v>
+      </c>
+      <c r="H220" s="2">
+        <v>619903</v>
+      </c>
+      <c r="I220" s="2">
+        <v>510078</v>
+      </c>
+      <c r="J220" s="2">
+        <v>2193513</v>
+      </c>
+      <c r="K220" s="2">
+        <v>747665</v>
+      </c>
+      <c r="L220" s="2">
+        <v>467074</v>
+      </c>
+      <c r="M220" s="2">
+        <v>346240</v>
+      </c>
+      <c r="N220" s="2">
+        <v>287669</v>
+      </c>
+      <c r="O220" s="2">
+        <v>194914</v>
+      </c>
+      <c r="P220" s="2">
+        <v>149951</v>
+      </c>
+      <c r="Q220" s="2">
+        <v>39470783</v>
+      </c>
+      <c r="R220" s="2">
+        <v>619383</v>
+      </c>
+      <c r="S220" s="2">
+        <v>433587</v>
+      </c>
+      <c r="T220" s="2">
+        <v>163400</v>
+      </c>
+      <c r="U220" s="2">
+        <v>29678</v>
+      </c>
+      <c r="V220" s="2">
+        <v>340961</v>
+      </c>
+      <c r="W220" s="2">
+        <v>206508</v>
+      </c>
+      <c r="X220" s="2">
+        <v>367676</v>
+      </c>
+      <c r="Y220" s="2">
+        <v>178063</v>
+      </c>
+      <c r="Z220" s="2">
+        <v>1670579</v>
+      </c>
+      <c r="AA220" s="2">
+        <v>871472</v>
+      </c>
+      <c r="AB220" s="2">
+        <v>119708</v>
+      </c>
+      <c r="AC220" s="2">
+        <v>160783</v>
+      </c>
+      <c r="AD220" s="2">
+        <v>21765</v>
+      </c>
+      <c r="AE220" s="2">
+        <v>1547094</v>
+      </c>
+      <c r="AF220" s="2">
+        <v>488900</v>
+      </c>
+      <c r="AG220" s="2">
+        <v>4909446</v>
+      </c>
+      <c r="AH220" s="2">
+        <v>615785</v>
+      </c>
+      <c r="AI220" s="2">
+        <v>805239</v>
+      </c>
+      <c r="AJ220" s="2">
+        <v>76439</v>
+      </c>
+      <c r="AK220" s="2">
+        <v>601239</v>
+      </c>
+      <c r="AL220" s="2">
+        <v>501247</v>
+      </c>
+      <c r="AM220" s="2">
+        <v>39372</v>
+      </c>
+      <c r="AN220" s="2">
+        <v>104049</v>
+      </c>
+      <c r="AO220" s="2">
+        <v>453190</v>
+      </c>
+      <c r="AP220" s="2">
+        <v>1568228</v>
+      </c>
+      <c r="AQ220" s="2">
+        <v>376124</v>
+      </c>
+      <c r="AR220" s="2">
+        <v>1192281</v>
+      </c>
+      <c r="AS220" s="2">
+        <v>3972496</v>
+      </c>
+      <c r="AT220" s="2">
+        <v>993025</v>
+      </c>
+      <c r="AU220" s="2">
+        <v>203283</v>
+      </c>
+      <c r="AV220" s="2">
+        <v>383026</v>
+      </c>
+      <c r="AW220" s="2">
+        <v>104571</v>
+      </c>
+      <c r="AX220" s="2">
+        <v>4976995</v>
+      </c>
+      <c r="AY220" s="2">
+        <v>1273659</v>
+      </c>
+      <c r="AZ220" s="2">
+        <v>3599632</v>
+      </c>
+      <c r="BA220" s="2">
+        <v>6682527</v>
+      </c>
+      <c r="BB220" s="2">
+        <v>4749141</v>
+      </c>
+      <c r="BC220" s="2">
+        <v>167212</v>
+      </c>
+      <c r="BD220" s="2">
+        <v>92380</v>
+      </c>
+      <c r="BE220" s="2">
+        <v>2234564</v>
+      </c>
+      <c r="BF220" s="2">
+        <v>551584</v>
+      </c>
+      <c r="BG220" s="2">
+        <v>1059814</v>
+      </c>
+      <c r="BH220" s="2">
+        <v>7215</v>
+      </c>
+      <c r="BI220" s="2">
+        <v>390154</v>
+      </c>
+      <c r="BJ220" s="2">
+        <v>46663</v>
+      </c>
+      <c r="BK220" s="2">
+        <v>700916</v>
+      </c>
+      <c r="BL220" s="2">
+        <v>34804</v>
+      </c>
+      <c r="BM220" s="2">
+        <v>290223</v>
+      </c>
+      <c r="BN220" s="2">
+        <v>26334</v>
+      </c>
+      <c r="BO220" s="2">
+        <v>8762</v>
+      </c>
+      <c r="BP220" s="2">
+        <v>35301</v>
+      </c>
+      <c r="BQ220" s="2">
+        <v>1761933</v>
+      </c>
+      <c r="BR220" s="2">
+        <v>483792</v>
+      </c>
+      <c r="BS220" s="2">
+        <v>2236400</v>
+      </c>
+      <c r="BT220" s="2">
+        <v>39785</v>
+      </c>
+      <c r="BU220" s="2">
+        <v>104963</v>
+      </c>
+      <c r="BV220" s="2">
+        <v>74458</v>
+      </c>
+      <c r="BW220" s="2">
+        <v>705160</v>
+      </c>
+      <c r="BX220" s="2">
+        <v>170642</v>
+      </c>
+      <c r="BY220" s="2">
+        <v>73496</v>
+      </c>
+      <c r="BZ220" s="2">
+        <v>9395240</v>
+      </c>
+      <c r="CA220" s="2">
+        <v>8532917</v>
+      </c>
+      <c r="CB220" s="2">
+        <v>4430826</v>
+      </c>
+      <c r="CC220" s="2">
+        <v>2579789</v>
+      </c>
+      <c r="CD220" s="2">
+        <v>632794</v>
+      </c>
+      <c r="CE220" s="2">
+        <v>172997</v>
+      </c>
+      <c r="CF220" s="2">
+        <v>689325</v>
+      </c>
+      <c r="CG220" s="2">
+        <v>723993</v>
+      </c>
+      <c r="CH220" s="2">
+        <v>230748</v>
+      </c>
+      <c r="CI220" s="2">
+        <v>255467</v>
+      </c>
+      <c r="CJ220" s="2">
+        <v>52458</v>
+      </c>
+      <c r="CK220" s="2">
+        <v>185321</v>
+      </c>
+      <c r="CL220" s="2">
+        <v>1801588</v>
+      </c>
+      <c r="CM220" s="2">
+        <v>955574</v>
+      </c>
+      <c r="CN220" s="2">
+        <v>344843</v>
+      </c>
+      <c r="CO220" s="2">
+        <v>42289</v>
+      </c>
+      <c r="CP220" s="2">
+        <v>2136</v>
+      </c>
+      <c r="CQ220" s="2">
+        <v>53561</v>
+      </c>
+      <c r="CR220" s="2">
+        <v>19893</v>
+      </c>
+      <c r="CS220" s="2">
+        <v>286077</v>
+      </c>
+      <c r="CT220" s="2">
+        <v>75056</v>
+      </c>
+      <c r="CU220" s="2">
+        <v>789032</v>
+      </c>
+      <c r="CV220" s="2">
+        <v>24296</v>
+      </c>
+      <c r="CW220" s="2">
+        <v>1266158</v>
+      </c>
+      <c r="CX220" s="2">
+        <v>562319</v>
+      </c>
+      <c r="CY220" s="2">
+        <v>516571</v>
+      </c>
+      <c r="CZ220" s="2">
+        <v>273520</v>
+      </c>
+      <c r="DA220" s="2">
+        <v>187268</v>
+      </c>
+      <c r="DB220" s="2">
+        <v>2817345</v>
+      </c>
+      <c r="DC220" s="2">
+        <v>592106</v>
+      </c>
+      <c r="DD220" s="2">
+        <v>789151</v>
+      </c>
+      <c r="DE220" s="2">
+        <v>145463</v>
+      </c>
+      <c r="DF220" s="2">
+        <v>1301040</v>
+      </c>
+      <c r="DG220" s="2">
+        <v>656753</v>
+      </c>
+      <c r="DH220" s="2">
+        <v>74999</v>
+      </c>
+      <c r="DI220" s="2">
+        <v>3232770</v>
+      </c>
+      <c r="DJ220" s="2">
+        <v>199504</v>
+      </c>
+      <c r="DK220" s="2">
+        <v>34836</v>
+      </c>
+      <c r="DL220" s="2">
+        <v>6808</v>
+      </c>
+      <c r="DM220" s="2">
+        <v>558618</v>
+      </c>
+      <c r="DN220" s="2">
+        <v>72561</v>
+      </c>
+      <c r="DO220" s="2">
+        <v>299242</v>
+      </c>
+      <c r="DP220" s="2">
+        <v>1067127</v>
+      </c>
+      <c r="DQ220" s="2">
+        <v>853028</v>
+      </c>
+      <c r="DR220" s="2">
+        <v>340333</v>
+      </c>
+      <c r="DS220" s="2">
+        <v>486889</v>
+      </c>
+      <c r="DT220" s="2">
+        <v>580299</v>
+      </c>
+      <c r="DU220" s="2">
+        <v>8746508</v>
+      </c>
+      <c r="DV220" s="2">
+        <v>74122678</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/Electricity Consumption by sector.xlsx
+++ b/inst/extdata/Electricity Consumption by sector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7893D1D4-36A2-4140-B994-B5B014BD323D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A52077E-CE5D-48D1-A0E9-B313892C7833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="14400" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ Electricity Consumption_" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="267">
   <si>
     <t>Name</t>
   </si>
@@ -850,6 +850,15 @@
   <si>
     <t>2024-05-30</t>
   </si>
+  <si>
+    <t>2006-03:2024-05</t>
+  </si>
+  <si>
+    <t>2018-02:2024-05</t>
+  </si>
+  <si>
+    <t>2024-07-04</t>
+  </si>
 </sst>
 </file>
 
@@ -1249,10 +1258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DV220"/>
+  <dimension ref="A1:DV221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2861,10 +2870,10 @@
         <v>256</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>260</v>
@@ -2885,7 +2894,7 @@
         <v>261</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>260</v>
@@ -2906,55 +2915,55 @@
         <v>260</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AD6" s="4" t="s">
         <v>262</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AF6" s="4" t="s">
         <v>262</v>
       </c>
       <c r="AG6" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AH6" s="4" t="s">
         <v>260</v>
@@ -2969,7 +2978,7 @@
         <v>260</v>
       </c>
       <c r="AL6" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AM6" s="4" t="s">
         <v>262</v>
@@ -2978,10 +2987,10 @@
         <v>262</v>
       </c>
       <c r="AO6" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AP6" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AQ6" s="4" t="s">
         <v>262</v>
@@ -2990,7 +2999,7 @@
         <v>262</v>
       </c>
       <c r="AS6" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AT6" s="4" t="s">
         <v>260</v>
@@ -3005,7 +3014,7 @@
         <v>262</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AY6" s="4" t="s">
         <v>260</v>
@@ -3014,7 +3023,7 @@
         <v>262</v>
       </c>
       <c r="BA6" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="BB6" s="4" t="s">
         <v>260</v>
@@ -3026,31 +3035,31 @@
         <v>262</v>
       </c>
       <c r="BE6" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="BF6" s="4" t="s">
         <v>262</v>
       </c>
       <c r="BG6" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="BH6" s="4" t="s">
         <v>262</v>
       </c>
       <c r="BI6" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="BJ6" s="4" t="s">
         <v>262</v>
       </c>
       <c r="BK6" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="BL6" s="4" t="s">
         <v>262</v>
       </c>
       <c r="BM6" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="BN6" s="4" t="s">
         <v>262</v>
@@ -3062,13 +3071,13 @@
         <v>262</v>
       </c>
       <c r="BQ6" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="BR6" s="4" t="s">
         <v>262</v>
       </c>
       <c r="BS6" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="BT6" s="4" t="s">
         <v>262</v>
@@ -3077,19 +3086,19 @@
         <v>262</v>
       </c>
       <c r="BV6" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="BW6" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="BX6" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="BY6" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="BZ6" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="CA6" s="4" t="s">
         <v>260</v>
@@ -3110,7 +3119,7 @@
         <v>260</v>
       </c>
       <c r="CG6" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="CH6" s="4" t="s">
         <v>262</v>
@@ -3125,7 +3134,7 @@
         <v>262</v>
       </c>
       <c r="CL6" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="CM6" s="4" t="s">
         <v>262</v>
@@ -3158,7 +3167,7 @@
         <v>260</v>
       </c>
       <c r="CW6" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="CX6" s="4" t="s">
         <v>262</v>
@@ -3173,28 +3182,28 @@
         <v>262</v>
       </c>
       <c r="DB6" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="DC6" s="4" t="s">
         <v>262</v>
       </c>
       <c r="DD6" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="DE6" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="DF6" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="DG6" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="DH6" s="4" t="s">
         <v>262</v>
       </c>
       <c r="DI6" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="DJ6" s="4" t="s">
         <v>262</v>
@@ -3230,10 +3239,10 @@
         <v>260</v>
       </c>
       <c r="DU6" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="DV6" s="4" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:126">
@@ -3621,10 +3630,10 @@
         <v>259</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>263</v>
@@ -3645,7 +3654,7 @@
         <v>263</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>263</v>
@@ -3666,55 +3675,55 @@
         <v>263</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AD8" s="5" t="s">
         <v>263</v>
       </c>
       <c r="AE8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AF8" s="5" t="s">
         <v>263</v>
       </c>
       <c r="AG8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AH8" s="5" t="s">
         <v>263</v>
@@ -3729,7 +3738,7 @@
         <v>263</v>
       </c>
       <c r="AL8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AM8" s="5" t="s">
         <v>263</v>
@@ -3738,10 +3747,10 @@
         <v>263</v>
       </c>
       <c r="AO8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AP8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AQ8" s="5" t="s">
         <v>263</v>
@@ -3750,7 +3759,7 @@
         <v>263</v>
       </c>
       <c r="AS8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AT8" s="5" t="s">
         <v>263</v>
@@ -3765,7 +3774,7 @@
         <v>263</v>
       </c>
       <c r="AX8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AY8" s="5" t="s">
         <v>263</v>
@@ -3774,7 +3783,7 @@
         <v>263</v>
       </c>
       <c r="BA8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="BB8" s="5" t="s">
         <v>263</v>
@@ -3786,31 +3795,31 @@
         <v>263</v>
       </c>
       <c r="BE8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="BF8" s="5" t="s">
         <v>263</v>
       </c>
       <c r="BG8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="BH8" s="5" t="s">
         <v>263</v>
       </c>
       <c r="BI8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="BJ8" s="5" t="s">
         <v>263</v>
       </c>
       <c r="BK8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="BL8" s="5" t="s">
         <v>263</v>
       </c>
       <c r="BM8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="BN8" s="5" t="s">
         <v>263</v>
@@ -3822,13 +3831,13 @@
         <v>263</v>
       </c>
       <c r="BQ8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="BR8" s="5" t="s">
         <v>263</v>
       </c>
       <c r="BS8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="BT8" s="5" t="s">
         <v>263</v>
@@ -3837,19 +3846,19 @@
         <v>263</v>
       </c>
       <c r="BV8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="BW8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="BX8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="BY8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="BZ8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="CA8" s="5" t="s">
         <v>263</v>
@@ -3870,7 +3879,7 @@
         <v>263</v>
       </c>
       <c r="CG8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="CH8" s="5" t="s">
         <v>263</v>
@@ -3885,7 +3894,7 @@
         <v>263</v>
       </c>
       <c r="CL8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="CM8" s="5" t="s">
         <v>263</v>
@@ -3918,7 +3927,7 @@
         <v>263</v>
       </c>
       <c r="CW8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="CX8" s="5" t="s">
         <v>263</v>
@@ -3933,28 +3942,28 @@
         <v>263</v>
       </c>
       <c r="DB8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="DC8" s="5" t="s">
         <v>263</v>
       </c>
       <c r="DD8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="DE8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="DF8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="DG8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="DH8" s="5" t="s">
         <v>263</v>
       </c>
       <c r="DI8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="DJ8" s="5" t="s">
         <v>263</v>
@@ -3990,10 +3999,10 @@
         <v>263</v>
       </c>
       <c r="DU8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="DV8" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:126">
@@ -84554,6 +84563,386 @@
       </c>
       <c r="DV220" s="2">
         <v>74122678</v>
+      </c>
+    </row>
+    <row r="221" spans="1:126">
+      <c r="A221" s="3">
+        <v>45443</v>
+      </c>
+      <c r="B221" s="2">
+        <v>52354802</v>
+      </c>
+      <c r="C221" s="2">
+        <v>1872291</v>
+      </c>
+      <c r="D221" s="2">
+        <v>0</v>
+      </c>
+      <c r="E221" s="2">
+        <v>0</v>
+      </c>
+      <c r="F221" s="2">
+        <v>0</v>
+      </c>
+      <c r="G221" s="2">
+        <v>0</v>
+      </c>
+      <c r="H221" s="2">
+        <v>0</v>
+      </c>
+      <c r="I221" s="2">
+        <v>0</v>
+      </c>
+      <c r="J221" s="2">
+        <v>2288500</v>
+      </c>
+      <c r="K221" s="2">
+        <v>0</v>
+      </c>
+      <c r="L221" s="2">
+        <v>0</v>
+      </c>
+      <c r="M221" s="2">
+        <v>0</v>
+      </c>
+      <c r="N221" s="2">
+        <v>0</v>
+      </c>
+      <c r="O221" s="2">
+        <v>0</v>
+      </c>
+      <c r="P221" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q221" s="2">
+        <v>40872216</v>
+      </c>
+      <c r="R221" s="2">
+        <v>651728</v>
+      </c>
+      <c r="S221" s="2">
+        <v>464962</v>
+      </c>
+      <c r="T221" s="2">
+        <v>172283</v>
+      </c>
+      <c r="U221" s="2">
+        <v>32482</v>
+      </c>
+      <c r="V221" s="2">
+        <v>343750</v>
+      </c>
+      <c r="W221" s="2">
+        <v>204348</v>
+      </c>
+      <c r="X221" s="2">
+        <v>361935</v>
+      </c>
+      <c r="Y221" s="2">
+        <v>177080</v>
+      </c>
+      <c r="Z221" s="2">
+        <v>1681654</v>
+      </c>
+      <c r="AA221" s="2">
+        <v>864122</v>
+      </c>
+      <c r="AB221" s="2">
+        <v>124160</v>
+      </c>
+      <c r="AC221" s="2">
+        <v>162580</v>
+      </c>
+      <c r="AD221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE221" s="2">
+        <v>1658849</v>
+      </c>
+      <c r="AF221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG221" s="2">
+        <v>5139076</v>
+      </c>
+      <c r="AH221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL221" s="2">
+        <v>538926</v>
+      </c>
+      <c r="AM221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO221" s="2">
+        <v>453924</v>
+      </c>
+      <c r="AP221" s="2">
+        <v>1555479</v>
+      </c>
+      <c r="AQ221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS221" s="2">
+        <v>4017531</v>
+      </c>
+      <c r="AT221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX221" s="2">
+        <v>5413124</v>
+      </c>
+      <c r="AY221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ221" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA221" s="2">
+        <v>6988607</v>
+      </c>
+      <c r="BB221" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC221" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD221" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE221" s="2">
+        <v>2233312</v>
+      </c>
+      <c r="BF221" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG221" s="2">
+        <v>1059046</v>
+      </c>
+      <c r="BH221" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI221" s="2">
+        <v>396714</v>
+      </c>
+      <c r="BJ221" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK221" s="2">
+        <v>685676</v>
+      </c>
+      <c r="BL221" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM221" s="2">
+        <v>291076</v>
+      </c>
+      <c r="BN221" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO221" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP221" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ221" s="2">
+        <v>1745051</v>
+      </c>
+      <c r="BR221" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS221" s="2">
+        <v>2396581</v>
+      </c>
+      <c r="BT221" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU221" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV221" s="2">
+        <v>76968</v>
+      </c>
+      <c r="BW221" s="2">
+        <v>730292</v>
+      </c>
+      <c r="BX221" s="2">
+        <v>176061</v>
+      </c>
+      <c r="BY221" s="2">
+        <v>74836</v>
+      </c>
+      <c r="BZ221" s="2">
+        <v>9194086</v>
+      </c>
+      <c r="CA221" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB221" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC221" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD221" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE221" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF221" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG221" s="2">
+        <v>763153</v>
+      </c>
+      <c r="CH221" s="2">
+        <v>0</v>
+      </c>
+      <c r="CI221" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ221" s="2">
+        <v>0</v>
+      </c>
+      <c r="CK221" s="2">
+        <v>0</v>
+      </c>
+      <c r="CL221" s="2">
+        <v>1918718</v>
+      </c>
+      <c r="CM221" s="2">
+        <v>0</v>
+      </c>
+      <c r="CN221" s="2">
+        <v>0</v>
+      </c>
+      <c r="CO221" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP221" s="2">
+        <v>0</v>
+      </c>
+      <c r="CQ221" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR221" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS221" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT221" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU221" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV221" s="2">
+        <v>0</v>
+      </c>
+      <c r="CW221" s="2">
+        <v>1355375</v>
+      </c>
+      <c r="CX221" s="2">
+        <v>0</v>
+      </c>
+      <c r="CY221" s="2">
+        <v>0</v>
+      </c>
+      <c r="CZ221" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA221" s="2">
+        <v>0</v>
+      </c>
+      <c r="DB221" s="2">
+        <v>3188691</v>
+      </c>
+      <c r="DC221" s="2">
+        <v>0</v>
+      </c>
+      <c r="DD221" s="2">
+        <v>905627</v>
+      </c>
+      <c r="DE221" s="2">
+        <v>159662</v>
+      </c>
+      <c r="DF221" s="2">
+        <v>1462939</v>
+      </c>
+      <c r="DG221" s="2">
+        <v>727105</v>
+      </c>
+      <c r="DH221" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI221" s="2">
+        <v>3559941</v>
+      </c>
+      <c r="DJ221" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK221" s="2">
+        <v>0</v>
+      </c>
+      <c r="DL221" s="2">
+        <v>0</v>
+      </c>
+      <c r="DM221" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN221" s="2">
+        <v>0</v>
+      </c>
+      <c r="DO221" s="2">
+        <v>0</v>
+      </c>
+      <c r="DP221" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ221" s="2">
+        <v>0</v>
+      </c>
+      <c r="DR221" s="2">
+        <v>0</v>
+      </c>
+      <c r="DS221" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT221" s="2">
+        <v>0</v>
+      </c>
+      <c r="DU221" s="2">
+        <v>9241013</v>
+      </c>
+      <c r="DV221" s="2">
+        <v>77509318</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/Electricity Consumption by sector.xlsx
+++ b/inst/extdata/Electricity Consumption by sector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A52077E-CE5D-48D1-A0E9-B313892C7833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B275BEEE-2D27-415F-96F2-793D2E2650C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="14400" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ Electricity Consumption_" sheetId="1" r:id="rId1"/>
@@ -851,13 +851,13 @@
     <t>2024-05-30</t>
   </si>
   <si>
-    <t>2006-03:2024-05</t>
+    <t>2006-03:2024-06</t>
   </si>
   <si>
-    <t>2018-02:2024-05</t>
+    <t>2018-02:2024-06</t>
   </si>
   <si>
-    <t>2024-07-04</t>
+    <t>2024-07-31</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1258,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DV221"/>
+  <dimension ref="A1:DV222"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
@@ -84945,6 +84945,386 @@
         <v>77509318</v>
       </c>
     </row>
+    <row r="222" spans="1:126">
+      <c r="A222" s="3">
+        <v>45473</v>
+      </c>
+      <c r="B222" s="2">
+        <v>52313403</v>
+      </c>
+      <c r="C222" s="2">
+        <v>2446733</v>
+      </c>
+      <c r="D222" s="2">
+        <v>0</v>
+      </c>
+      <c r="E222" s="2">
+        <v>0</v>
+      </c>
+      <c r="F222" s="2">
+        <v>0</v>
+      </c>
+      <c r="G222" s="2">
+        <v>0</v>
+      </c>
+      <c r="H222" s="2">
+        <v>0</v>
+      </c>
+      <c r="I222" s="2">
+        <v>0</v>
+      </c>
+      <c r="J222" s="2">
+        <v>2262558</v>
+      </c>
+      <c r="K222" s="2">
+        <v>0</v>
+      </c>
+      <c r="L222" s="2">
+        <v>0</v>
+      </c>
+      <c r="M222" s="2">
+        <v>0</v>
+      </c>
+      <c r="N222" s="2">
+        <v>0</v>
+      </c>
+      <c r="O222" s="2">
+        <v>0</v>
+      </c>
+      <c r="P222" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q222" s="2">
+        <v>40381328</v>
+      </c>
+      <c r="R222" s="2">
+        <v>656555</v>
+      </c>
+      <c r="S222" s="2">
+        <v>495288</v>
+      </c>
+      <c r="T222" s="2">
+        <v>179200</v>
+      </c>
+      <c r="U222" s="2">
+        <v>30454</v>
+      </c>
+      <c r="V222" s="2">
+        <v>355215</v>
+      </c>
+      <c r="W222" s="2">
+        <v>208391</v>
+      </c>
+      <c r="X222" s="2">
+        <v>349466</v>
+      </c>
+      <c r="Y222" s="2">
+        <v>180038</v>
+      </c>
+      <c r="Z222" s="2">
+        <v>1617448</v>
+      </c>
+      <c r="AA222" s="2">
+        <v>859162</v>
+      </c>
+      <c r="AB222" s="2">
+        <v>130915</v>
+      </c>
+      <c r="AC222" s="2">
+        <v>166738</v>
+      </c>
+      <c r="AD222" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE222" s="2">
+        <v>1702230</v>
+      </c>
+      <c r="AF222" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG222" s="2">
+        <v>5039749</v>
+      </c>
+      <c r="AH222" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI222" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ222" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK222" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL222" s="2">
+        <v>569500</v>
+      </c>
+      <c r="AM222" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN222" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO222" s="2">
+        <v>452871</v>
+      </c>
+      <c r="AP222" s="2">
+        <v>1513279</v>
+      </c>
+      <c r="AQ222" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR222" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS222" s="2">
+        <v>3671914</v>
+      </c>
+      <c r="AT222" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU222" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV222" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW222" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX222" s="2">
+        <v>5377330</v>
+      </c>
+      <c r="AY222" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ222" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA222" s="2">
+        <v>6884759</v>
+      </c>
+      <c r="BB222" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC222" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD222" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE222" s="2">
+        <v>2173657</v>
+      </c>
+      <c r="BF222" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG222" s="2">
+        <v>1054030</v>
+      </c>
+      <c r="BH222" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI222" s="2">
+        <v>405414</v>
+      </c>
+      <c r="BJ222" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK222" s="2">
+        <v>710779</v>
+      </c>
+      <c r="BL222" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM222" s="2">
+        <v>304195</v>
+      </c>
+      <c r="BN222" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO222" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP222" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ222" s="2">
+        <v>1708544</v>
+      </c>
+      <c r="BR222" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS222" s="2">
+        <v>2510814</v>
+      </c>
+      <c r="BT222" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU222" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV222" s="2">
+        <v>80324</v>
+      </c>
+      <c r="BW222" s="2">
+        <v>747976</v>
+      </c>
+      <c r="BX222" s="2">
+        <v>169669</v>
+      </c>
+      <c r="BY222" s="2">
+        <v>75425</v>
+      </c>
+      <c r="BZ222" s="2">
+        <v>9669517</v>
+      </c>
+      <c r="CA222" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB222" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC222" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD222" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE222" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF222" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG222" s="2">
+        <v>803385</v>
+      </c>
+      <c r="CH222" s="2">
+        <v>0</v>
+      </c>
+      <c r="CI222" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ222" s="2">
+        <v>0</v>
+      </c>
+      <c r="CK222" s="2">
+        <v>0</v>
+      </c>
+      <c r="CL222" s="2">
+        <v>2001623</v>
+      </c>
+      <c r="CM222" s="2">
+        <v>0</v>
+      </c>
+      <c r="CN222" s="2">
+        <v>0</v>
+      </c>
+      <c r="CO222" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP222" s="2">
+        <v>0</v>
+      </c>
+      <c r="CQ222" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR222" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS222" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT222" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU222" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV222" s="2">
+        <v>0</v>
+      </c>
+      <c r="CW222" s="2">
+        <v>1365750</v>
+      </c>
+      <c r="CX222" s="2">
+        <v>0</v>
+      </c>
+      <c r="CY222" s="2">
+        <v>0</v>
+      </c>
+      <c r="CZ222" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA222" s="2">
+        <v>0</v>
+      </c>
+      <c r="DB222" s="2">
+        <v>3623763</v>
+      </c>
+      <c r="DC222" s="2">
+        <v>0</v>
+      </c>
+      <c r="DD222" s="2">
+        <v>1042027</v>
+      </c>
+      <c r="DE222" s="2">
+        <v>182156</v>
+      </c>
+      <c r="DF222" s="2">
+        <v>1687310</v>
+      </c>
+      <c r="DG222" s="2">
+        <v>846845</v>
+      </c>
+      <c r="DH222" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI222" s="2">
+        <v>4079654</v>
+      </c>
+      <c r="DJ222" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK222" s="2">
+        <v>0</v>
+      </c>
+      <c r="DL222" s="2">
+        <v>0</v>
+      </c>
+      <c r="DM222" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN222" s="2">
+        <v>0</v>
+      </c>
+      <c r="DO222" s="2">
+        <v>0</v>
+      </c>
+      <c r="DP222" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ222" s="2">
+        <v>0</v>
+      </c>
+      <c r="DR222" s="2">
+        <v>0</v>
+      </c>
+      <c r="DS222" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT222" s="2">
+        <v>0</v>
+      </c>
+      <c r="DU222" s="2">
+        <v>11657176</v>
+      </c>
+      <c r="DV222" s="2">
+        <v>82049827</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/Electricity Consumption by sector.xlsx
+++ b/inst/extdata/Electricity Consumption by sector.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B275BEEE-2D27-415F-96F2-793D2E2650C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8B37E7-7343-4715-8DC7-E84F4E88F32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -851,13 +851,13 @@
     <t>2024-05-30</t>
   </si>
   <si>
-    <t>2006-03:2024-06</t>
+    <t>2006-03:2024-07</t>
   </si>
   <si>
-    <t>2018-02:2024-06</t>
+    <t>2018-02:2024-07</t>
   </si>
   <si>
-    <t>2024-07-31</t>
+    <t>2024-08-30</t>
   </si>
 </sst>
 </file>
@@ -1258,9 +1258,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DV222"/>
+  <dimension ref="A1:DV223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
@@ -1326,8 +1326,8 @@
     <col min="107" max="107" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="108" max="108" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="109" max="109" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="111" max="112" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="110" max="111" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="113" max="113" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="114" max="114" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="115" max="115" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -85325,6 +85325,386 @@
         <v>82049827</v>
       </c>
     </row>
+    <row r="223" spans="1:126">
+      <c r="A223" s="3">
+        <v>45504</v>
+      </c>
+      <c r="B223" s="2">
+        <v>55698698</v>
+      </c>
+      <c r="C223" s="2">
+        <v>2475796</v>
+      </c>
+      <c r="D223" s="2">
+        <v>0</v>
+      </c>
+      <c r="E223" s="2">
+        <v>0</v>
+      </c>
+      <c r="F223" s="2">
+        <v>0</v>
+      </c>
+      <c r="G223" s="2">
+        <v>0</v>
+      </c>
+      <c r="H223" s="2">
+        <v>0</v>
+      </c>
+      <c r="I223" s="2">
+        <v>0</v>
+      </c>
+      <c r="J223" s="2">
+        <v>2311976</v>
+      </c>
+      <c r="K223" s="2">
+        <v>0</v>
+      </c>
+      <c r="L223" s="2">
+        <v>0</v>
+      </c>
+      <c r="M223" s="2">
+        <v>0</v>
+      </c>
+      <c r="N223" s="2">
+        <v>0</v>
+      </c>
+      <c r="O223" s="2">
+        <v>0</v>
+      </c>
+      <c r="P223" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q223" s="2">
+        <v>42566420</v>
+      </c>
+      <c r="R223" s="2">
+        <v>727493</v>
+      </c>
+      <c r="S223" s="2">
+        <v>539128</v>
+      </c>
+      <c r="T223" s="2">
+        <v>195573</v>
+      </c>
+      <c r="U223" s="2">
+        <v>36486</v>
+      </c>
+      <c r="V223" s="2">
+        <v>429777</v>
+      </c>
+      <c r="W223" s="2">
+        <v>234838</v>
+      </c>
+      <c r="X223" s="2">
+        <v>363997</v>
+      </c>
+      <c r="Y223" s="2">
+        <v>201514</v>
+      </c>
+      <c r="Z223" s="2">
+        <v>1714568</v>
+      </c>
+      <c r="AA223" s="2">
+        <v>877111</v>
+      </c>
+      <c r="AB223" s="2">
+        <v>153798</v>
+      </c>
+      <c r="AC223" s="2">
+        <v>191546</v>
+      </c>
+      <c r="AD223" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE223" s="2">
+        <v>1763958</v>
+      </c>
+      <c r="AF223" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG223" s="2">
+        <v>5207357</v>
+      </c>
+      <c r="AH223" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI223" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ223" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK223" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL223" s="2">
+        <v>620876</v>
+      </c>
+      <c r="AM223" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN223" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO223" s="2">
+        <v>490040</v>
+      </c>
+      <c r="AP223" s="2">
+        <v>1610118</v>
+      </c>
+      <c r="AQ223" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR223" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS223" s="2">
+        <v>3708365</v>
+      </c>
+      <c r="AT223" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU223" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV223" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW223" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX223" s="2">
+        <v>5518456</v>
+      </c>
+      <c r="AY223" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ223" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA223" s="2">
+        <v>7072524</v>
+      </c>
+      <c r="BB223" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC223" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD223" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE223" s="2">
+        <v>2288105</v>
+      </c>
+      <c r="BF223" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG223" s="2">
+        <v>1156268</v>
+      </c>
+      <c r="BH223" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI223" s="2">
+        <v>456296</v>
+      </c>
+      <c r="BJ223" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK223" s="2">
+        <v>796983</v>
+      </c>
+      <c r="BL223" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM223" s="2">
+        <v>344277</v>
+      </c>
+      <c r="BN223" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO223" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP223" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ223" s="2">
+        <v>1870951</v>
+      </c>
+      <c r="BR223" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS223" s="2">
+        <v>2778200</v>
+      </c>
+      <c r="BT223" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU223" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV223" s="2">
+        <v>94676</v>
+      </c>
+      <c r="BW223" s="2">
+        <v>863674</v>
+      </c>
+      <c r="BX223" s="2">
+        <v>175810</v>
+      </c>
+      <c r="BY223" s="2">
+        <v>83660</v>
+      </c>
+      <c r="BZ223" s="2">
+        <v>10820301</v>
+      </c>
+      <c r="CA223" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB223" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC223" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD223" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE223" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF223" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG223" s="2">
+        <v>947799</v>
+      </c>
+      <c r="CH223" s="2">
+        <v>0</v>
+      </c>
+      <c r="CI223" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ223" s="2">
+        <v>0</v>
+      </c>
+      <c r="CK223" s="2">
+        <v>0</v>
+      </c>
+      <c r="CL223" s="2">
+        <v>2271698</v>
+      </c>
+      <c r="CM223" s="2">
+        <v>0</v>
+      </c>
+      <c r="CN223" s="2">
+        <v>0</v>
+      </c>
+      <c r="CO223" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP223" s="2">
+        <v>0</v>
+      </c>
+      <c r="CQ223" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR223" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS223" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT223" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU223" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV223" s="2">
+        <v>0</v>
+      </c>
+      <c r="CW223" s="2">
+        <v>1517088</v>
+      </c>
+      <c r="CX223" s="2">
+        <v>0</v>
+      </c>
+      <c r="CY223" s="2">
+        <v>0</v>
+      </c>
+      <c r="CZ223" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA223" s="2">
+        <v>0</v>
+      </c>
+      <c r="DB223" s="2">
+        <v>4467897</v>
+      </c>
+      <c r="DC223" s="2">
+        <v>0</v>
+      </c>
+      <c r="DD223" s="2">
+        <v>1337708</v>
+      </c>
+      <c r="DE223" s="2">
+        <v>233454</v>
+      </c>
+      <c r="DF223" s="2">
+        <v>2184473</v>
+      </c>
+      <c r="DG223" s="2">
+        <v>1080255</v>
+      </c>
+      <c r="DH223" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI223" s="2">
+        <v>4470951</v>
+      </c>
+      <c r="DJ223" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK223" s="2">
+        <v>0</v>
+      </c>
+      <c r="DL223" s="2">
+        <v>0</v>
+      </c>
+      <c r="DM223" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN223" s="2">
+        <v>0</v>
+      </c>
+      <c r="DO223" s="2">
+        <v>0</v>
+      </c>
+      <c r="DP223" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ223" s="2">
+        <v>0</v>
+      </c>
+      <c r="DR223" s="2">
+        <v>0</v>
+      </c>
+      <c r="DS223" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT223" s="2">
+        <v>0</v>
+      </c>
+      <c r="DU223" s="2">
+        <v>17271998</v>
+      </c>
+      <c r="DV223" s="2">
+        <v>93957815</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/Electricity Consumption by sector.xlsx
+++ b/inst/extdata/Electricity Consumption by sector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8B37E7-7343-4715-8DC7-E84F4E88F32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA5E806-871A-4100-9A6C-1B5043AFFF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ Electricity Consumption_" sheetId="1" r:id="rId1"/>
@@ -851,13 +851,13 @@
     <t>2024-05-30</t>
   </si>
   <si>
-    <t>2006-03:2024-07</t>
+    <t>2006-03:2024-08</t>
   </si>
   <si>
-    <t>2018-02:2024-07</t>
+    <t>2018-02:2024-08</t>
   </si>
   <si>
-    <t>2024-08-30</t>
+    <t>2024-09-27</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1258,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DV223"/>
+  <dimension ref="A1:DV224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
@@ -85705,6 +85705,386 @@
         <v>93957815</v>
       </c>
     </row>
+    <row r="224" spans="1:126">
+      <c r="A224" s="3">
+        <v>45535</v>
+      </c>
+      <c r="B224" s="2">
+        <v>55899641</v>
+      </c>
+      <c r="C224" s="2">
+        <v>2370467</v>
+      </c>
+      <c r="D224" s="2">
+        <v>0</v>
+      </c>
+      <c r="E224" s="2">
+        <v>0</v>
+      </c>
+      <c r="F224" s="2">
+        <v>0</v>
+      </c>
+      <c r="G224" s="2">
+        <v>0</v>
+      </c>
+      <c r="H224" s="2">
+        <v>0</v>
+      </c>
+      <c r="I224" s="2">
+        <v>0</v>
+      </c>
+      <c r="J224" s="2">
+        <v>2321584</v>
+      </c>
+      <c r="K224" s="2">
+        <v>0</v>
+      </c>
+      <c r="L224" s="2">
+        <v>0</v>
+      </c>
+      <c r="M224" s="2">
+        <v>0</v>
+      </c>
+      <c r="N224" s="2">
+        <v>0</v>
+      </c>
+      <c r="O224" s="2">
+        <v>0</v>
+      </c>
+      <c r="P224" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q224" s="2">
+        <v>42304970</v>
+      </c>
+      <c r="R224" s="2">
+        <v>794694</v>
+      </c>
+      <c r="S224" s="2">
+        <v>573908</v>
+      </c>
+      <c r="T224" s="2">
+        <v>187361</v>
+      </c>
+      <c r="U224" s="2">
+        <v>38175</v>
+      </c>
+      <c r="V224" s="2">
+        <v>442783</v>
+      </c>
+      <c r="W224" s="2">
+        <v>237903</v>
+      </c>
+      <c r="X224" s="2">
+        <v>359746</v>
+      </c>
+      <c r="Y224" s="2">
+        <v>204175</v>
+      </c>
+      <c r="Z224" s="2">
+        <v>1717549</v>
+      </c>
+      <c r="AA224" s="2">
+        <v>902411</v>
+      </c>
+      <c r="AB224" s="2">
+        <v>159935</v>
+      </c>
+      <c r="AC224" s="2">
+        <v>189641</v>
+      </c>
+      <c r="AD224" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE224" s="2">
+        <v>1811047</v>
+      </c>
+      <c r="AF224" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG224" s="2">
+        <v>5204969</v>
+      </c>
+      <c r="AH224" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI224" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ224" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK224" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL224" s="2">
+        <v>605207</v>
+      </c>
+      <c r="AM224" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN224" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO224" s="2">
+        <v>489382</v>
+      </c>
+      <c r="AP224" s="2">
+        <v>1619065</v>
+      </c>
+      <c r="AQ224" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR224" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS224" s="2">
+        <v>3565210</v>
+      </c>
+      <c r="AT224" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU224" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV224" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW224" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX224" s="2">
+        <v>5187035</v>
+      </c>
+      <c r="AY224" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ224" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA224" s="2">
+        <v>7081804</v>
+      </c>
+      <c r="BB224" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC224" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD224" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE224" s="2">
+        <v>2258567</v>
+      </c>
+      <c r="BF224" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG224" s="2">
+        <v>1151182</v>
+      </c>
+      <c r="BH224" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI224" s="2">
+        <v>461616</v>
+      </c>
+      <c r="BJ224" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK224" s="2">
+        <v>821267</v>
+      </c>
+      <c r="BL224" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM224" s="2">
+        <v>347484</v>
+      </c>
+      <c r="BN224" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO224" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP224" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ224" s="2">
+        <v>1853995</v>
+      </c>
+      <c r="BR224" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS224" s="2">
+        <v>2808522</v>
+      </c>
+      <c r="BT224" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU224" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV224" s="2">
+        <v>93471</v>
+      </c>
+      <c r="BW224" s="2">
+        <v>880126</v>
+      </c>
+      <c r="BX224" s="2">
+        <v>172223</v>
+      </c>
+      <c r="BY224" s="2">
+        <v>84515</v>
+      </c>
+      <c r="BZ224" s="2">
+        <v>11273086</v>
+      </c>
+      <c r="CA224" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB224" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC224" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD224" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE224" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF224" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG224" s="2">
+        <v>974847</v>
+      </c>
+      <c r="CH224" s="2">
+        <v>0</v>
+      </c>
+      <c r="CI224" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ224" s="2">
+        <v>0</v>
+      </c>
+      <c r="CK224" s="2">
+        <v>0</v>
+      </c>
+      <c r="CL224" s="2">
+        <v>2361766</v>
+      </c>
+      <c r="CM224" s="2">
+        <v>0</v>
+      </c>
+      <c r="CN224" s="2">
+        <v>0</v>
+      </c>
+      <c r="CO224" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP224" s="2">
+        <v>0</v>
+      </c>
+      <c r="CQ224" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR224" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS224" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT224" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU224" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV224" s="2">
+        <v>0</v>
+      </c>
+      <c r="CW224" s="2">
+        <v>1557155</v>
+      </c>
+      <c r="CX224" s="2">
+        <v>0</v>
+      </c>
+      <c r="CY224" s="2">
+        <v>0</v>
+      </c>
+      <c r="CZ224" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA224" s="2">
+        <v>0</v>
+      </c>
+      <c r="DB224" s="2">
+        <v>4617048</v>
+      </c>
+      <c r="DC224" s="2">
+        <v>0</v>
+      </c>
+      <c r="DD224" s="2">
+        <v>1408648</v>
+      </c>
+      <c r="DE224" s="2">
+        <v>235437</v>
+      </c>
+      <c r="DF224" s="2">
+        <v>2270227</v>
+      </c>
+      <c r="DG224" s="2">
+        <v>1097589</v>
+      </c>
+      <c r="DH224" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI224" s="2">
+        <v>4517924</v>
+      </c>
+      <c r="DJ224" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK224" s="2">
+        <v>0</v>
+      </c>
+      <c r="DL224" s="2">
+        <v>0</v>
+      </c>
+      <c r="DM224" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN224" s="2">
+        <v>0</v>
+      </c>
+      <c r="DO224" s="2">
+        <v>0</v>
+      </c>
+      <c r="DP224" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ224" s="2">
+        <v>0</v>
+      </c>
+      <c r="DR224" s="2">
+        <v>0</v>
+      </c>
+      <c r="DS224" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT224" s="2">
+        <v>0</v>
+      </c>
+      <c r="DU224" s="2">
+        <v>19179659</v>
+      </c>
+      <c r="DV224" s="2">
+        <v>96490406</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/Electricity Consumption by sector.xlsx
+++ b/inst/extdata/Electricity Consumption by sector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA5E806-871A-4100-9A6C-1B5043AFFF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720BC3AF-069C-433A-A7D3-F6CC2E600175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -915,10 +915,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1340,9 +1340,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:126">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:126">

--- a/inst/extdata/Electricity Consumption by sector.xlsx
+++ b/inst/extdata/Electricity Consumption by sector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720BC3AF-069C-433A-A7D3-F6CC2E600175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE581898-9541-457B-A5A6-7222AB55A5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="269">
   <si>
     <t>Name</t>
   </si>
@@ -859,6 +859,12 @@
   <si>
     <t>2024-09-27</t>
   </si>
+  <si>
+    <t>2006-03:2024-09</t>
+  </si>
+  <si>
+    <t>2024-10-19</t>
+  </si>
 </sst>
 </file>
 
@@ -915,10 +921,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1258,7 +1264,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DV224"/>
+  <dimension ref="A1:DV225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
@@ -1340,9 +1346,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:126">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:126">
@@ -3239,10 +3245,10 @@
         <v>260</v>
       </c>
       <c r="DU6" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="DV6" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:126">
@@ -3999,10 +4005,10 @@
         <v>263</v>
       </c>
       <c r="DU8" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="DV8" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:126">
@@ -86083,6 +86089,386 @@
       </c>
       <c r="DV224" s="2">
         <v>96490406</v>
+      </c>
+    </row>
+    <row r="225" spans="1:126">
+      <c r="A225" s="3">
+        <v>45565</v>
+      </c>
+      <c r="B225" s="2">
+        <v>0</v>
+      </c>
+      <c r="C225" s="2">
+        <v>0</v>
+      </c>
+      <c r="D225" s="2">
+        <v>0</v>
+      </c>
+      <c r="E225" s="2">
+        <v>0</v>
+      </c>
+      <c r="F225" s="2">
+        <v>0</v>
+      </c>
+      <c r="G225" s="2">
+        <v>0</v>
+      </c>
+      <c r="H225" s="2">
+        <v>0</v>
+      </c>
+      <c r="I225" s="2">
+        <v>0</v>
+      </c>
+      <c r="J225" s="2">
+        <v>0</v>
+      </c>
+      <c r="K225" s="2">
+        <v>0</v>
+      </c>
+      <c r="L225" s="2">
+        <v>0</v>
+      </c>
+      <c r="M225" s="2">
+        <v>0</v>
+      </c>
+      <c r="N225" s="2">
+        <v>0</v>
+      </c>
+      <c r="O225" s="2">
+        <v>0</v>
+      </c>
+      <c r="P225" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q225" s="2">
+        <v>0</v>
+      </c>
+      <c r="R225" s="2">
+        <v>0</v>
+      </c>
+      <c r="S225" s="2">
+        <v>0</v>
+      </c>
+      <c r="T225" s="2">
+        <v>0</v>
+      </c>
+      <c r="U225" s="2">
+        <v>0</v>
+      </c>
+      <c r="V225" s="2">
+        <v>0</v>
+      </c>
+      <c r="W225" s="2">
+        <v>0</v>
+      </c>
+      <c r="X225" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y225" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CI225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CK225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CL225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CM225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CN225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CO225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CQ225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CW225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CX225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CY225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CZ225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DB225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DD225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DE225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DF225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DG225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DH225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DJ225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DL225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DM225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DO225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DP225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DR225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DS225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DU225" s="2">
+        <v>13230000</v>
+      </c>
+      <c r="DV225" s="2">
+        <v>84750000</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/Electricity Consumption by sector.xlsx
+++ b/inst/extdata/Electricity Consumption by sector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA5E806-871A-4100-9A6C-1B5043AFFF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BA152D-AEB8-402D-8681-53046A4F37BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="269">
   <si>
     <t>Name</t>
   </si>
@@ -859,6 +859,12 @@
   <si>
     <t>2024-09-27</t>
   </si>
+  <si>
+    <t>2006-03:2024-09</t>
+  </si>
+  <si>
+    <t>2024-10-19</t>
+  </si>
 </sst>
 </file>
 
@@ -1258,7 +1264,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DV224"/>
+  <dimension ref="A1:DV225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
@@ -3239,10 +3245,10 @@
         <v>260</v>
       </c>
       <c r="DU6" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="DV6" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:126">
@@ -3999,10 +4005,10 @@
         <v>263</v>
       </c>
       <c r="DU8" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="DV8" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:126">
@@ -86083,6 +86089,386 @@
       </c>
       <c r="DV224" s="2">
         <v>96490406</v>
+      </c>
+    </row>
+    <row r="225" spans="1:126">
+      <c r="A225" s="3">
+        <v>45565</v>
+      </c>
+      <c r="B225" s="2">
+        <v>0</v>
+      </c>
+      <c r="C225" s="2">
+        <v>0</v>
+      </c>
+      <c r="D225" s="2">
+        <v>0</v>
+      </c>
+      <c r="E225" s="2">
+        <v>0</v>
+      </c>
+      <c r="F225" s="2">
+        <v>0</v>
+      </c>
+      <c r="G225" s="2">
+        <v>0</v>
+      </c>
+      <c r="H225" s="2">
+        <v>0</v>
+      </c>
+      <c r="I225" s="2">
+        <v>0</v>
+      </c>
+      <c r="J225" s="2">
+        <v>0</v>
+      </c>
+      <c r="K225" s="2">
+        <v>0</v>
+      </c>
+      <c r="L225" s="2">
+        <v>0</v>
+      </c>
+      <c r="M225" s="2">
+        <v>0</v>
+      </c>
+      <c r="N225" s="2">
+        <v>0</v>
+      </c>
+      <c r="O225" s="2">
+        <v>0</v>
+      </c>
+      <c r="P225" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q225" s="2">
+        <v>0</v>
+      </c>
+      <c r="R225" s="2">
+        <v>0</v>
+      </c>
+      <c r="S225" s="2">
+        <v>0</v>
+      </c>
+      <c r="T225" s="2">
+        <v>0</v>
+      </c>
+      <c r="U225" s="2">
+        <v>0</v>
+      </c>
+      <c r="V225" s="2">
+        <v>0</v>
+      </c>
+      <c r="W225" s="2">
+        <v>0</v>
+      </c>
+      <c r="X225" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y225" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY225" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY225" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CI225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CK225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CL225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CM225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CN225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CO225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CQ225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CW225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CX225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CY225" s="2">
+        <v>0</v>
+      </c>
+      <c r="CZ225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DB225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DD225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DE225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DF225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DG225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DH225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DJ225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DL225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DM225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DO225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DP225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DR225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DS225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT225" s="2">
+        <v>0</v>
+      </c>
+      <c r="DU225" s="2">
+        <v>13230000</v>
+      </c>
+      <c r="DV225" s="2">
+        <v>84750000</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/Electricity Consumption by sector.xlsx
+++ b/inst/extdata/Electricity Consumption by sector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BA152D-AEB8-402D-8681-53046A4F37BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB51CEE-6ED7-42DF-8DD2-397AF28DC8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/inst/extdata/Electricity Consumption by sector.xlsx
+++ b/inst/extdata/Electricity Consumption by sector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB51CEE-6ED7-42DF-8DD2-397AF28DC8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9206841A-9714-4503-994C-B10618BC7BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -921,10 +921,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1346,9 +1346,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:126">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:126">

--- a/inst/extdata/Electricity Consumption by sector.xlsx
+++ b/inst/extdata/Electricity Consumption by sector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9206841A-9714-4503-994C-B10618BC7BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FA2619-92FC-4749-8D09-4FAE171E59B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="267">
   <si>
     <t>Name</t>
   </si>
@@ -851,19 +851,13 @@
     <t>2024-05-30</t>
   </si>
   <si>
-    <t>2006-03:2024-08</t>
-  </si>
-  <si>
-    <t>2018-02:2024-08</t>
-  </si>
-  <si>
-    <t>2024-09-27</t>
-  </si>
-  <si>
     <t>2006-03:2024-09</t>
   </si>
   <si>
-    <t>2024-10-19</t>
+    <t>2018-02:2024-09</t>
+  </si>
+  <si>
+    <t>2024-10-28</t>
   </si>
 </sst>
 </file>
@@ -921,10 +915,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1346,9 +1340,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:126">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:126">
@@ -3245,10 +3239,10 @@
         <v>260</v>
       </c>
       <c r="DU6" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="DV6" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:126">
@@ -4005,10 +3999,10 @@
         <v>263</v>
       </c>
       <c r="DU8" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="DV8" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:126">
@@ -86096,10 +86090,10 @@
         <v>45565</v>
       </c>
       <c r="B225" s="2">
-        <v>0</v>
+        <v>53047305</v>
       </c>
       <c r="C225" s="2">
-        <v>0</v>
+        <v>1674124</v>
       </c>
       <c r="D225" s="2">
         <v>0</v>
@@ -86120,7 +86114,7 @@
         <v>0</v>
       </c>
       <c r="J225" s="2">
-        <v>0</v>
+        <v>2269959</v>
       </c>
       <c r="K225" s="2">
         <v>0</v>
@@ -86141,55 +86135,55 @@
         <v>0</v>
       </c>
       <c r="Q225" s="2">
-        <v>0</v>
+        <v>40943840</v>
       </c>
       <c r="R225" s="2">
-        <v>0</v>
+        <v>766578</v>
       </c>
       <c r="S225" s="2">
-        <v>0</v>
+        <v>536581</v>
       </c>
       <c r="T225" s="2">
-        <v>0</v>
+        <v>166964</v>
       </c>
       <c r="U225" s="2">
-        <v>0</v>
+        <v>36862</v>
       </c>
       <c r="V225" s="2">
-        <v>0</v>
+        <v>394555</v>
       </c>
       <c r="W225" s="2">
-        <v>0</v>
+        <v>221928</v>
       </c>
       <c r="X225" s="2">
-        <v>0</v>
+        <v>351602</v>
       </c>
       <c r="Y225" s="2">
-        <v>0</v>
+        <v>191896</v>
       </c>
       <c r="Z225" s="2">
-        <v>0</v>
+        <v>1683225</v>
       </c>
       <c r="AA225" s="2">
-        <v>0</v>
+        <v>870937</v>
       </c>
       <c r="AB225" s="2">
-        <v>0</v>
+        <v>139194</v>
       </c>
       <c r="AC225" s="2">
-        <v>0</v>
+        <v>173694</v>
       </c>
       <c r="AD225" s="2">
         <v>0</v>
       </c>
       <c r="AE225" s="2">
-        <v>0</v>
+        <v>1755835</v>
       </c>
       <c r="AF225" s="2">
         <v>0</v>
       </c>
       <c r="AG225" s="2">
-        <v>0</v>
+        <v>5141282</v>
       </c>
       <c r="AH225" s="2">
         <v>0</v>
@@ -86204,7 +86198,7 @@
         <v>0</v>
       </c>
       <c r="AL225" s="2">
-        <v>0</v>
+        <v>588275</v>
       </c>
       <c r="AM225" s="2">
         <v>0</v>
@@ -86213,10 +86207,10 @@
         <v>0</v>
       </c>
       <c r="AO225" s="2">
-        <v>0</v>
+        <v>467114</v>
       </c>
       <c r="AP225" s="2">
-        <v>0</v>
+        <v>1587411</v>
       </c>
       <c r="AQ225" s="2">
         <v>0</v>
@@ -86225,7 +86219,7 @@
         <v>0</v>
       </c>
       <c r="AS225" s="2">
-        <v>0</v>
+        <v>3529897</v>
       </c>
       <c r="AT225" s="2">
         <v>0</v>
@@ -86240,7 +86234,7 @@
         <v>0</v>
       </c>
       <c r="AX225" s="2">
-        <v>0</v>
+        <v>5030597</v>
       </c>
       <c r="AY225" s="2">
         <v>0</v>
@@ -86249,7 +86243,7 @@
         <v>0</v>
       </c>
       <c r="BA225" s="2">
-        <v>0</v>
+        <v>6879885</v>
       </c>
       <c r="BB225" s="2">
         <v>0</v>
@@ -86261,31 +86255,31 @@
         <v>0</v>
       </c>
       <c r="BE225" s="2">
-        <v>0</v>
+        <v>2203036</v>
       </c>
       <c r="BF225" s="2">
         <v>0</v>
       </c>
       <c r="BG225" s="2">
-        <v>0</v>
+        <v>1103177</v>
       </c>
       <c r="BH225" s="2">
         <v>0</v>
       </c>
       <c r="BI225" s="2">
-        <v>0</v>
+        <v>428184</v>
       </c>
       <c r="BJ225" s="2">
         <v>0</v>
       </c>
       <c r="BK225" s="2">
-        <v>0</v>
+        <v>801947</v>
       </c>
       <c r="BL225" s="2">
         <v>0</v>
       </c>
       <c r="BM225" s="2">
-        <v>0</v>
+        <v>321712</v>
       </c>
       <c r="BN225" s="2">
         <v>0</v>
@@ -86297,13 +86291,13 @@
         <v>0</v>
       </c>
       <c r="BQ225" s="2">
-        <v>0</v>
+        <v>1761909</v>
       </c>
       <c r="BR225" s="2">
         <v>0</v>
       </c>
       <c r="BS225" s="2">
-        <v>0</v>
+        <v>2660592</v>
       </c>
       <c r="BT225" s="2">
         <v>0</v>
@@ -86312,19 +86306,19 @@
         <v>0</v>
       </c>
       <c r="BV225" s="2">
-        <v>0</v>
+        <v>85303</v>
       </c>
       <c r="BW225" s="2">
-        <v>0</v>
+        <v>815180</v>
       </c>
       <c r="BX225" s="2">
-        <v>0</v>
+        <v>169611</v>
       </c>
       <c r="BY225" s="2">
-        <v>0</v>
+        <v>78878</v>
       </c>
       <c r="BZ225" s="2">
-        <v>0</v>
+        <v>9833505</v>
       </c>
       <c r="CA225" s="2">
         <v>0</v>
@@ -86345,7 +86339,7 @@
         <v>0</v>
       </c>
       <c r="CG225" s="2">
-        <v>0</v>
+        <v>820363</v>
       </c>
       <c r="CH225" s="2">
         <v>0</v>
@@ -86360,7 +86354,7 @@
         <v>0</v>
       </c>
       <c r="CL225" s="2">
-        <v>0</v>
+        <v>2114541</v>
       </c>
       <c r="CM225" s="2">
         <v>0</v>
@@ -86393,7 +86387,7 @@
         <v>0</v>
       </c>
       <c r="CW225" s="2">
-        <v>0</v>
+        <v>1461790</v>
       </c>
       <c r="CX225" s="2">
         <v>0</v>
@@ -86408,28 +86402,28 @@
         <v>0</v>
       </c>
       <c r="DB225" s="2">
-        <v>0</v>
+        <v>3842056</v>
       </c>
       <c r="DC225" s="2">
         <v>0</v>
       </c>
       <c r="DD225" s="2">
-        <v>0</v>
+        <v>1111801</v>
       </c>
       <c r="DE225" s="2">
-        <v>0</v>
+        <v>194252</v>
       </c>
       <c r="DF225" s="2">
-        <v>0</v>
+        <v>1853469</v>
       </c>
       <c r="DG225" s="2">
-        <v>0</v>
+        <v>922686</v>
       </c>
       <c r="DH225" s="2">
         <v>0</v>
       </c>
       <c r="DI225" s="2">
-        <v>0</v>
+        <v>4475159</v>
       </c>
       <c r="DJ225" s="2">
         <v>0</v>
@@ -86465,10 +86459,10 @@
         <v>0</v>
       </c>
       <c r="DU225" s="2">
-        <v>13230000</v>
+        <v>13232005</v>
       </c>
       <c r="DV225" s="2">
-        <v>84750000</v>
+        <v>84749549</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/Electricity Consumption by sector.xlsx
+++ b/inst/extdata/Electricity Consumption by sector.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BABBD23-F73A-4C2C-97D8-AC60EADF2E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABF6594-528A-4B8F-BA56-3C3C391E9A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1170" windowWidth="18000" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Electricity Consumption_W" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="272">
   <si>
     <t>Country</t>
   </si>
@@ -863,13 +863,16 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2024-10-28</t>
-  </si>
-  <si>
     <t>2024-05-30</t>
   </si>
   <si>
     <t>2017-12-18</t>
+  </si>
+  <si>
+    <t>National Energy Administration of the People's Republic of China</t>
+  </si>
+  <si>
+    <t>2024-11-29</t>
   </si>
 </sst>
 </file>
@@ -1290,90 +1293,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DY225"/>
+  <dimension ref="A1:DY226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DL1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:DY8"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="DL1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="38" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="46" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="50" max="54" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="66" max="68" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="73" max="77" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="78" max="79" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="82" max="84" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="86" max="87" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="90" max="91" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="95" max="96" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="97" max="99" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="102" max="105" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="108" max="109" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="111" max="112" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="121" max="122" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="123" max="125" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="127" max="128" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="36" max="38" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="44" max="46" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="50" max="54" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="66" max="68" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="73" max="77" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="13" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="82" max="84" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="86" max="87" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="90" max="91" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="95" max="96" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="97" max="99" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="102" max="105" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="108" max="109" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="111" max="112" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="121" max="122" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="123" max="125" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="13" bestFit="1" customWidth="1"/>
+    <col min="127" max="128" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:129">
+    <row r="1" spans="1:129" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -3701,7 +3702,7 @@
         <v>265</v>
       </c>
       <c r="DV7" s="4" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="DW7" s="4" t="s">
         <v>265</v>
@@ -3710,7 +3711,7 @@
         <v>265</v>
       </c>
       <c r="DY7" s="4" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:129">
@@ -3718,388 +3719,388 @@
         <v>267</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="AF8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AG8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="AH8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AI8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="AM8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AN8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AO8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="AP8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="AQ8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AR8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AS8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="AT8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AU8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AV8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AW8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AX8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="AY8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AZ8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="BA8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="BB8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="BC8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="BD8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="BE8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="BF8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="BG8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="BH8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="BI8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="BJ8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="BK8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="BL8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="BM8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="BN8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="BO8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="BP8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="BQ8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="BR8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="BS8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="BT8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="BU8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="BV8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="BW8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="BX8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="BY8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="BZ8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="CA8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="CB8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="CC8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="CD8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="CE8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="CF8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="CG8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="CH8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="CI8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="CJ8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="CK8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="CL8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="CM8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="CN8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="CO8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="CP8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="CQ8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="CR8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="CS8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="CT8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="CU8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="CV8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="CW8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="CX8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="CY8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="CZ8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="DA8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="DB8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="DC8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="DD8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="DE8" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="I8" s="5" t="s">
+      <c r="DF8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="DG8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="DH8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="DI8" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="DJ8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="DK8" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q8" s="5" t="s">
+      <c r="DL8" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="DM8" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="DN8" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="DO8" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="U8" s="5" t="s">
+      <c r="DP8" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="V8" s="5" t="s">
+      <c r="DQ8" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="W8" s="5" t="s">
+      <c r="DR8" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="X8" s="5" t="s">
+      <c r="DS8" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="Y8" s="5" t="s">
+      <c r="DT8" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="Z8" s="5" t="s">
+      <c r="DU8" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="AA8" s="5" t="s">
+      <c r="DV8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="DW8" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="AB8" s="5" t="s">
+      <c r="DX8" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="AC8" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="AD8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="AE8" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="AG8" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="AH8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="AI8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="AJ8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="AK8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="AL8" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="AM8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="AN8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="AO8" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="AP8" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="AQ8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="AR8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="AS8" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="AT8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="AU8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="AV8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="AW8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="AX8" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="AY8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="AZ8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="BA8" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="BB8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="BC8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="BD8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="BE8" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="BF8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="BG8" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="BH8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="BI8" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="BJ8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="BK8" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="BL8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="BM8" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="BN8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="BO8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="BP8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="BQ8" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="BR8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="BS8" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="BT8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="BU8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="BV8" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="BW8" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="BX8" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="BY8" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="BZ8" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="CA8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="CB8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="CC8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="CD8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="CE8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="CF8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="CG8" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="CH8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="CI8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="CJ8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="CK8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="CL8" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="CM8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="CN8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="CO8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="CP8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="CQ8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="CR8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="CS8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="CT8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="CU8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="CV8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="CW8" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="CX8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="CY8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="CZ8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="DA8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="DB8" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="DC8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="DD8" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="DE8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="DF8" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="DG8" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="DH8" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="DI8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="DJ8" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="DK8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="DL8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="DM8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="DN8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="DO8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="DP8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="DQ8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="DR8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="DS8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="DT8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="DU8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="DV8" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="DW8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="DX8" s="5" t="s">
-        <v>269</v>
-      </c>
       <c r="DY8" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:129">
@@ -88513,6 +88514,395 @@
       </c>
       <c r="DY225" s="3">
         <v>84749549</v>
+      </c>
+    </row>
+    <row r="226" spans="1:129">
+      <c r="A226" s="2">
+        <v>45596</v>
+      </c>
+      <c r="B226" s="3">
+        <v>1421515</v>
+      </c>
+      <c r="C226" s="3">
+        <v>0</v>
+      </c>
+      <c r="D226" s="3">
+        <v>0</v>
+      </c>
+      <c r="E226" s="3">
+        <v>0</v>
+      </c>
+      <c r="F226" s="3">
+        <v>0</v>
+      </c>
+      <c r="G226" s="3">
+        <v>0</v>
+      </c>
+      <c r="H226" s="3">
+        <v>0</v>
+      </c>
+      <c r="I226" s="3">
+        <v>52701436</v>
+      </c>
+      <c r="J226" s="3">
+        <v>2405676</v>
+      </c>
+      <c r="K226" s="3">
+        <v>0</v>
+      </c>
+      <c r="L226" s="3">
+        <v>0</v>
+      </c>
+      <c r="M226" s="3">
+        <v>0</v>
+      </c>
+      <c r="N226" s="3">
+        <v>0</v>
+      </c>
+      <c r="O226" s="3">
+        <v>0</v>
+      </c>
+      <c r="P226" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q226" s="3">
+        <v>40913595</v>
+      </c>
+      <c r="R226" s="3">
+        <v>724049</v>
+      </c>
+      <c r="S226" s="3">
+        <v>478903</v>
+      </c>
+      <c r="T226" s="3">
+        <v>132437</v>
+      </c>
+      <c r="U226" s="3">
+        <v>31393</v>
+      </c>
+      <c r="V226" s="3">
+        <v>352083</v>
+      </c>
+      <c r="W226" s="3">
+        <v>211183</v>
+      </c>
+      <c r="X226" s="3">
+        <v>347839</v>
+      </c>
+      <c r="Y226" s="3">
+        <v>184229</v>
+      </c>
+      <c r="Z226" s="3">
+        <v>1690050</v>
+      </c>
+      <c r="AA226" s="3">
+        <v>868183</v>
+      </c>
+      <c r="AB226" s="3">
+        <v>121073</v>
+      </c>
+      <c r="AC226" s="3">
+        <v>159036</v>
+      </c>
+      <c r="AD226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE226" s="3">
+        <v>1768498</v>
+      </c>
+      <c r="AF226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG226" s="3">
+        <v>5243159</v>
+      </c>
+      <c r="AH226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL226" s="3">
+        <v>526517</v>
+      </c>
+      <c r="AM226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO226" s="3">
+        <v>457493</v>
+      </c>
+      <c r="AP226" s="3">
+        <v>1558301</v>
+      </c>
+      <c r="AQ226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS226" s="3">
+        <v>3718351</v>
+      </c>
+      <c r="AT226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX226" s="3">
+        <v>5415906</v>
+      </c>
+      <c r="AY226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA226" s="3">
+        <v>7069676</v>
+      </c>
+      <c r="BB226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE226" s="3">
+        <v>2154360</v>
+      </c>
+      <c r="BF226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG226" s="3">
+        <v>1044063</v>
+      </c>
+      <c r="BH226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI226" s="3">
+        <v>390406</v>
+      </c>
+      <c r="BJ226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK226" s="3">
+        <v>743185</v>
+      </c>
+      <c r="BL226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM226" s="3">
+        <v>285327</v>
+      </c>
+      <c r="BN226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ226" s="3">
+        <v>1661776</v>
+      </c>
+      <c r="BR226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS226" s="3">
+        <v>2490824</v>
+      </c>
+      <c r="BT226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV226" s="3">
+        <v>74657</v>
+      </c>
+      <c r="BW226" s="3">
+        <v>757445</v>
+      </c>
+      <c r="BX226" s="3">
+        <v>174153</v>
+      </c>
+      <c r="BY226" s="3">
+        <v>79039</v>
+      </c>
+      <c r="BZ226" s="3">
+        <v>9382165</v>
+      </c>
+      <c r="CA226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG226" s="3">
+        <v>748352</v>
+      </c>
+      <c r="CH226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL226" s="3">
+        <v>2030350</v>
+      </c>
+      <c r="CM226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW226" s="3">
+        <v>1400317</v>
+      </c>
+      <c r="CX226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ226" s="3">
+        <v>0</v>
+      </c>
+      <c r="DA226" s="3">
+        <v>0</v>
+      </c>
+      <c r="DB226" s="3">
+        <v>3165613</v>
+      </c>
+      <c r="DC226" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD226" s="3">
+        <v>892241</v>
+      </c>
+      <c r="DE226" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF226" s="3">
+        <v>149795</v>
+      </c>
+      <c r="DG226" s="3">
+        <v>1409755</v>
+      </c>
+      <c r="DH226" s="3">
+        <v>732716</v>
+      </c>
+      <c r="DI226" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ226" s="3">
+        <v>3452212</v>
+      </c>
+      <c r="DK226" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL226" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM226" s="3">
+        <v>0</v>
+      </c>
+      <c r="DN226" s="3">
+        <v>0</v>
+      </c>
+      <c r="DO226" s="3">
+        <v>0</v>
+      </c>
+      <c r="DP226" s="3">
+        <v>0</v>
+      </c>
+      <c r="DQ226" s="3">
+        <v>0</v>
+      </c>
+      <c r="DR226" s="3">
+        <v>0</v>
+      </c>
+      <c r="DS226" s="3">
+        <v>0</v>
+      </c>
+      <c r="DT226" s="3">
+        <v>0</v>
+      </c>
+      <c r="DU226" s="3">
+        <v>0</v>
+      </c>
+      <c r="DV226" s="3">
+        <v>9320038</v>
+      </c>
+      <c r="DW226" s="3">
+        <v>0</v>
+      </c>
+      <c r="DX226" s="3">
+        <v>0</v>
+      </c>
+      <c r="DY226" s="3">
+        <v>77424342</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/Electricity Consumption by sector.xlsx
+++ b/inst/extdata/Electricity Consumption by sector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABF6594-528A-4B8F-BA56-3C3C391E9A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D203909-B2D0-42A6-889B-268B4398E480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Electricity Consumption_W" sheetId="1" r:id="rId1"/>
@@ -1295,86 +1295,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DY226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DL1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="36" max="38" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="44" max="46" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="50" max="54" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="66" max="68" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="73" max="77" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="78" max="79" width="13" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="82" max="84" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="86" max="87" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="90" max="91" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="95" max="96" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="97" max="99" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="102" max="105" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="108" max="109" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="111" max="112" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="121" max="122" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="123" max="125" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="13" bestFit="1" customWidth="1"/>
-    <col min="127" max="128" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="38" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="46" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="54" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="66" max="68" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="73" max="77" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="82" max="84" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="86" max="87" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="90" max="91" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="95" max="96" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="97" max="99" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="102" max="105" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="108" max="109" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="111" max="112" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="121" max="122" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="123" max="125" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="127" max="128" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:129" ht="15">
+    <row r="1" spans="1:129">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>

--- a/inst/extdata/Electricity Consumption by sector.xlsx
+++ b/inst/extdata/Electricity Consumption by sector.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D203909-B2D0-42A6-889B-268B4398E480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A049C9E2-B5BA-4DF5-977E-3B8CE1497C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Electricity Consumption_W" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="273">
   <si>
     <t>Country</t>
   </si>
@@ -874,6 +874,9 @@
   <si>
     <t>2024-11-29</t>
   </si>
+  <si>
+    <t>2024-12-19</t>
+  </si>
 </sst>
 </file>
 
@@ -1293,88 +1296,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DY226"/>
+  <dimension ref="A1:DY227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="38" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="44" max="46" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="54" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="66" max="68" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="73" max="77" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="78" max="79" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="82" max="84" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="86" max="87" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="90" max="91" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="95" max="96" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="97" max="99" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="102" max="105" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="108" max="109" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="111" max="112" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="121" max="122" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="123" max="125" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="127" max="128" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="36" max="38" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="44" max="46" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="50" max="54" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="66" max="68" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="73" max="77" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="82" max="84" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="86" max="87" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="90" max="91" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="95" max="96" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="97" max="99" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="102" max="105" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="108" max="109" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="111" max="112" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="121" max="122" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="123" max="125" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="127" max="128" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="13.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:129">
+    <row r="1" spans="1:129" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -4091,7 +4094,7 @@
         <v>268</v>
       </c>
       <c r="DV8" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="DW8" s="5" t="s">
         <v>268</v>
@@ -4100,7 +4103,7 @@
         <v>268</v>
       </c>
       <c r="DY8" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:129">
@@ -88903,6 +88906,395 @@
       </c>
       <c r="DY226" s="3">
         <v>77424342</v>
+      </c>
+    </row>
+    <row r="227" spans="1:129">
+      <c r="A227" s="2">
+        <v>45626</v>
+      </c>
+      <c r="B227" s="3">
+        <v>0</v>
+      </c>
+      <c r="C227" s="3">
+        <v>0</v>
+      </c>
+      <c r="D227" s="3">
+        <v>0</v>
+      </c>
+      <c r="E227" s="3">
+        <v>0</v>
+      </c>
+      <c r="F227" s="3">
+        <v>0</v>
+      </c>
+      <c r="G227" s="3">
+        <v>0</v>
+      </c>
+      <c r="H227" s="3">
+        <v>0</v>
+      </c>
+      <c r="I227" s="3">
+        <v>0</v>
+      </c>
+      <c r="J227" s="3">
+        <v>0</v>
+      </c>
+      <c r="K227" s="3">
+        <v>0</v>
+      </c>
+      <c r="L227" s="3">
+        <v>0</v>
+      </c>
+      <c r="M227" s="3">
+        <v>0</v>
+      </c>
+      <c r="N227" s="3">
+        <v>0</v>
+      </c>
+      <c r="O227" s="3">
+        <v>0</v>
+      </c>
+      <c r="P227" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q227" s="3">
+        <v>0</v>
+      </c>
+      <c r="R227" s="3">
+        <v>0</v>
+      </c>
+      <c r="S227" s="3">
+        <v>0</v>
+      </c>
+      <c r="T227" s="3">
+        <v>0</v>
+      </c>
+      <c r="U227" s="3">
+        <v>0</v>
+      </c>
+      <c r="V227" s="3">
+        <v>0</v>
+      </c>
+      <c r="W227" s="3">
+        <v>0</v>
+      </c>
+      <c r="X227" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y227" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY227" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ227" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA227" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB227" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC227" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD227" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE227" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF227" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG227" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH227" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI227" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ227" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK227" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL227" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM227" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN227" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO227" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP227" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ227" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR227" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS227" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT227" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU227" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV227" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW227" s="3">
+        <v>0</v>
+      </c>
+      <c r="BX227" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY227" s="3">
+        <v>0</v>
+      </c>
+      <c r="BZ227" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA227" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB227" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC227" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD227" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE227" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF227" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG227" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH227" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI227" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ227" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK227" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL227" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM227" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN227" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO227" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP227" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ227" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR227" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS227" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT227" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU227" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV227" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW227" s="3">
+        <v>0</v>
+      </c>
+      <c r="CX227" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY227" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ227" s="3">
+        <v>0</v>
+      </c>
+      <c r="DA227" s="3">
+        <v>0</v>
+      </c>
+      <c r="DB227" s="3">
+        <v>0</v>
+      </c>
+      <c r="DC227" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD227" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE227" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF227" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG227" s="3">
+        <v>0</v>
+      </c>
+      <c r="DH227" s="3">
+        <v>0</v>
+      </c>
+      <c r="DI227" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ227" s="3">
+        <v>0</v>
+      </c>
+      <c r="DK227" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL227" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM227" s="3">
+        <v>0</v>
+      </c>
+      <c r="DN227" s="3">
+        <v>0</v>
+      </c>
+      <c r="DO227" s="3">
+        <v>0</v>
+      </c>
+      <c r="DP227" s="3">
+        <v>0</v>
+      </c>
+      <c r="DQ227" s="3">
+        <v>0</v>
+      </c>
+      <c r="DR227" s="3">
+        <v>0</v>
+      </c>
+      <c r="DS227" s="3">
+        <v>0</v>
+      </c>
+      <c r="DT227" s="3">
+        <v>0</v>
+      </c>
+      <c r="DU227" s="3">
+        <v>0</v>
+      </c>
+      <c r="DV227" s="3">
+        <v>9630000</v>
+      </c>
+      <c r="DW227" s="3">
+        <v>0</v>
+      </c>
+      <c r="DX227" s="3">
+        <v>0</v>
+      </c>
+      <c r="DY227" s="3">
+        <v>78490000</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/Electricity Consumption by sector.xlsx
+++ b/inst/extdata/Electricity Consumption by sector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A049C9E2-B5BA-4DF5-977E-3B8CE1497C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6296055C-3C88-457D-82CB-8F98263E8B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="272">
   <si>
     <t>Country</t>
   </si>
@@ -872,10 +872,7 @@
     <t>National Energy Administration of the People's Republic of China</t>
   </si>
   <si>
-    <t>2024-11-29</t>
-  </si>
-  <si>
-    <t>2024-12-19</t>
+    <t>2025-01-02</t>
   </si>
 </sst>
 </file>
@@ -4094,7 +4091,7 @@
         <v>268</v>
       </c>
       <c r="DV8" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="DW8" s="5" t="s">
         <v>268</v>
@@ -4103,7 +4100,7 @@
         <v>268</v>
       </c>
       <c r="DY8" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:129">
@@ -88913,7 +88910,7 @@
         <v>45626</v>
       </c>
       <c r="B227" s="3">
-        <v>0</v>
+        <v>1423269</v>
       </c>
       <c r="C227" s="3">
         <v>0</v>
@@ -88934,10 +88931,10 @@
         <v>0</v>
       </c>
       <c r="I227" s="3">
-        <v>0</v>
+        <v>53276258</v>
       </c>
       <c r="J227" s="3">
-        <v>0</v>
+        <v>2507204</v>
       </c>
       <c r="K227" s="3">
         <v>0</v>
@@ -88958,55 +88955,55 @@
         <v>0</v>
       </c>
       <c r="Q227" s="3">
-        <v>0</v>
+        <v>40655323</v>
       </c>
       <c r="R227" s="3">
-        <v>0</v>
+        <v>723948</v>
       </c>
       <c r="S227" s="3">
-        <v>0</v>
+        <v>472287</v>
       </c>
       <c r="T227" s="3">
-        <v>0</v>
+        <v>125746</v>
       </c>
       <c r="U227" s="3">
-        <v>0</v>
+        <v>33256</v>
       </c>
       <c r="V227" s="3">
-        <v>0</v>
+        <v>339058</v>
       </c>
       <c r="W227" s="3">
-        <v>0</v>
+        <v>204607</v>
       </c>
       <c r="X227" s="3">
-        <v>0</v>
+        <v>366778</v>
       </c>
       <c r="Y227" s="3">
-        <v>0</v>
+        <v>191881</v>
       </c>
       <c r="Z227" s="3">
-        <v>0</v>
+        <v>1663630</v>
       </c>
       <c r="AA227" s="3">
-        <v>0</v>
+        <v>842893</v>
       </c>
       <c r="AB227" s="3">
-        <v>0</v>
+        <v>126558</v>
       </c>
       <c r="AC227" s="3">
-        <v>0</v>
+        <v>159284</v>
       </c>
       <c r="AD227" s="3">
         <v>0</v>
       </c>
       <c r="AE227" s="3">
-        <v>0</v>
+        <v>1706967</v>
       </c>
       <c r="AF227" s="3">
         <v>0</v>
       </c>
       <c r="AG227" s="3">
-        <v>0</v>
+        <v>5156805</v>
       </c>
       <c r="AH227" s="3">
         <v>0</v>
@@ -89021,7 +89018,7 @@
         <v>0</v>
       </c>
       <c r="AL227" s="3">
-        <v>0</v>
+        <v>510369</v>
       </c>
       <c r="AM227" s="3">
         <v>0</v>
@@ -89030,10 +89027,10 @@
         <v>0</v>
       </c>
       <c r="AO227" s="3">
-        <v>0</v>
+        <v>450087</v>
       </c>
       <c r="AP227" s="3">
-        <v>0</v>
+        <v>1606657</v>
       </c>
       <c r="AQ227" s="3">
         <v>0</v>
@@ -89042,7 +89039,7 @@
         <v>0</v>
       </c>
       <c r="AS227" s="3">
-        <v>0</v>
+        <v>3525277</v>
       </c>
       <c r="AT227" s="3">
         <v>0</v>
@@ -89057,7 +89054,7 @@
         <v>0</v>
       </c>
       <c r="AX227" s="3">
-        <v>0</v>
+        <v>5410803</v>
       </c>
       <c r="AY227" s="3">
         <v>0</v>
@@ -89066,7 +89063,7 @@
         <v>0</v>
       </c>
       <c r="BA227" s="3">
-        <v>0</v>
+        <v>6941273</v>
       </c>
       <c r="BB227" s="3">
         <v>0</v>
@@ -89078,31 +89075,31 @@
         <v>0</v>
       </c>
       <c r="BE227" s="3">
-        <v>0</v>
+        <v>2255891</v>
       </c>
       <c r="BF227" s="3">
         <v>0</v>
       </c>
       <c r="BG227" s="3">
-        <v>0</v>
+        <v>1108919</v>
       </c>
       <c r="BH227" s="3">
         <v>0</v>
       </c>
       <c r="BI227" s="3">
-        <v>0</v>
+        <v>407726</v>
       </c>
       <c r="BJ227" s="3">
         <v>0</v>
       </c>
       <c r="BK227" s="3">
-        <v>0</v>
+        <v>805880</v>
       </c>
       <c r="BL227" s="3">
         <v>0</v>
       </c>
       <c r="BM227" s="3">
-        <v>0</v>
+        <v>302821</v>
       </c>
       <c r="BN227" s="3">
         <v>0</v>
@@ -89114,13 +89111,13 @@
         <v>0</v>
       </c>
       <c r="BQ227" s="3">
-        <v>0</v>
+        <v>1667242</v>
       </c>
       <c r="BR227" s="3">
         <v>0</v>
       </c>
       <c r="BS227" s="3">
-        <v>0</v>
+        <v>2446372</v>
       </c>
       <c r="BT227" s="3">
         <v>0</v>
@@ -89129,19 +89126,19 @@
         <v>0</v>
       </c>
       <c r="BV227" s="3">
-        <v>0</v>
+        <v>76663</v>
       </c>
       <c r="BW227" s="3">
-        <v>0</v>
+        <v>768283</v>
       </c>
       <c r="BX227" s="3">
-        <v>0</v>
+        <v>181556</v>
       </c>
       <c r="BY227" s="3">
-        <v>0</v>
+        <v>75805</v>
       </c>
       <c r="BZ227" s="3">
-        <v>0</v>
+        <v>10113731</v>
       </c>
       <c r="CA227" s="3">
         <v>0</v>
@@ -89162,7 +89159,7 @@
         <v>0</v>
       </c>
       <c r="CG227" s="3">
-        <v>0</v>
+        <v>787125</v>
       </c>
       <c r="CH227" s="3">
         <v>0</v>
@@ -89177,7 +89174,7 @@
         <v>0</v>
       </c>
       <c r="CL227" s="3">
-        <v>0</v>
+        <v>1996825</v>
       </c>
       <c r="CM227" s="3">
         <v>0</v>
@@ -89210,7 +89207,7 @@
         <v>0</v>
       </c>
       <c r="CW227" s="3">
-        <v>0</v>
+        <v>1374541</v>
       </c>
       <c r="CX227" s="3">
         <v>0</v>
@@ -89225,31 +89222,31 @@
         <v>0</v>
       </c>
       <c r="DB227" s="3">
-        <v>0</v>
+        <v>3072655</v>
       </c>
       <c r="DC227" s="3">
         <v>0</v>
       </c>
       <c r="DD227" s="3">
-        <v>0</v>
+        <v>867305</v>
       </c>
       <c r="DE227" s="3">
         <v>0</v>
       </c>
       <c r="DF227" s="3">
-        <v>0</v>
+        <v>155007</v>
       </c>
       <c r="DG227" s="3">
-        <v>0</v>
+        <v>1433731</v>
       </c>
       <c r="DH227" s="3">
-        <v>0</v>
+        <v>697518</v>
       </c>
       <c r="DI227" s="3">
         <v>0</v>
       </c>
       <c r="DJ227" s="3">
-        <v>0</v>
+        <v>3768199</v>
       </c>
       <c r="DK227" s="3">
         <v>0</v>
@@ -89285,7 +89282,7 @@
         <v>0</v>
       </c>
       <c r="DV227" s="3">
-        <v>9630000</v>
+        <v>9634250</v>
       </c>
       <c r="DW227" s="3">
         <v>0</v>
@@ -89294,7 +89291,7 @@
         <v>0</v>
       </c>
       <c r="DY227" s="3">
-        <v>78490000</v>
+        <v>78486683</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/Electricity Consumption by sector.xlsx
+++ b/inst/extdata/Electricity Consumption by sector.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6296055C-3C88-457D-82CB-8F98263E8B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75C91B9-7613-4446-99CF-66F999E5510D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="14400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Electricity Consumption_W" sheetId="1" r:id="rId1"/>
@@ -1295,86 +1295,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DY227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="DY2" sqref="B2:DY2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="36" max="38" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="44" max="46" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="50" max="54" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="66" max="68" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="73" max="77" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="78" max="79" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="82" max="84" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="86" max="87" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="90" max="91" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="95" max="96" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="97" max="99" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="102" max="105" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="108" max="109" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="111" max="112" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="121" max="122" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="123" max="125" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="127" max="128" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="38" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="46" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="54" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="66" max="68" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="73" max="77" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="82" max="84" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="86" max="87" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="90" max="91" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="95" max="96" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="97" max="99" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="102" max="105" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="108" max="109" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="111" max="112" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="121" max="122" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="123" max="125" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="127" max="128" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:129" ht="15">
+    <row r="1" spans="1:129">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>

--- a/inst/extdata/Electricity Consumption by sector.xlsx
+++ b/inst/extdata/Electricity Consumption by sector.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75C91B9-7613-4446-99CF-66F999E5510D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9541367-D2E9-4243-AD77-AE13F64398E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="14400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Electricity Consumption_W" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="273">
   <si>
     <t>Country</t>
   </si>
@@ -874,6 +874,9 @@
   <si>
     <t>2025-01-02</t>
   </si>
+  <si>
+    <t>2025-01-20</t>
+  </si>
 </sst>
 </file>
 
@@ -1293,90 +1296,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DY227"/>
+  <dimension ref="A1:DY228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="DY2" sqref="B2:DY2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="38" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="44" max="46" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="49" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="54" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="66" max="68" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="73" max="77" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="78" max="79" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="82" max="84" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="86" max="87" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="90" max="91" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="95" max="96" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="97" max="99" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="102" max="105" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="108" max="109" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="111" max="112" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="121" max="122" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="123" max="125" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="127" max="128" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="36" max="38" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="44" max="46" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="47" max="49" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="50" max="54" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="66" max="68" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="73" max="77" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="82" max="84" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="86" max="87" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="90" max="91" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="95" max="96" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="97" max="99" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="102" max="105" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="108" max="109" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="111" max="112" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="121" max="122" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="123" max="125" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="127" max="128" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="13.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:129">
+    <row r="1" spans="1:129" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -4093,7 +4096,7 @@
         <v>268</v>
       </c>
       <c r="DV8" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="DW8" s="5" t="s">
         <v>268</v>
@@ -4102,7 +4105,7 @@
         <v>268</v>
       </c>
       <c r="DY8" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:129">
@@ -89294,6 +89297,395 @@
       </c>
       <c r="DY227" s="3">
         <v>78486683</v>
+      </c>
+    </row>
+    <row r="228" spans="1:129">
+      <c r="A228" s="2">
+        <v>45657</v>
+      </c>
+      <c r="B228" s="3">
+        <v>0</v>
+      </c>
+      <c r="C228" s="3">
+        <v>0</v>
+      </c>
+      <c r="D228" s="3">
+        <v>0</v>
+      </c>
+      <c r="E228" s="3">
+        <v>0</v>
+      </c>
+      <c r="F228" s="3">
+        <v>0</v>
+      </c>
+      <c r="G228" s="3">
+        <v>0</v>
+      </c>
+      <c r="H228" s="3">
+        <v>0</v>
+      </c>
+      <c r="I228" s="3">
+        <v>0</v>
+      </c>
+      <c r="J228" s="3">
+        <v>0</v>
+      </c>
+      <c r="K228" s="3">
+        <v>0</v>
+      </c>
+      <c r="L228" s="3">
+        <v>0</v>
+      </c>
+      <c r="M228" s="3">
+        <v>0</v>
+      </c>
+      <c r="N228" s="3">
+        <v>0</v>
+      </c>
+      <c r="O228" s="3">
+        <v>0</v>
+      </c>
+      <c r="P228" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q228" s="3">
+        <v>0</v>
+      </c>
+      <c r="R228" s="3">
+        <v>0</v>
+      </c>
+      <c r="S228" s="3">
+        <v>0</v>
+      </c>
+      <c r="T228" s="3">
+        <v>0</v>
+      </c>
+      <c r="U228" s="3">
+        <v>0</v>
+      </c>
+      <c r="V228" s="3">
+        <v>0</v>
+      </c>
+      <c r="W228" s="3">
+        <v>0</v>
+      </c>
+      <c r="X228" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y228" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY228" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ228" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA228" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB228" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC228" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD228" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE228" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF228" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG228" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH228" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI228" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ228" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK228" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL228" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM228" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN228" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO228" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP228" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ228" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR228" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS228" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT228" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU228" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV228" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW228" s="3">
+        <v>0</v>
+      </c>
+      <c r="BX228" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY228" s="3">
+        <v>0</v>
+      </c>
+      <c r="BZ228" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA228" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB228" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC228" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD228" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE228" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF228" s="3">
+        <v>0</v>
+      </c>
+      <c r="CG228" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH228" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI228" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ228" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK228" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL228" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM228" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN228" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO228" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP228" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ228" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR228" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS228" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT228" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU228" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV228" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW228" s="3">
+        <v>0</v>
+      </c>
+      <c r="CX228" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY228" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ228" s="3">
+        <v>0</v>
+      </c>
+      <c r="DA228" s="3">
+        <v>0</v>
+      </c>
+      <c r="DB228" s="3">
+        <v>0</v>
+      </c>
+      <c r="DC228" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD228" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE228" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF228" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG228" s="3">
+        <v>0</v>
+      </c>
+      <c r="DH228" s="3">
+        <v>0</v>
+      </c>
+      <c r="DI228" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ228" s="3">
+        <v>0</v>
+      </c>
+      <c r="DK228" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL228" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM228" s="3">
+        <v>0</v>
+      </c>
+      <c r="DN228" s="3">
+        <v>0</v>
+      </c>
+      <c r="DO228" s="3">
+        <v>0</v>
+      </c>
+      <c r="DP228" s="3">
+        <v>0</v>
+      </c>
+      <c r="DQ228" s="3">
+        <v>0</v>
+      </c>
+      <c r="DR228" s="3">
+        <v>0</v>
+      </c>
+      <c r="DS228" s="3">
+        <v>0</v>
+      </c>
+      <c r="DT228" s="3">
+        <v>0</v>
+      </c>
+      <c r="DU228" s="3">
+        <v>0</v>
+      </c>
+      <c r="DV228" s="3">
+        <v>13210000</v>
+      </c>
+      <c r="DW228" s="3">
+        <v>0</v>
+      </c>
+      <c r="DX228" s="3">
+        <v>0</v>
+      </c>
+      <c r="DY228" s="3">
+        <v>88350000</v>
       </c>
     </row>
   </sheetData>
